--- a/Notebooks/data_processed.xlsx
+++ b/Notebooks/data_processed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE161"/>
+  <dimension ref="A1:AG161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,6 +591,16 @@
       <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>area_max_um</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>time_wave_start_guess</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>time_wave_arrival_guess</t>
         </is>
       </c>
     </row>
@@ -764,6 +774,12 @@
       <c r="AE2" t="n">
         <v>106182.5184</v>
       </c>
+      <c r="AF2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -939,6 +955,12 @@
       <c r="AE3" t="n">
         <v>152582.1372</v>
       </c>
+      <c r="AF3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1114,6 +1136,12 @@
       <c r="AE4" t="n">
         <v>140972.8104</v>
       </c>
+      <c r="AF4" t="n">
+        <v>52</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1285,6 +1313,12 @@
       <c r="AE5" t="n">
         <v>102700.89</v>
       </c>
+      <c r="AF5" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1460,6 +1494,12 @@
       <c r="AE6" t="n">
         <v>133640.4672</v>
       </c>
+      <c r="AF6" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1631,6 +1671,12 @@
       <c r="AE7" t="n">
         <v>107074.044</v>
       </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1802,6 +1848,8 @@
       <c r="AE8" t="n">
         <v>57751.62479999999</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1965,6 +2013,8 @@
       <c r="AE9" t="n">
         <v>35698.7124</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2136,6 +2186,12 @@
       <c r="AE10" t="n">
         <v>149308.4448</v>
       </c>
+      <c r="AF10" t="n">
+        <v>53</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -2311,6 +2367,12 @@
       <c r="AE11" t="n">
         <v>838605.1500000001</v>
       </c>
+      <c r="AF11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -2484,6 +2546,12 @@
       <c r="AE12" t="n">
         <v>698360.1300000001</v>
       </c>
+      <c r="AF12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -2659,6 +2727,12 @@
       <c r="AE13" t="n">
         <v>476031.5325000001</v>
       </c>
+      <c r="AF13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -2834,6 +2908,12 @@
       <c r="AE14" t="n">
         <v>288201.8952</v>
       </c>
+      <c r="AF14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -3009,6 +3089,12 @@
       <c r="AE15" t="n">
         <v>379745.7191999999</v>
       </c>
+      <c r="AF15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -3184,6 +3270,12 @@
       <c r="AE16" t="n">
         <v>431803.7963999999</v>
       </c>
+      <c r="AF16" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -3359,6 +3451,12 @@
       <c r="AE17" t="n">
         <v>351614.5776</v>
       </c>
+      <c r="AF17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -3534,6 +3632,12 @@
       <c r="AE18" t="n">
         <v>359494.0524</v>
       </c>
+      <c r="AF18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -3709,6 +3813,12 @@
       <c r="AE19" t="n">
         <v>390003.4619999999</v>
       </c>
+      <c r="AF19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -3884,6 +3994,8 @@
       <c r="AE20" t="n">
         <v>938720.5425000001</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -4059,6 +4171,12 @@
       <c r="AE21" t="n">
         <v>688103.1000000001</v>
       </c>
+      <c r="AF21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -4234,6 +4352,12 @@
       <c r="AE22" t="n">
         <v>785478.2399999999</v>
       </c>
+      <c r="AF22" t="n">
+        <v>89</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -4409,6 +4533,12 @@
       <c r="AE23" t="n">
         <v>1100212.7688</v>
       </c>
+      <c r="AF23" t="n">
+        <v>113</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -4584,6 +4714,12 @@
       <c r="AE24" t="n">
         <v>1011855.564</v>
       </c>
+      <c r="AF24" t="n">
+        <v>119</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -4759,6 +4895,12 @@
       <c r="AE25" t="n">
         <v>294782.085</v>
       </c>
+      <c r="AF25" t="n">
+        <v>62</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -4934,6 +5076,12 @@
       <c r="AE26" t="n">
         <v>295660.53</v>
       </c>
+      <c r="AF26" t="n">
+        <v>57</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -5109,6 +5257,12 @@
       <c r="AE27" t="n">
         <v>310851.0675000001</v>
       </c>
+      <c r="AF27" t="n">
+        <v>61</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -5284,6 +5438,12 @@
       <c r="AE28" t="n">
         <v>312422.0625000001</v>
       </c>
+      <c r="AF28" t="n">
+        <v>63</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -5459,6 +5619,12 @@
       <c r="AE29" t="n">
         <v>333923.9175</v>
       </c>
+      <c r="AF29" t="n">
+        <v>62</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -5634,6 +5800,12 @@
       <c r="AE30" t="n">
         <v>479357.5950000001</v>
       </c>
+      <c r="AF30" t="n">
+        <v>61</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -5809,6 +5981,12 @@
       <c r="AE31" t="n">
         <v>694449.045</v>
       </c>
+      <c r="AF31" t="n">
+        <v>63</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -5984,6 +6162,12 @@
       <c r="AE32" t="n">
         <v>298633.0275</v>
       </c>
+      <c r="AF32" t="n">
+        <v>66</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -6159,6 +6343,12 @@
       <c r="AE33" t="n">
         <v>313335.1350000001</v>
       </c>
+      <c r="AF33" t="n">
+        <v>59</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -6334,6 +6524,12 @@
       <c r="AE34" t="n">
         <v>571916.9025000001</v>
       </c>
+      <c r="AF34" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -6508,6 +6704,12 @@
       </c>
       <c r="AE35" t="n">
         <v>274891.32</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>64</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="36">
@@ -6705,6 +6907,12 @@
       <c r="AE36" t="n">
         <v>909584.8415999999</v>
       </c>
+      <c r="AF36" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -6901,6 +7109,12 @@
       <c r="AE37" t="n">
         <v>655344.0935999999</v>
       </c>
+      <c r="AF37" t="n">
+        <v>79</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -7097,6 +7311,12 @@
       <c r="AE38" t="n">
         <v>750003.0587999999</v>
       </c>
+      <c r="AF38" t="n">
+        <v>64</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -7293,6 +7513,12 @@
       <c r="AE39" t="n">
         <v>749138.8247999999</v>
       </c>
+      <c r="AF39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -7489,6 +7715,12 @@
       <c r="AE40" t="n">
         <v>433356.8183999999</v>
       </c>
+      <c r="AF40" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -7685,6 +7917,12 @@
       <c r="AE41" t="n">
         <v>661253.3747999999</v>
       </c>
+      <c r="AF41" t="n">
+        <v>63</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -7881,6 +8119,12 @@
       <c r="AE42" t="n">
         <v>846586.7315999999</v>
       </c>
+      <c r="AF42" t="n">
+        <v>124</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -8052,6 +8296,12 @@
       <c r="AE43" t="n">
         <v>145173.06</v>
       </c>
+      <c r="AF43" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -8223,6 +8473,12 @@
       <c r="AE44" t="n">
         <v>163729.755</v>
       </c>
+      <c r="AF44" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -8394,6 +8650,12 @@
       <c r="AE45" t="n">
         <v>101137.815</v>
       </c>
+      <c r="AF45" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -8565,6 +8827,12 @@
       <c r="AE46" t="n">
         <v>93403.12500000001</v>
       </c>
+      <c r="AF46" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -8736,6 +9004,12 @@
       <c r="AE47" t="n">
         <v>86142.28500000002</v>
       </c>
+      <c r="AF47" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -8907,6 +9181,12 @@
       <c r="AE48" t="n">
         <v>89112.96000000001</v>
       </c>
+      <c r="AF48" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -9078,6 +9358,12 @@
       <c r="AE49" t="n">
         <v>91786.5675</v>
       </c>
+      <c r="AF49" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -9249,6 +9535,12 @@
       <c r="AE50" t="n">
         <v>110503.6425</v>
       </c>
+      <c r="AF50" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -9420,6 +9712,12 @@
       <c r="AE51" t="n">
         <v>142902.225</v>
       </c>
+      <c r="AF51" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -9591,6 +9889,12 @@
       <c r="AE52" t="n">
         <v>141376.7925</v>
       </c>
+      <c r="AF52" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -9762,6 +10066,12 @@
       <c r="AE53" t="n">
         <v>164052.3375</v>
       </c>
+      <c r="AF53" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -9924,6 +10234,12 @@
       </c>
       <c r="AE54" t="n">
         <v>48310.83000000001</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="55">
@@ -10096,6 +10412,12 @@
       <c r="AE55" t="n">
         <v>106572.51</v>
       </c>
+      <c r="AF55" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -10267,6 +10589,12 @@
       <c r="AE56" t="n">
         <v>93742.11000000002</v>
       </c>
+      <c r="AF56" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -10438,6 +10766,12 @@
       <c r="AE57" t="n">
         <v>57301.22250000001</v>
       </c>
+      <c r="AF57" t="n">
+        <v>57</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -10613,6 +10947,8 @@
       <c r="AE58" t="n">
         <v>330453.1908</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -10788,6 +11124,8 @@
       <c r="AE59" t="n">
         <v>406917.7559999999</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -10963,6 +11301,8 @@
       <c r="AE60" t="n">
         <v>254882.7504</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -11138,6 +11478,8 @@
       <c r="AE61" t="n">
         <v>502882.8192</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -11313,6 +11655,8 @@
       <c r="AE62" t="n">
         <v>359027.496</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -11488,6 +11832,8 @@
       <c r="AE63" t="n">
         <v>298498.626</v>
       </c>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -11663,6 +12009,8 @@
       <c r="AE64" t="n">
         <v>311671.3716</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -11838,6 +12186,8 @@
       <c r="AE65" t="n">
         <v>257149.2528</v>
       </c>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -12013,6 +12363,8 @@
       <c r="AE66" t="n">
         <v>303203.178</v>
       </c>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -12188,6 +12540,8 @@
       <c r="AE67" t="n">
         <v>363919.1904</v>
       </c>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -12363,6 +12717,8 @@
       <c r="AE68" t="n">
         <v>310804.5384</v>
       </c>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -12538,6 +12894,8 @@
       <c r="AE69" t="n">
         <v>452159.4311999999</v>
       </c>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -12713,6 +13071,8 @@
       <c r="AE70" t="n">
         <v>330128.2908</v>
       </c>
+      <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -12888,6 +13248,8 @@
       <c r="AE71" t="n">
         <v>379494.8964</v>
       </c>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -13063,6 +13425,8 @@
       <c r="AE72" t="n">
         <v>396756.1835999999</v>
       </c>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -13238,6 +13602,12 @@
       <c r="AE73" t="n">
         <v>213675.3675</v>
       </c>
+      <c r="AF73" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -13413,6 +13783,12 @@
       <c r="AE74" t="n">
         <v>209274.03</v>
       </c>
+      <c r="AF74" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -13588,6 +13964,12 @@
       <c r="AE75" t="n">
         <v>271370.2500000001</v>
       </c>
+      <c r="AF75" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -13763,6 +14145,12 @@
       <c r="AE76" t="n">
         <v>258665.6025</v>
       </c>
+      <c r="AF76" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -13938,6 +14326,12 @@
       <c r="AE77" t="n">
         <v>336976.605</v>
       </c>
+      <c r="AF77" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -14113,6 +14507,12 @@
       <c r="AE78" t="n">
         <v>374720.5800000001</v>
       </c>
+      <c r="AF78" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -14288,6 +14688,12 @@
       <c r="AE79" t="n">
         <v>185780.1825</v>
       </c>
+      <c r="AF79" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -14459,6 +14865,12 @@
       <c r="AE80" t="n">
         <v>160655.1975</v>
       </c>
+      <c r="AF80" t="n">
+        <v>47</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -14630,6 +15042,12 @@
       <c r="AE81" t="n">
         <v>166660.335</v>
       </c>
+      <c r="AF81" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -14805,6 +15223,12 @@
       <c r="AE82" t="n">
         <v>200456.775</v>
       </c>
+      <c r="AF82" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -14980,6 +15404,12 @@
       <c r="AE83" t="n">
         <v>207719.4375</v>
       </c>
+      <c r="AF83" t="n">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -15151,6 +15581,12 @@
       <c r="AE84" t="n">
         <v>174261.9825</v>
       </c>
+      <c r="AF84" t="n">
+        <v>76</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -15326,6 +15762,12 @@
       <c r="AE85" t="n">
         <v>200021.1975</v>
       </c>
+      <c r="AF85" t="n">
+        <v>79</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -15501,6 +15943,12 @@
       <c r="AE86" t="n">
         <v>231636.105</v>
       </c>
+      <c r="AF86" t="n">
+        <v>88</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -15676,6 +16124,12 @@
       <c r="AE87" t="n">
         <v>273808.7550000001</v>
       </c>
+      <c r="AF87" t="n">
+        <v>87</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -15851,6 +16305,12 @@
       <c r="AE88" t="n">
         <v>323497.395</v>
       </c>
+      <c r="AF88" t="n">
+        <v>91</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -16026,6 +16486,12 @@
       <c r="AE89" t="n">
         <v>248155.245</v>
       </c>
+      <c r="AF89" t="n">
+        <v>92</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -16201,6 +16667,12 @@
       <c r="AE90" t="n">
         <v>248844.15</v>
       </c>
+      <c r="AF90" t="n">
+        <v>87</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -16376,6 +16848,12 @@
       <c r="AE91" t="n">
         <v>237898.215</v>
       </c>
+      <c r="AF91" t="n">
+        <v>72</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -16547,6 +17025,12 @@
       <c r="AE92" t="n">
         <v>176068.08</v>
       </c>
+      <c r="AF92" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -16722,6 +17206,12 @@
       <c r="AE93" t="n">
         <v>202292.0325</v>
       </c>
+      <c r="AF93" t="n">
+        <v>74</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -16893,6 +17383,12 @@
       <c r="AE94" t="n">
         <v>124327.305</v>
       </c>
+      <c r="AF94" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -17064,6 +17560,12 @@
       <c r="AE95" t="n">
         <v>172532.43</v>
       </c>
+      <c r="AF95" t="n">
+        <v>77</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -17235,6 +17737,12 @@
       <c r="AE96" t="n">
         <v>160133.9625</v>
       </c>
+      <c r="AF96" t="n">
+        <v>88</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -17410,6 +17918,12 @@
       <c r="AE97" t="n">
         <v>205490.52</v>
       </c>
+      <c r="AF97" t="n">
+        <v>89</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -17585,6 +18099,12 @@
       <c r="AE98" t="n">
         <v>569330.775</v>
       </c>
+      <c r="AF98" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -17760,6 +18280,12 @@
       <c r="AE99" t="n">
         <v>457555.0275000001</v>
       </c>
+      <c r="AF99" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -17935,6 +18461,12 @@
       <c r="AE100" t="n">
         <v>343721.6775</v>
       </c>
+      <c r="AF100" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -18110,6 +18642,12 @@
       <c r="AE101" t="n">
         <v>415863.5175000001</v>
       </c>
+      <c r="AF101" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -18285,6 +18823,12 @@
       <c r="AE102" t="n">
         <v>339076.1250000001</v>
       </c>
+      <c r="AF102" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -18460,6 +19004,12 @@
       <c r="AE103" t="n">
         <v>355012.0650000001</v>
       </c>
+      <c r="AF103" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -18635,6 +19185,12 @@
       <c r="AE104" t="n">
         <v>247340.5875</v>
       </c>
+      <c r="AF104" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -18810,6 +19366,12 @@
       <c r="AE105" t="n">
         <v>247674.105</v>
       </c>
+      <c r="AF105" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -18985,6 +19547,12 @@
       <c r="AE106" t="n">
         <v>246485.835</v>
       </c>
+      <c r="AF106" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -19160,6 +19728,12 @@
       <c r="AE107" t="n">
         <v>197600.9175</v>
       </c>
+      <c r="AF107" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -19331,6 +19905,12 @@
       <c r="AE108" t="n">
         <v>161180.0775</v>
       </c>
+      <c r="AF108" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -19502,6 +20082,12 @@
       <c r="AE109" t="n">
         <v>175512.2175</v>
       </c>
+      <c r="AF109" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -19677,6 +20263,12 @@
       <c r="AE110" t="n">
         <v>366411.8025</v>
       </c>
+      <c r="AF110" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -19848,6 +20440,12 @@
       <c r="AE111" t="n">
         <v>177174.3375</v>
       </c>
+      <c r="AF111" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -20019,6 +20617,12 @@
       <c r="AE112" t="n">
         <v>179791.4475</v>
       </c>
+      <c r="AF112" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -20194,6 +20798,12 @@
       <c r="AE113" t="n">
         <v>196326.99</v>
       </c>
+      <c r="AF113" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -20369,6 +20979,12 @@
       <c r="AE114" t="n">
         <v>324049.6125</v>
       </c>
+      <c r="AF114" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -20544,6 +21160,12 @@
       <c r="AE115" t="n">
         <v>236781.0225</v>
       </c>
+      <c r="AF115" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -20719,6 +21341,12 @@
       <c r="AE116" t="n">
         <v>247681.395</v>
       </c>
+      <c r="AF116" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -20889,6 +21517,12 @@
       </c>
       <c r="AE117" t="n">
         <v>139608.9675</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="118">
@@ -21119,6 +21753,12 @@
       <c r="AE118" t="n">
         <v>225465.0048</v>
       </c>
+      <c r="AF118" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -21348,6 +21988,12 @@
       <c r="AE119" t="n">
         <v>243289.0188</v>
       </c>
+      <c r="AF119" t="n">
+        <v>52</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -21577,6 +22223,12 @@
       <c r="AE120" t="n">
         <v>262864.8936</v>
       </c>
+      <c r="AF120" t="n">
+        <v>54</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -21806,6 +22458,12 @@
       <c r="AE121" t="n">
         <v>209466.9288</v>
       </c>
+      <c r="AF121" t="n">
+        <v>54</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -22035,6 +22693,12 @@
       <c r="AE122" t="n">
         <v>170459.4348</v>
       </c>
+      <c r="AF122" t="n">
+        <v>62</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -22264,6 +22928,8 @@
       <c r="AE123" t="n">
         <v>263840.8932</v>
       </c>
+      <c r="AF123" t="inlineStr"/>
+      <c r="AG123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -22493,6 +23159,8 @@
       <c r="AE124" t="n">
         <v>321495.048</v>
       </c>
+      <c r="AF124" t="inlineStr"/>
+      <c r="AG124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -22722,6 +23390,8 @@
       <c r="AE125" t="n">
         <v>369213.7608</v>
       </c>
+      <c r="AF125" t="inlineStr"/>
+      <c r="AG125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -22951,6 +23621,8 @@
       <c r="AE126" t="n">
         <v>349323.3828</v>
       </c>
+      <c r="AF126" t="inlineStr"/>
+      <c r="AG126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -23174,6 +23846,8 @@
       <c r="AE127" t="n">
         <v>114398.5896</v>
       </c>
+      <c r="AF127" t="inlineStr"/>
+      <c r="AG127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -23403,6 +24077,8 @@
       <c r="AE128" t="n">
         <v>174633.75</v>
       </c>
+      <c r="AF128" t="inlineStr"/>
+      <c r="AG128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -23632,6 +24308,8 @@
       <c r="AE129" t="n">
         <v>209518.9128</v>
       </c>
+      <c r="AF129" t="inlineStr"/>
+      <c r="AG129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -23861,6 +24539,8 @@
       <c r="AE130" t="n">
         <v>217321.7112</v>
       </c>
+      <c r="AF130" t="inlineStr"/>
+      <c r="AG130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -24090,6 +24770,8 @@
       <c r="AE131" t="n">
         <v>460209.1536</v>
       </c>
+      <c r="AF131" t="inlineStr"/>
+      <c r="AG131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -24319,6 +25001,8 @@
       <c r="AE132" t="n">
         <v>336316.986</v>
       </c>
+      <c r="AF132" t="inlineStr"/>
+      <c r="AG132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -24548,6 +25232,8 @@
       <c r="AE133" t="n">
         <v>335630.7972</v>
       </c>
+      <c r="AF133" t="inlineStr"/>
+      <c r="AG133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -24777,6 +25463,8 @@
       <c r="AE134" t="n">
         <v>386191.7351999999</v>
       </c>
+      <c r="AF134" t="inlineStr"/>
+      <c r="AG134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -25006,6 +25694,8 @@
       <c r="AE135" t="n">
         <v>549962.1287999999</v>
       </c>
+      <c r="AF135" t="inlineStr"/>
+      <c r="AG135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -25235,6 +25925,8 @@
       <c r="AE136" t="n">
         <v>552840.7427999999</v>
       </c>
+      <c r="AF136" t="inlineStr"/>
+      <c r="AG136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -25464,6 +26156,8 @@
       <c r="AE137" t="n">
         <v>244268.9172</v>
       </c>
+      <c r="AF137" t="inlineStr"/>
+      <c r="AG137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -25696,6 +26390,12 @@
       <c r="AE138" t="n">
         <v>207132.5925</v>
       </c>
+      <c r="AF138" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -25928,6 +26628,12 @@
       <c r="AE139" t="n">
         <v>188898.48</v>
       </c>
+      <c r="AF139" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -26160,6 +26866,12 @@
       <c r="AE140" t="n">
         <v>219560.22</v>
       </c>
+      <c r="AF140" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -26392,6 +27104,12 @@
       <c r="AE141" t="n">
         <v>240710.3325</v>
       </c>
+      <c r="AF141" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -26624,6 +27342,12 @@
       <c r="AE142" t="n">
         <v>195089.5125</v>
       </c>
+      <c r="AF142" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -26856,6 +27580,12 @@
       <c r="AE143" t="n">
         <v>195078.5775</v>
       </c>
+      <c r="AF143" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -27088,6 +27818,12 @@
       <c r="AE144" t="n">
         <v>400895.3250000001</v>
       </c>
+      <c r="AF144" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -27320,6 +28056,12 @@
       <c r="AE145" t="n">
         <v>329529.8700000001</v>
       </c>
+      <c r="AF145" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -27552,6 +28294,12 @@
       <c r="AE146" t="n">
         <v>252946.5975</v>
       </c>
+      <c r="AF146" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -27784,6 +28532,12 @@
       <c r="AE147" t="n">
         <v>332442.225</v>
       </c>
+      <c r="AF147" t="n">
+        <v>76</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -28009,6 +28763,12 @@
       <c r="AE148" t="n">
         <v>148107.285</v>
       </c>
+      <c r="AF148" t="n">
+        <v>78</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -28232,6 +28992,12 @@
       <c r="AE149" t="n">
         <v>102734.325</v>
       </c>
+      <c r="AF149" t="n">
+        <v>77</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -28457,6 +29223,12 @@
       <c r="AE150" t="n">
         <v>107294.22</v>
       </c>
+      <c r="AF150" t="n">
+        <v>87</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -28680,6 +29452,12 @@
       <c r="AE151" t="n">
         <v>139559.76</v>
       </c>
+      <c r="AF151" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -28905,6 +29683,12 @@
       <c r="AE152" t="n">
         <v>159151.635</v>
       </c>
+      <c r="AF152" t="n">
+        <v>84</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -29137,6 +29921,12 @@
       <c r="AE153" t="n">
         <v>222148.17</v>
       </c>
+      <c r="AF153" t="n">
+        <v>79</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -29362,6 +30152,12 @@
       <c r="AE154" t="n">
         <v>175945.9725</v>
       </c>
+      <c r="AF154" t="n">
+        <v>76</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -29587,6 +30383,12 @@
       <c r="AE155" t="n">
         <v>170476.65</v>
       </c>
+      <c r="AF155" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -29812,6 +30614,12 @@
       <c r="AE156" t="n">
         <v>154832.31</v>
       </c>
+      <c r="AF156" t="n">
+        <v>66</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -30037,6 +30845,12 @@
       <c r="AE157" t="n">
         <v>179177.265</v>
       </c>
+      <c r="AF157" t="n">
+        <v>68</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -30269,6 +31083,12 @@
       <c r="AE158" t="n">
         <v>195920.5725</v>
       </c>
+      <c r="AF158" t="n">
+        <v>69</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -30501,6 +31321,12 @@
       <c r="AE159" t="n">
         <v>216558.5625</v>
       </c>
+      <c r="AF159" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -30733,6 +31559,12 @@
       <c r="AE160" t="n">
         <v>196071.84</v>
       </c>
+      <c r="AF160" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -30944,6 +31776,12 @@
       <c r="AE161" t="n">
         <v>44840.79000000001</v>
       </c>
+      <c r="AF161" t="n">
+        <v>82</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Notebooks/data_processed.xlsx
+++ b/Notebooks/data_processed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR161"/>
+  <dimension ref="A1:AS161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,6 +656,11 @@
       <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>t_m_logistic_um</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>r0_um</t>
         </is>
       </c>
     </row>
@@ -889,6 +894,9 @@
       <c r="AR2" t="n">
         <v>222.1925958202412</v>
       </c>
+      <c r="AS2" t="n">
+        <v>25.7269886680175</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1124,6 +1132,9 @@
       <c r="AR3" t="n">
         <v>214.6162957225132</v>
       </c>
+      <c r="AS3" t="n">
+        <v>37.56748464670965</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1359,6 +1370,9 @@
       <c r="AR4" t="n">
         <v>207.8824667122106</v>
       </c>
+      <c r="AS4" t="n">
+        <v>50.00292518295483</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1590,6 +1604,9 @@
       <c r="AR5" t="n">
         <v>198.4369910456967</v>
       </c>
+      <c r="AS5" t="n">
+        <v>23.36875711123766</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1825,6 +1842,9 @@
       <c r="AR6" t="n">
         <v>208.8041739964346</v>
       </c>
+      <c r="AS6" t="n">
+        <v>35.21665140877695</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2056,6 +2076,9 @@
       <c r="AR7" t="n">
         <v>215.5179005553303</v>
       </c>
+      <c r="AS7" t="n">
+        <v>25.03432499969788</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2270,6 +2293,9 @@
       <c r="AR8" t="n">
         <v>239.3896132421958</v>
       </c>
+      <c r="AS8" t="n">
+        <v>0.01128972834449188</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2475,6 +2501,9 @@
       </c>
       <c r="AR9" t="n">
         <v>255.0784568182708</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.04904123302332919</v>
       </c>
     </row>
     <row r="10">
@@ -2707,6 +2736,9 @@
       <c r="AR10" t="n">
         <v>213.516705354617</v>
       </c>
+      <c r="AS10" t="n">
+        <v>38.06516050448753</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -2942,6 +2974,9 @@
       <c r="AR11" t="n">
         <v>243.6243917258836</v>
       </c>
+      <c r="AS11" t="n">
+        <v>40.48812031944996</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -3176,6 +3211,9 @@
       <c r="AR12" t="n">
         <v>267.6570997153618</v>
       </c>
+      <c r="AS12" t="n">
+        <v>45.64474388011247</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -3412,6 +3450,9 @@
       <c r="AR13" t="n">
         <v>251.7527162692577</v>
       </c>
+      <c r="AS13" t="n">
+        <v>44.54617324588241</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -3647,6 +3688,9 @@
       <c r="AR14" t="n">
         <v>237.4563977364994</v>
       </c>
+      <c r="AS14" t="n">
+        <v>54.67978957529387</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -3882,6 +3926,9 @@
       <c r="AR15" t="n">
         <v>228.6928469323618</v>
       </c>
+      <c r="AS15" t="n">
+        <v>62.54790438981826</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -4117,6 +4164,9 @@
       <c r="AR16" t="n">
         <v>227.3449249618669</v>
       </c>
+      <c r="AS16" t="n">
+        <v>60.54256325100489</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -4352,6 +4402,9 @@
       <c r="AR17" t="n">
         <v>241.2196337400428</v>
       </c>
+      <c r="AS17" t="n">
+        <v>59.55559780814227</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -4587,6 +4640,9 @@
       <c r="AR18" t="n">
         <v>225.7539330653316</v>
       </c>
+      <c r="AS18" t="n">
+        <v>68.46498745978072</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -4822,6 +4878,9 @@
       <c r="AR19" t="n">
         <v>225.5501257770557</v>
       </c>
+      <c r="AS19" t="n">
+        <v>59.89941689998923</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -5040,6 +5099,9 @@
       <c r="AR20" t="n">
         <v>264.2987592716136</v>
       </c>
+      <c r="AS20" t="n">
+        <v>25.71103054748304</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -5275,6 +5337,9 @@
       <c r="AR21" t="n">
         <v>239.9232858028519</v>
       </c>
+      <c r="AS21" t="n">
+        <v>45.75093627567349</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -5510,6 +5575,9 @@
       <c r="AR22" t="n">
         <v>287.5969052179743</v>
       </c>
+      <c r="AS22" t="n">
+        <v>52.21690427880642</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -5745,6 +5813,9 @@
       <c r="AR23" t="n">
         <v>304.1219993758995</v>
       </c>
+      <c r="AS23" t="n">
+        <v>56.69348592010294</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -5980,6 +6051,9 @@
       <c r="AR24" t="n">
         <v>312.4638840394728</v>
       </c>
+      <c r="AS24" t="n">
+        <v>57.29348954617847</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -6215,6 +6289,9 @@
       <c r="AR25" t="n">
         <v>295.8748966570786</v>
       </c>
+      <c r="AS25" t="n">
+        <v>32.48826877358685</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -6450,6 +6527,9 @@
       <c r="AR26" t="n">
         <v>300.5019000961037</v>
       </c>
+      <c r="AS26" t="n">
+        <v>55.06275719260503</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -6685,6 +6765,9 @@
       <c r="AR27" t="n">
         <v>282.7851740630385</v>
       </c>
+      <c r="AS27" t="n">
+        <v>35.67421554238539</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -6920,6 +7003,9 @@
       <c r="AR28" t="n">
         <v>282.174250511452</v>
       </c>
+      <c r="AS28" t="n">
+        <v>33.28518678368846</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -7155,6 +7241,9 @@
       <c r="AR29" t="n">
         <v>291.6164999731722</v>
       </c>
+      <c r="AS29" t="n">
+        <v>29.72403144018446</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -7390,6 +7479,9 @@
       <c r="AR30" t="n">
         <v>268.7596545411701</v>
       </c>
+      <c r="AS30" t="n">
+        <v>42.5998215757089</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -7625,6 +7717,9 @@
       <c r="AR31" t="n">
         <v>271.8660217854306</v>
       </c>
+      <c r="AS31" t="n">
+        <v>46.6213728827003</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -7860,6 +7955,9 @@
       <c r="AR32" t="n">
         <v>279.5522237459357</v>
       </c>
+      <c r="AS32" t="n">
+        <v>30.15204441902487</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -8095,6 +8193,9 @@
       <c r="AR33" t="n">
         <v>280.9035201749352</v>
       </c>
+      <c r="AS33" t="n">
+        <v>38.30456416630851</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -8330,6 +8431,9 @@
       <c r="AR34" t="n">
         <v>273.5746623924898</v>
       </c>
+      <c r="AS34" t="n">
+        <v>55.48442041549589</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -8564,6 +8668,9 @@
       </c>
       <c r="AR35" t="n">
         <v>288.2588596110196</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>35.82182693405822</v>
       </c>
     </row>
     <row r="36">
@@ -8821,6 +8928,9 @@
       <c r="AR36" t="n">
         <v>277.5487495406751</v>
       </c>
+      <c r="AS36" t="n">
+        <v>51.29659896759006</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -9077,6 +9187,9 @@
       <c r="AR37" t="n">
         <v>279.4247927869734</v>
       </c>
+      <c r="AS37" t="n">
+        <v>49.42917323596047</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -9333,6 +9446,9 @@
       <c r="AR38" t="n">
         <v>280.1431881143793</v>
       </c>
+      <c r="AS38" t="n">
+        <v>56.36958292117053</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -9589,6 +9705,9 @@
       <c r="AR39" t="n">
         <v>294.5833653673866</v>
       </c>
+      <c r="AS39" t="n">
+        <v>50.50448111693051</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -9845,6 +9964,9 @@
       <c r="AR40" t="n">
         <v>278.931650931243</v>
       </c>
+      <c r="AS40" t="n">
+        <v>47.04285845762791</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -10101,6 +10223,9 @@
       <c r="AR41" t="n">
         <v>275.6090800119825</v>
       </c>
+      <c r="AS41" t="n">
+        <v>55.03914502034846</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -10357,6 +10482,9 @@
       <c r="AR42" t="n">
         <v>433.581835651935</v>
       </c>
+      <c r="AS42" t="n">
+        <v>57.69653862756882</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -10588,6 +10716,9 @@
       <c r="AR43" t="n">
         <v>225.0362221228687</v>
       </c>
+      <c r="AS43" t="n">
+        <v>21.78481776505853</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -10819,6 +10950,9 @@
       <c r="AR44" t="n">
         <v>224.3834043289766</v>
       </c>
+      <c r="AS44" t="n">
+        <v>25.85395167610064</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -11050,6 +11184,9 @@
       <c r="AR45" t="n">
         <v>239.2323644458547</v>
       </c>
+      <c r="AS45" t="n">
+        <v>0.01090874252799731</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -11281,6 +11418,9 @@
       <c r="AR46" t="n">
         <v>245.0318716964877</v>
       </c>
+      <c r="AS46" t="n">
+        <v>20.75491614993714</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -11512,6 +11652,9 @@
       <c r="AR47" t="n">
         <v>245.8897148602505</v>
       </c>
+      <c r="AS47" t="n">
+        <v>18.53093801696269</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -11743,6 +11886,9 @@
       <c r="AR48" t="n">
         <v>250.8954305610526</v>
       </c>
+      <c r="AS48" t="n">
+        <v>20.420170207079</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -11974,6 +12120,9 @@
       <c r="AR49" t="n">
         <v>246.5186296379591</v>
       </c>
+      <c r="AS49" t="n">
+        <v>15.53425618437828</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -12205,6 +12354,9 @@
       <c r="AR50" t="n">
         <v>290.2802230681586</v>
       </c>
+      <c r="AS50" t="n">
+        <v>25.99138461810339</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -12436,6 +12588,9 @@
       <c r="AR51" t="n">
         <v>258.4947705202937</v>
       </c>
+      <c r="AS51" t="n">
+        <v>42.85357121540435</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -12667,6 +12822,9 @@
       <c r="AR52" t="n">
         <v>299.6036962409033</v>
       </c>
+      <c r="AS52" t="n">
+        <v>0.006655962595966542</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -12898,6 +13056,9 @@
       <c r="AR53" t="n">
         <v>222.4294705034474</v>
       </c>
+      <c r="AS53" t="n">
+        <v>29.85255765742653</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -13120,6 +13281,9 @@
       </c>
       <c r="AR54" t="n">
         <v>269.7324244961119</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0.0020819549461036</v>
       </c>
     </row>
     <row r="55">
@@ -13352,6 +13516,9 @@
       <c r="AR55" t="n">
         <v>235.3304397068384</v>
       </c>
+      <c r="AS55" t="n">
+        <v>24.25076416126238</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -13583,6 +13750,9 @@
       <c r="AR56" t="n">
         <v>244.7324376163266</v>
       </c>
+      <c r="AS56" t="n">
+        <v>24.28754486712129</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -13814,6 +13984,9 @@
       <c r="AR57" t="n">
         <v>255.2881542203567</v>
       </c>
+      <c r="AS57" t="n">
+        <v>0.001246981970529196</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -14050,6 +14223,9 @@
       <c r="AR58" t="n">
         <v>275.6454260810372</v>
       </c>
+      <c r="AS58" t="n">
+        <v>49.42544917279338</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -14286,6 +14462,9 @@
       <c r="AR59" t="n">
         <v>257.6789736243464</v>
       </c>
+      <c r="AS59" t="n">
+        <v>49.68936384968703</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -14522,6 +14701,9 @@
       <c r="AR60" t="n">
         <v>284.3776024083521</v>
       </c>
+      <c r="AS60" t="n">
+        <v>59.76474397662063</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -14758,6 +14940,9 @@
       <c r="AR61" t="n">
         <v>304.0571093006965</v>
       </c>
+      <c r="AS61" t="n">
+        <v>65.86619513263555</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -14994,6 +15179,9 @@
       <c r="AR62" t="n">
         <v>279.0594906437844</v>
       </c>
+      <c r="AS62" t="n">
+        <v>59.66844737073787</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -15230,6 +15418,9 @@
       <c r="AR63" t="n">
         <v>266.2489180172668</v>
       </c>
+      <c r="AS63" t="n">
+        <v>53.53632577728696</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -15466,6 +15657,9 @@
       <c r="AR64" t="n">
         <v>285.4044556492349</v>
       </c>
+      <c r="AS64" t="n">
+        <v>50.69349104608848</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -15702,6 +15896,9 @@
       <c r="AR65" t="n">
         <v>272.9813327560828</v>
       </c>
+      <c r="AS65" t="n">
+        <v>46.27907347177915</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -15938,6 +16135,9 @@
       <c r="AR66" t="n">
         <v>280.5599002959119</v>
       </c>
+      <c r="AS66" t="n">
+        <v>33.79518869989323</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -16174,6 +16374,9 @@
       <c r="AR67" t="n">
         <v>283.3106778136711</v>
       </c>
+      <c r="AS67" t="n">
+        <v>52.51330362581772</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -16410,6 +16613,9 @@
       <c r="AR68" t="n">
         <v>284.7434494979024</v>
       </c>
+      <c r="AS68" t="n">
+        <v>48.80014849227268</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -16646,6 +16852,9 @@
       <c r="AR69" t="n">
         <v>312.2029447440438</v>
       </c>
+      <c r="AS69" t="n">
+        <v>53.81944285114832</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -16882,6 +17091,9 @@
       <c r="AR70" t="n">
         <v>298.3724337404569</v>
       </c>
+      <c r="AS70" t="n">
+        <v>44.911661508472</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -17118,6 +17330,9 @@
       <c r="AR71" t="n">
         <v>313.1336300951195</v>
       </c>
+      <c r="AS71" t="n">
+        <v>50.03276289643701</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -17354,6 +17569,9 @@
       <c r="AR72" t="n">
         <v>308.4645698200649</v>
       </c>
+      <c r="AS72" t="n">
+        <v>52.61796270891896</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -17589,6 +17807,9 @@
       <c r="AR73" t="n">
         <v>236.5484167546373</v>
       </c>
+      <c r="AS73" t="n">
+        <v>36.92352184268229</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -17824,6 +18045,9 @@
       <c r="AR74" t="n">
         <v>240.309197692043</v>
       </c>
+      <c r="AS74" t="n">
+        <v>35.5675312827396</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -18059,6 +18283,9 @@
       <c r="AR75" t="n">
         <v>268.4532756222602</v>
       </c>
+      <c r="AS75" t="n">
+        <v>42.58629348110798</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -18294,6 +18521,9 @@
       <c r="AR76" t="n">
         <v>254.2290539653181</v>
       </c>
+      <c r="AS76" t="n">
+        <v>50.60868900117777</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -18529,6 +18759,9 @@
       <c r="AR77" t="n">
         <v>247.4772813451025</v>
       </c>
+      <c r="AS77" t="n">
+        <v>48.39573243571673</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -18764,6 +18997,9 @@
       <c r="AR78" t="n">
         <v>251.6049150089018</v>
       </c>
+      <c r="AS78" t="n">
+        <v>58.73340671389625</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -18999,6 +19235,9 @@
       <c r="AR79" t="n">
         <v>243.0712167856003</v>
       </c>
+      <c r="AS79" t="n">
+        <v>39.0948122297557</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -19230,6 +19469,9 @@
       <c r="AR80" t="n">
         <v>234.3613968740124</v>
       </c>
+      <c r="AS80" t="n">
+        <v>33.23859771276252</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -19461,6 +19703,9 @@
       <c r="AR81" t="n">
         <v>236.6683266608653</v>
       </c>
+      <c r="AS81" t="n">
+        <v>25.85223725300231</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -19696,6 +19941,9 @@
       <c r="AR82" t="n">
         <v>239.4288143934149</v>
       </c>
+      <c r="AS82" t="n">
+        <v>37.0004544103329</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -19931,6 +20179,9 @@
       <c r="AR83" t="n">
         <v>264.4855395248936</v>
       </c>
+      <c r="AS83" t="n">
+        <v>61.84946199226168</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -20162,6 +20413,9 @@
       <c r="AR84" t="n">
         <v>265.1738267418963</v>
       </c>
+      <c r="AS84" t="n">
+        <v>66.63273107617265</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -20397,6 +20651,9 @@
       <c r="AR85" t="n">
         <v>269.1938682399958</v>
       </c>
+      <c r="AS85" t="n">
+        <v>60.14549285396046</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -20632,6 +20889,9 @@
       <c r="AR86" t="n">
         <v>273.7435687509122</v>
       </c>
+      <c r="AS86" t="n">
+        <v>58.77577187486757</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -20867,6 +21127,9 @@
       <c r="AR87" t="n">
         <v>278.0499418546229</v>
       </c>
+      <c r="AS87" t="n">
+        <v>50.0893271877645</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -21102,6 +21365,9 @@
       <c r="AR88" t="n">
         <v>282.8416871418447</v>
       </c>
+      <c r="AS88" t="n">
+        <v>58.46063054413482</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -21337,6 +21603,9 @@
       <c r="AR89" t="n">
         <v>276.2839011004097</v>
       </c>
+      <c r="AS89" t="n">
+        <v>58.50740995605464</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -21572,6 +21841,9 @@
       <c r="AR90" t="n">
         <v>263.7260194700038</v>
       </c>
+      <c r="AS90" t="n">
+        <v>45.10590707493234</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -21807,6 +22079,9 @@
       <c r="AR91" t="n">
         <v>283.3373178321611</v>
       </c>
+      <c r="AS91" t="n">
+        <v>51.12330874066612</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -22038,6 +22313,9 @@
       <c r="AR92" t="n">
         <v>284.5792604706464</v>
       </c>
+      <c r="AS92" t="n">
+        <v>30.19097073788573</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -22273,6 +22551,9 @@
       <c r="AR93" t="n">
         <v>276.8584376737614</v>
       </c>
+      <c r="AS93" t="n">
+        <v>41.81349820424733</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -22504,6 +22785,9 @@
       <c r="AR94" t="n">
         <v>225.904068713537</v>
       </c>
+      <c r="AS94" t="n">
+        <v>0.004391521985186478</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -22735,6 +23019,9 @@
       <c r="AR95" t="n">
         <v>265.0593626599586</v>
       </c>
+      <c r="AS95" t="n">
+        <v>60.65667081832104</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -22966,6 +23253,9 @@
       <c r="AR96" t="n">
         <v>265.580366949469</v>
       </c>
+      <c r="AS96" t="n">
+        <v>54.23848867594747</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -23201,6 +23491,9 @@
       <c r="AR97" t="n">
         <v>268.0526219063552</v>
       </c>
+      <c r="AS97" t="n">
+        <v>76.25876612716324</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -23436,6 +23729,9 @@
       <c r="AR98" t="n">
         <v>257.4268233888813</v>
       </c>
+      <c r="AS98" t="n">
+        <v>49.50539743791146</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -23671,6 +23967,9 @@
       <c r="AR99" t="n">
         <v>255.3702312867566</v>
       </c>
+      <c r="AS99" t="n">
+        <v>37.08981889498458</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -23906,6 +24205,9 @@
       <c r="AR100" t="n">
         <v>255.810315981929</v>
       </c>
+      <c r="AS100" t="n">
+        <v>38.84300618370322</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -24141,6 +24443,9 @@
       <c r="AR101" t="n">
         <v>256.2941235604745</v>
       </c>
+      <c r="AS101" t="n">
+        <v>40.40819825802534</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -24376,6 +24681,9 @@
       <c r="AR102" t="n">
         <v>262.2669354835353</v>
       </c>
+      <c r="AS102" t="n">
+        <v>36.69216343796052</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -24611,6 +24919,9 @@
       <c r="AR103" t="n">
         <v>261.2062543544754</v>
       </c>
+      <c r="AS103" t="n">
+        <v>55.07697315412332</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -24846,6 +25157,9 @@
       <c r="AR104" t="n">
         <v>243.6913553814001</v>
       </c>
+      <c r="AS104" t="n">
+        <v>49.39318565897585</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -25081,6 +25395,9 @@
       <c r="AR105" t="n">
         <v>251.7909581058686</v>
       </c>
+      <c r="AS105" t="n">
+        <v>49.56379223796829</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -25316,6 +25633,9 @@
       <c r="AR106" t="n">
         <v>245.8855857458809</v>
       </c>
+      <c r="AS106" t="n">
+        <v>46.16420751851221</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -25551,6 +25871,9 @@
       <c r="AR107" t="n">
         <v>246.4473022459877</v>
       </c>
+      <c r="AS107" t="n">
+        <v>50.74503177852077</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -25782,6 +26105,9 @@
       <c r="AR108" t="n">
         <v>245.8692051438608</v>
       </c>
+      <c r="AS108" t="n">
+        <v>47.5198511355482</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -26013,6 +26339,9 @@
       <c r="AR109" t="n">
         <v>244.9048253863355</v>
       </c>
+      <c r="AS109" t="n">
+        <v>51.5703328994484</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -26248,6 +26577,9 @@
       <c r="AR110" t="n">
         <v>275.7115517639269</v>
       </c>
+      <c r="AS110" t="n">
+        <v>43.89717403297783</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -26479,6 +26811,9 @@
       <c r="AR111" t="n">
         <v>237.2857798403388</v>
       </c>
+      <c r="AS111" t="n">
+        <v>53.9025188790448</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -26710,6 +27045,9 @@
       <c r="AR112" t="n">
         <v>252.3812259484208</v>
       </c>
+      <c r="AS112" t="n">
+        <v>54.38245874007659</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -26945,6 +27283,9 @@
       <c r="AR113" t="n">
         <v>217.5893713674825</v>
       </c>
+      <c r="AS113" t="n">
+        <v>38.37828107704235</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -27180,6 +27521,9 @@
       <c r="AR114" t="n">
         <v>248.5324743249438</v>
       </c>
+      <c r="AS114" t="n">
+        <v>16.7652925741269</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -27415,6 +27759,9 @@
       <c r="AR115" t="n">
         <v>250.0254532342524</v>
       </c>
+      <c r="AS115" t="n">
+        <v>49.2120196659774</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -27650,6 +27997,9 @@
       <c r="AR116" t="n">
         <v>252.6742346739113</v>
       </c>
+      <c r="AS116" t="n">
+        <v>49.7281751479985</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -27880,6 +28230,9 @@
       </c>
       <c r="AR117" t="n">
         <v>246.1713898470128</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>44.40145152206107</v>
       </c>
     </row>
     <row r="118">
@@ -28170,6 +28523,9 @@
       <c r="AR118" t="n">
         <v>255.6150364152212</v>
       </c>
+      <c r="AS118" t="n">
+        <v>59.34895701427835</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -28459,6 +28815,9 @@
       <c r="AR119" t="n">
         <v>266.0996887255342</v>
       </c>
+      <c r="AS119" t="n">
+        <v>61.56641876844036</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -28748,6 +29107,9 @@
       <c r="AR120" t="n">
         <v>281.6025621968482</v>
       </c>
+      <c r="AS120" t="n">
+        <v>60.53510222272674</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -29037,6 +29399,9 @@
       <c r="AR121" t="n">
         <v>284.8638091595575</v>
       </c>
+      <c r="AS121" t="n">
+        <v>60.20881156421829</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -29326,6 +29691,9 @@
       <c r="AR122" t="n">
         <v>317.1540571287984</v>
       </c>
+      <c r="AS122" t="n">
+        <v>32.92457200073743</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -29615,6 +29983,9 @@
       <c r="AR123" t="n">
         <v>295.5855875778278</v>
       </c>
+      <c r="AS123" t="n">
+        <v>50.09243906650328</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -29904,6 +30275,9 @@
       <c r="AR124" t="n">
         <v>273.4733016849976</v>
       </c>
+      <c r="AS124" t="n">
+        <v>48.24536919667551</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -30193,6 +30567,9 @@
       <c r="AR125" t="n">
         <v>290.9261129771405</v>
       </c>
+      <c r="AS125" t="n">
+        <v>55.60012166344296</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -30482,6 +30859,9 @@
       <c r="AR126" t="n">
         <v>273.6316047133586</v>
       </c>
+      <c r="AS126" t="n">
+        <v>52.93716137705069</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -30766,6 +31146,9 @@
       <c r="AR127" t="n">
         <v>419.357374211263</v>
       </c>
+      <c r="AS127" t="n">
+        <v>39.47258891944995</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -31055,6 +31438,9 @@
       <c r="AR128" t="n">
         <v>357.7937659883316</v>
       </c>
+      <c r="AS128" t="n">
+        <v>48.30015555044973</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -31344,6 +31730,9 @@
       <c r="AR129" t="n">
         <v>349.6641770631581</v>
       </c>
+      <c r="AS129" t="n">
+        <v>48.94268497171169</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -31633,6 +32022,9 @@
       <c r="AR130" t="n">
         <v>350.4404456678936</v>
       </c>
+      <c r="AS130" t="n">
+        <v>56.20618411422002</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -31905,6 +32297,9 @@
       <c r="AR131" t="n">
         <v>402.8893540073367</v>
       </c>
+      <c r="AS131" t="n">
+        <v>53.98293403212659</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -32177,6 +32572,9 @@
       <c r="AR132" t="n">
         <v>405.1246072842755</v>
       </c>
+      <c r="AS132" t="n">
+        <v>44.04653693671171</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -32449,6 +32847,9 @@
       <c r="AR133" t="n">
         <v>402.6850893836499</v>
       </c>
+      <c r="AS133" t="n">
+        <v>46.76612146065514</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -32738,6 +33139,9 @@
       <c r="AR134" t="n">
         <v>404.5519107678633</v>
       </c>
+      <c r="AS134" t="n">
+        <v>49.15566826067905</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -33027,6 +33431,9 @@
       <c r="AR135" t="n">
         <v>394.1687869325112</v>
       </c>
+      <c r="AS135" t="n">
+        <v>51.68717681052969</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -33316,6 +33723,9 @@
       <c r="AR136" t="n">
         <v>389.2104121688294</v>
       </c>
+      <c r="AS136" t="n">
+        <v>54.49054103371778</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -33604,6 +34014,9 @@
       </c>
       <c r="AR137" t="n">
         <v>299.1371901083178</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>66.0620785441495</v>
       </c>
     </row>
     <row r="138">
@@ -33897,6 +34310,9 @@
       <c r="AR138" t="n">
         <v>214.5514405813601</v>
       </c>
+      <c r="AS138" t="n">
+        <v>33.75028249766699</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -34189,6 +34605,9 @@
       <c r="AR139" t="n">
         <v>206.8944635147803</v>
       </c>
+      <c r="AS139" t="n">
+        <v>31.54283995974345</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -34481,6 +34900,9 @@
       <c r="AR140" t="n">
         <v>213.0797850915328</v>
       </c>
+      <c r="AS140" t="n">
+        <v>45.68365323041967</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -34773,6 +35195,9 @@
       <c r="AR141" t="n">
         <v>211.7611178715952</v>
       </c>
+      <c r="AS141" t="n">
+        <v>49.12794553962663</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -35065,6 +35490,9 @@
       <c r="AR142" t="n">
         <v>229.43153733086</v>
       </c>
+      <c r="AS142" t="n">
+        <v>40.05374413410293</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -35357,6 +35785,9 @@
       <c r="AR143" t="n">
         <v>225.9715478488853</v>
       </c>
+      <c r="AS143" t="n">
+        <v>48.15373479922579</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -35649,6 +36080,9 @@
       <c r="AR144" t="n">
         <v>208.2623985714003</v>
       </c>
+      <c r="AS144" t="n">
+        <v>55.24291516183993</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -35941,6 +36375,9 @@
       <c r="AR145" t="n">
         <v>207.1970651176702</v>
       </c>
+      <c r="AS145" t="n">
+        <v>52.96936196554214</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -36233,6 +36670,9 @@
       <c r="AR146" t="n">
         <v>218.4622753584844</v>
       </c>
+      <c r="AS146" t="n">
+        <v>54.4778240451008</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -36525,6 +36965,9 @@
       <c r="AR147" t="n">
         <v>331.2544456404379</v>
       </c>
+      <c r="AS147" t="n">
+        <v>54.22629722987637</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -36810,6 +37253,9 @@
       <c r="AR148" t="n">
         <v>357.2237540454642</v>
       </c>
+      <c r="AS148" t="n">
+        <v>34.98505611936377</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -37095,6 +37541,9 @@
       <c r="AR149" t="n">
         <v>330.1537375389659</v>
       </c>
+      <c r="AS149" t="n">
+        <v>21.82593122937607</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -37380,6 +37829,9 @@
       <c r="AR150" t="n">
         <v>331.7667922739524</v>
       </c>
+      <c r="AS150" t="n">
+        <v>23.23022637712721</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -37665,6 +38117,9 @@
       <c r="AR151" t="n">
         <v>399.4488244616499</v>
       </c>
+      <c r="AS151" t="n">
+        <v>20.22685360178711</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -37950,6 +38405,9 @@
       <c r="AR152" t="n">
         <v>346.1251819984125</v>
       </c>
+      <c r="AS152" t="n">
+        <v>36.28056520363361</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -38242,6 +38700,9 @@
       <c r="AR153" t="n">
         <v>325.4023086825655</v>
       </c>
+      <c r="AS153" t="n">
+        <v>39.11114404630639</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -38527,6 +38988,9 @@
       <c r="AR154" t="n">
         <v>338.1399592693181</v>
       </c>
+      <c r="AS154" t="n">
+        <v>36.48533566178448</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -38812,6 +39276,9 @@
       <c r="AR155" t="n">
         <v>410.8540838422478</v>
       </c>
+      <c r="AS155" t="n">
+        <v>33.42089389505684</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -39097,6 +39564,9 @@
       <c r="AR156" t="n">
         <v>273.56243764765</v>
       </c>
+      <c r="AS156" t="n">
+        <v>29.07132153924488</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -39382,6 +39852,9 @@
       <c r="AR157" t="n">
         <v>269.0459515642027</v>
       </c>
+      <c r="AS157" t="n">
+        <v>37.98123042687062</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -39674,6 +40147,9 @@
       <c r="AR158" t="n">
         <v>280.8815014665726</v>
       </c>
+      <c r="AS158" t="n">
+        <v>38.86075424756718</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -39966,6 +40442,9 @@
       <c r="AR159" t="n">
         <v>216.4007980662437</v>
       </c>
+      <c r="AS159" t="n">
+        <v>46.81886967641291</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -40258,6 +40737,9 @@
       <c r="AR160" t="n">
         <v>330.1171017837269</v>
       </c>
+      <c r="AS160" t="n">
+        <v>66.26224313781576</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -40529,6 +41011,9 @@
       <c r="AR161" t="n">
         <v>318.7346805777074</v>
       </c>
+      <c r="AS161" t="n">
+        <v>0.0005400000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Notebooks/data_processed.xlsx
+++ b/Notebooks/data_processed.xlsx
@@ -620,47 +620,47 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>logistic_params_um</t>
+          <t>gompertz_params_px</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>gomp_params_px</t>
+          <t>t_m_gomp_px</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>gompertz_params_px</t>
+          <t>t_m_gomp_um</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>logistic_params_px</t>
+          <t>r0_um</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>t_m_gomp_px</t>
+          <t>A_gomp_um</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>t_m_gomp_um</t>
+          <t>mu_gomp_um</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>t_m_logistic_px</t>
+          <t>l_gomp_um</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>t_m_logistic_um</t>
+          <t>gomp_growth_stops_10</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>r0_um</t>
+          <t>tm</t>
         </is>
       </c>
     </row>
@@ -859,43 +859,37 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>{"A": 11.556809191572047, "mu_m": 0.035011949573944594, "lambda": 71.22192927335632}</t>
+          <t>{"A": 103786.40790791844, "mu_m": 343.2354362364287, "lambda": 366.41305462855775}</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>{"A": 11.553572376401815, "mu_m": 0.02599900400315075, "lambda": 9.104143816291782e-17}</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
           <t>{"A": 11.294671508124804, "mu_m": 0.034296659393882864, "lambda": 75.08281849968752}</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>{"A": 11.294671508124804, "mu_m": 0.034296659393882864, "lambda": 75.08281849968752}</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>{"A": 11.291854793414482, "mu_m": 0.025384851358869105, "lambda": 2.806327948564144}</t>
-        </is>
+      <c r="AL2" t="n">
+        <v>196.23390190127</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>192.652256885973</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>25.7269886680175</v>
       </c>
       <c r="AO2" t="n">
-        <v>196.2339019012699</v>
+        <v>103786.407907918</v>
       </c>
       <c r="AP2" t="n">
-        <v>192.6522568859732</v>
+        <v>343.235436236429</v>
       </c>
       <c r="AQ2" t="n">
-        <v>225.2195820933293</v>
+        <v>366.413054628558</v>
       </c>
       <c r="AR2" t="n">
-        <v>222.1925958202412</v>
+        <v>982</v>
       </c>
       <c r="AS2" t="n">
-        <v>25.7269886680175</v>
+        <v>477.6512360966751</v>
       </c>
     </row>
     <row r="3">
@@ -1097,43 +1091,37 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>{"A": 11.91367344191653, "mu_m": 0.03726725317874706, "lambda": 68.15468161007195}</t>
+          <t>{"A": 148648.90367592312, "mu_m": 486.68730573695916, "lambda": 354.5011074974042}</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>{"A": 11.910041573765671, "mu_m": 0.027747290888770523, "lambda": 4.892776074308292e-12}</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
           <t>{"A": 11.651550812528813, "mu_m": 0.03652080664404961, "lambda": 71.70357424765298}</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>{"A": 11.651550812528813, "mu_m": 0.03652080664404961, "lambda": 71.70357424765298}</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>{"A": 11.64883606725593, "mu_m": 0.02693313627850389, "lambda": 2.0102036523818094e-11}</t>
-        </is>
+      <c r="AL3" t="n">
+        <v>189.071354304399</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>185.759150796192</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>37.5674846467097</v>
       </c>
       <c r="AO3" t="n">
-        <v>189.0713543043991</v>
+        <v>148648.903675923</v>
       </c>
       <c r="AP3" t="n">
-        <v>185.7591507961924</v>
+        <v>486.687305736959</v>
       </c>
       <c r="AQ3" t="n">
-        <v>216.2547270173337</v>
+        <v>354.501107497404</v>
       </c>
       <c r="AR3" t="n">
-        <v>214.6162957225132</v>
+        <v>1015</v>
       </c>
       <c r="AS3" t="n">
-        <v>37.56748464670965</v>
+        <v>466.8625251272318</v>
       </c>
     </row>
     <row r="4">
@@ -1335,43 +1323,37 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>{"A": 11.842487872611862, "mu_m": 0.03775938404182203, "lambda": 62.00541499107925}</t>
+          <t>{"A": 138470.39089115502, "mu_m": 463.7433087675086, "lambda": 343.2735456581767}</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>{"A": 11.837940529977896, "mu_m": 0.02847267669371604, "lambda": 3.6699079249496677e-13}</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
           <t>{"A": 11.58037734670003, "mu_m": 0.03699176718027083, "lambda": 65.44326880944814}</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>{"A": 11.58037734670003, "mu_m": 0.03699176718027083, "lambda": 65.44326880944814}</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>{"A": 11.576633714339312, "mu_m": 0.027638643974801612, "lambda": 1.2400128111068591e-15}</t>
-        </is>
+      <c r="AL4" t="n">
+        <v>180.608968412212</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>177.383563528425</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>50.0029251829548</v>
       </c>
       <c r="AO4" t="n">
-        <v>180.6089684122117</v>
+        <v>138470.390891155</v>
       </c>
       <c r="AP4" t="n">
-        <v>177.3835635284253</v>
+        <v>463.743308767509</v>
       </c>
       <c r="AQ4" t="n">
-        <v>209.42839534555</v>
+        <v>343.273545658177</v>
       </c>
       <c r="AR4" t="n">
-        <v>207.8824667122106</v>
+        <v>984</v>
       </c>
       <c r="AS4" t="n">
-        <v>50.00292518295483</v>
+        <v>453.1196804848199</v>
       </c>
     </row>
     <row r="5">
@@ -1569,43 +1551,37 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>{"A": 11.525275611885778, "mu_m": 0.034976575196400975, "lambda": 26.824142934968574}</t>
+          <t>{"A": 100919.60615120828, "mu_m": 319.21789925719105, "lambda": 320.08958470487516}</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>{"A": 11.514210481771054, "mu_m": 0.029012258301980415, "lambda": 1.536109552687006e-19}</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
           <t>{"A": 11.263179138756406, "mu_m": 0.034234506200037054, "lambda": 30.406482617275827}</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>{"A": 11.263179138756406, "mu_m": 0.034234506200037054, "lambda": 30.406482617275827}</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>{"A": 11.252824425919737, "mu_m": 0.02814551144987506, "lambda": 1.0146826050840978e-18}</t>
-        </is>
+      <c r="AL5" t="n">
+        <v>151.43910459139</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>148.045615524534</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>23.3687571112377</v>
       </c>
       <c r="AO5" t="n">
-        <v>151.43910459139</v>
+        <v>100919.606151208</v>
       </c>
       <c r="AP5" t="n">
-        <v>148.045615524534</v>
+        <v>319.217899257191</v>
       </c>
       <c r="AQ5" t="n">
-        <v>199.9044225215117</v>
+        <v>320.089584704875</v>
       </c>
       <c r="AR5" t="n">
-        <v>198.4369910456967</v>
+        <v>955</v>
       </c>
       <c r="AS5" t="n">
-        <v>23.36875711123766</v>
+        <v>436.3933646637681</v>
       </c>
     </row>
     <row r="6">
@@ -1807,43 +1783,37 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>{"A": 11.790387215745818, "mu_m": 0.03847680552812977, "lambda": 71.04488252368061}</t>
+          <t>{"A": 131433.34449968569, "mu_m": 451.3565178214296, "lambda": 345.4197082362061}</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>{"A": 11.788076909570423, "mu_m": 0.028227589238168933, "lambda": 4.602290022648361e-11}</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
           <t>{"A": 11.528274939059358, "mu_m": 0.0376935025449326, "lambda": 74.4408536082925}</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>{"A": 11.528274939059358, "mu_m": 0.0376935025449326, "lambda": 74.4408536082925}</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>{"A": 11.526236152159013, "mu_m": 0.027586710237635988, "lambda": 2.6645002091611993}</t>
-        </is>
+      <c r="AL6" t="n">
+        <v>186.954020491534</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>183.773603127902</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>35.2166514087769</v>
       </c>
       <c r="AO6" t="n">
-        <v>186.9540204915343</v>
+        <v>131433.344499686</v>
       </c>
       <c r="AP6" t="n">
-        <v>183.7736031279017</v>
+        <v>451.35651782143</v>
       </c>
       <c r="AQ6" t="n">
-        <v>211.5737186855637</v>
+        <v>345.419708236206</v>
       </c>
       <c r="AR6" t="n">
-        <v>208.8041739964346</v>
+        <v>968</v>
       </c>
       <c r="AS6" t="n">
-        <v>35.21665140877695</v>
+        <v>452.5448375225133</v>
       </c>
     </row>
     <row r="7">
@@ -2041,43 +2011,37 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>{"A": 11.563230336580972, "mu_m": 0.036694118816885786, "lambda": 73.55290250911119}</t>
+          <t>{"A": 104814.49493492118, "mu_m": 340.2219265377276, "lambda": 349.9807424669628}</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>{"A": 11.560898412955613, "mu_m": 0.026940603276886087, "lambda": 0.9551772536887969}</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
           <t>{"A": 11.301106160534003, "mu_m": 0.0359379971468997, "lambda": 77.16919158740028}</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>{"A": 11.301106160534003, "mu_m": 0.0359379971468997, "lambda": 77.16919158740028}</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>{"A": 11.298719670064134, "mu_m": 0.026436009613716258, "lambda": 5.5380014613629145}</t>
-        </is>
+      <c r="AL7" t="n">
+        <v>192.853006741664</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>189.480872753775</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>25.0343249996979</v>
       </c>
       <c r="AO7" t="n">
-        <v>192.8530067416638</v>
+        <v>104814.494934921</v>
       </c>
       <c r="AP7" t="n">
-        <v>189.4808727537745</v>
+        <v>340.221926537728</v>
       </c>
       <c r="AQ7" t="n">
-        <v>219.2374181880428</v>
+        <v>349.980742466963</v>
       </c>
       <c r="AR7" t="n">
-        <v>215.5179005553303</v>
+        <v>976</v>
       </c>
       <c r="AS7" t="n">
-        <v>25.03432499969788</v>
+        <v>463.3158770237588</v>
       </c>
     </row>
     <row r="8">
@@ -2258,43 +2222,37 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>{"A": 10.928358120581336, "mu_m": 0.026811778952194443, "lambda": 28.104670087491197}</t>
+          <t>{"A": 55197.75516113288, "mu_m": 148.03473775637795, "lambda": 381.41230533197756}</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>{"A": 10.909131704013937, "mu_m": 0.022785307090531382, "lambda": 2.1242308323091458e-20}</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
           <t>{"A": 10.666169896647832, "mu_m": 0.02624051268379322, "lambda": 33.27912809028734}</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>{"A": 10.666169896647832, "mu_m": 0.02624051268379322, "lambda": 33.27912809028734}</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>{"A": 10.648626171666118, "mu_m": 0.0220280959053862, "lambda": 1.230865430994219e-19}</t>
-        </is>
+      <c r="AL8" t="n">
+        <v>182.813730112066</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>178.050642918653</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.0112897283444919</v>
       </c>
       <c r="AO8" t="n">
-        <v>182.8137301120664</v>
+        <v>55197.7551611329</v>
       </c>
       <c r="AP8" t="n">
-        <v>178.0506429186527</v>
+        <v>148.034737756378</v>
       </c>
       <c r="AQ8" t="n">
-        <v>241.7055522502598</v>
+        <v>381.412305331978</v>
       </c>
       <c r="AR8" t="n">
-        <v>239.3896132421958</v>
+        <v>1022</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.01128972834449188</v>
+        <v>518.5836181627112</v>
       </c>
     </row>
     <row r="9">
@@ -2467,43 +2425,37 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>{"A": 10.463058321356698, "mu_m": 0.02344733184087096, "lambda": 21.111209870805308}</t>
+          <t>{"A": 34706.1179755025, "mu_m": 83.10431791159986, "lambda": 400.32451101715054}</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>{"A": 10.437609836279902, "mu_m": 0.020459606754866248, "lambda": 1.9023622282574086e-15}</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
           <t>{"A": 10.200821178310965, "mu_m": 0.02293230661721344, "lambda": 27.167960767014893}</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>{"A": 10.200821178310965, "mu_m": 0.02293230661721344, "lambda": 27.167960767014893}</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>{"A": 10.177618412899577, "mu_m": 0.019734277507256374, "lambda": 2.8319876511348294e-20}</t>
-        </is>
+      <c r="AL9" t="n">
+        <v>190.809257615454</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>185.272491603317</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.0490412330233292</v>
       </c>
       <c r="AO9" t="n">
-        <v>190.8092576154541</v>
+        <v>34706.1179755025</v>
       </c>
       <c r="AP9" t="n">
-        <v>185.2724916033171</v>
+        <v>83.10431791159991</v>
       </c>
       <c r="AQ9" t="n">
-        <v>257.8665068725527</v>
+        <v>400.32451101715</v>
       </c>
       <c r="AR9" t="n">
-        <v>255.0784568182708</v>
+        <v>1026</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.04904123302332919</v>
+        <v>553.958733725521</v>
       </c>
     </row>
     <row r="10">
@@ -2701,43 +2653,37 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>{"A": 11.895028649915266, "mu_m": 0.03794248092684773, "lambda": 72.35359394095913}</t>
+          <t>{"A": 145838.3890157057, "mu_m": 494.8774547963394, "lambda": 354.92359332108776}</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>{"A": 11.892680615257005, "mu_m": 0.027849531949983002, "lambda": 3.647555688376034e-13}</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
           <t>{"A": 11.632908984571515, "mu_m": 0.03718077206825207, "lambda": 75.83482164081212}</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>{"A": 11.632908984571515, "mu_m": 0.03718077206825207, "lambda": 75.83482164081212}</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>{"A": 11.630606818740368, "mu_m": 0.027308249834038963, "lambda": 3.9464825550775258}</t>
-        </is>
+      <c r="AL10" t="n">
+        <v>190.934853683896</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>187.684389016954</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>38.0651605044875</v>
       </c>
       <c r="AO10" t="n">
-        <v>190.9348536838962</v>
+        <v>145838.389015706</v>
       </c>
       <c r="AP10" t="n">
-        <v>187.6843890169541</v>
+        <v>494.877454796339</v>
       </c>
       <c r="AQ10" t="n">
-        <v>216.8969075992183</v>
+        <v>354.923593321088</v>
       </c>
       <c r="AR10" t="n">
-        <v>213.516705354617</v>
+        <v>995</v>
       </c>
       <c r="AS10" t="n">
-        <v>38.06516050448753</v>
+        <v>463.3361801796281</v>
       </c>
     </row>
     <row r="11">
@@ -2939,43 +2885,37 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>{"A": 13.623435472937368, "mu_m": 0.03005949987861569, "lambda": 2.6818746422617694e-25}</t>
+          <t>{"A": 830707.4894653753, "mu_m": 1677.719633887173, "lambda": 415.6969835552634}</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>{"A": 13.574405927712451, "mu_m": 0.027859291574929473, "lambda": 5.37620091708314e-16}</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
           <t>{"A": 13.02487155676186, "mu_m": 0.028635159896261617, "lambda": 7.487754343495604}</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>{"A": 13.02487155676186, "mu_m": 0.028635159896261617, "lambda": 7.487754343495604}</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>{"A": 12.980360516767492, "mu_m": 0.02606794905428365, "lambda": 1.6368010322322964e-15}</t>
-        </is>
+      <c r="AL11" t="n">
+        <v>174.819890325629</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>166.728716341179</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>40.48812031945</v>
       </c>
       <c r="AO11" t="n">
-        <v>174.8198903256285</v>
+        <v>830707.489465375</v>
       </c>
       <c r="AP11" t="n">
-        <v>166.7287163411785</v>
+        <v>1677.71963388717</v>
       </c>
       <c r="AQ11" t="n">
-        <v>248.9716488577086</v>
+        <v>415.696983555263</v>
       </c>
       <c r="AR11" t="n">
-        <v>243.6243917258836</v>
+        <v>1713</v>
       </c>
       <c r="AS11" t="n">
-        <v>40.48812031944996</v>
+        <v>597.8491148344312</v>
       </c>
     </row>
     <row r="12">
@@ -3176,43 +3116,37 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>{"A": 13.457292883725, "mu_m": 0.030097438611675163, "lambda": 42.46111020369443}</t>
+          <t>{"A": 692845.54118497, "mu_m": 1622.0939714032322, "lambda": 461.28848100743653}</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>{"A": 13.429630521946095, "mu_m": 0.025087379591701, "lambda": 2.37494410609514e-20}</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
           <t>{"A": 12.856228458622642, "mu_m": 0.02899694570559234, "lambda": 54.527594114661575}</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>{"A": 12.856228458622642, "mu_m": 0.02899694570559234, "lambda": 54.527594114661575}</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>{"A": 12.836517081026212, "mu_m": 0.023436090616901037, "lambda": 1.709678928570539e-22}</t>
-        </is>
+      <c r="AL12" t="n">
+        <v>217.632432429352</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>206.948907641207</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>45.6447438801125</v>
       </c>
       <c r="AO12" t="n">
-        <v>217.6324324293518</v>
+        <v>692845.5411849699</v>
       </c>
       <c r="AP12" t="n">
-        <v>206.9489076412066</v>
+        <v>1622.09397140323</v>
       </c>
       <c r="AQ12" t="n">
-        <v>273.8621660681134</v>
+        <v>461.288481007437</v>
       </c>
       <c r="AR12" t="n">
-        <v>267.6570997153618</v>
+        <v>1575</v>
       </c>
       <c r="AS12" t="n">
-        <v>45.64474388011247</v>
+        <v>618.4209499042662</v>
       </c>
     </row>
     <row r="13">
@@ -3415,43 +3349,37 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>{"A": 13.07000264105486, "mu_m": 0.028640232044248485, "lambda": 10.046695007299043}</t>
+          <t>{"A": 469881.0696460096, "mu_m": 1050.3614323209422, "lambda": 423.65295966556675}</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>{"A": 13.027987137522372, "mu_m": 0.02587457114780147, "lambda": 5.153668569992221e-18}</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
           <t>{"A": 12.469091913523117, "mu_m": 0.027533917458922474, "lambda": 22.290921176486847}</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>{"A": 12.469091913523117, "mu_m": 0.027533917458922474, "lambda": 22.290921176486847}</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>{"A": 12.434231632992553, "mu_m": 0.02413452446414955, "lambda": 4.445249685967556e-16}</t>
-        </is>
+      <c r="AL13" t="n">
+        <v>188.889901212862</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>177.928898624644</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>44.5461732458824</v>
       </c>
       <c r="AO13" t="n">
-        <v>188.8899012128623</v>
+        <v>469881.06964601</v>
       </c>
       <c r="AP13" t="n">
-        <v>177.9288986246442</v>
+        <v>1050.36143232094</v>
       </c>
       <c r="AQ13" t="n">
-        <v>257.6025819664044</v>
+        <v>423.652959665567</v>
       </c>
       <c r="AR13" t="n">
-        <v>251.7527162692577</v>
+        <v>1519</v>
       </c>
       <c r="AS13" t="n">
-        <v>44.54617324588241</v>
+        <v>588.2244871410695</v>
       </c>
     </row>
     <row r="14">
@@ -3653,43 +3581,37 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>{"A": 12.555497023505675, "mu_m": 0.029066543479554872, "lambda": 1.0938817366160234e-22}</t>
+          <t>{"A": 285791.25531444536, "mu_m": 608.9718463055856, "lambda": 385.8389635806368}</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>{"A": 12.524220447602055, "mu_m": 0.02637162141552389, "lambda": 1.2956871457350419e-14}</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
           <t>{"A": 12.294833011845414, "mu_m": 0.028213328350741716, "lambda": 1.3537431109889713e-20}</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>{"A": 12.294833011845414, "mu_m": 0.028213328350741716, "lambda": 1.3537431109889713e-20}</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>{"A": 12.2636016414495, "mu_m": 0.025617028486234733, "lambda": 1.3771634888165894e-14}</t>
-        </is>
+      <c r="AL14" t="n">
+        <v>160.314878183275</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>158.90810105735</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>54.6797895752939</v>
       </c>
       <c r="AO14" t="n">
-        <v>160.3148781832748</v>
+        <v>285791.255314445</v>
       </c>
       <c r="AP14" t="n">
-        <v>158.9081010573504</v>
+        <v>608.971846305586</v>
       </c>
       <c r="AQ14" t="n">
-        <v>239.3642503860142</v>
+        <v>385.838963580637</v>
       </c>
       <c r="AR14" t="n">
-        <v>237.4563977364994</v>
+        <v>1440</v>
       </c>
       <c r="AS14" t="n">
-        <v>54.67978957529387</v>
+        <v>558.4852491759234</v>
       </c>
     </row>
     <row r="15">
@@ -3891,43 +3813,37 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>{"A": 12.832470292889655, "mu_m": 0.031024758216131865, "lambda": 1.0501316370302109e-26}</t>
+          <t>{"A": 375144.4236714687, "mu_m": 851.6700179633874, "lambda": 370.5950212654522}</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>{"A": 12.804865438442796, "mu_m": 0.0279957716435048, "lambda": 2.014631270965834e-17}</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
           <t>{"A": 12.571538741008162, "mu_m": 0.03014516150735621, "lambda": 2.0344607261742675e-12}</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>{"A": 12.571538741008162, "mu_m": 0.03014516150735621, "lambda": 2.0344607261742675e-12}</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>{"A": 12.543961330000045, "mu_m": 0.027223163682252756, "lambda": 2.3858809811923505e-17}</t>
-        </is>
+      <c r="AL15" t="n">
+        <v>153.418008577553</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>152.162410656362</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>62.5479043898183</v>
       </c>
       <c r="AO15" t="n">
-        <v>153.4180085775526</v>
+        <v>375144.423671469</v>
       </c>
       <c r="AP15" t="n">
-        <v>152.1624106563615</v>
+        <v>851.670017963387</v>
       </c>
       <c r="AQ15" t="n">
-        <v>230.3913218245399</v>
+        <v>370.595021265452</v>
       </c>
       <c r="AR15" t="n">
-        <v>228.6928469323618</v>
+        <v>1415</v>
       </c>
       <c r="AS15" t="n">
-        <v>62.54790438981826</v>
+        <v>532.6389091891616</v>
       </c>
     </row>
     <row r="16">
@@ -4129,43 +4045,37 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>{"A": 12.961742102938095, "mu_m": 0.03154009435869591, "lambda": 6.06954114218441e-21}</t>
+          <t>{"A": 427441.551398722, "mu_m": 972.8642059100877, "lambda": 371.11131823656746}</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>{"A": 12.93419964364422, "mu_m": 0.028446202715573493, "lambda": 9.386595845563204e-18}</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
           <t>{"A": 12.700793841734294, "mu_m": 0.03065568154607069, "lambda": 3.7865323450608567e-29}</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>{"A": 12.700793841734294, "mu_m": 0.03065568154607069, "lambda": 3.7865323450608567e-29}</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>{"A": 12.673278432438101, "mu_m": 0.027669824658841862, "lambda": 1.0456258558954316e-17}</t>
-        </is>
+      <c r="AL16" t="n">
+        <v>152.414192256958</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>151.184025869046</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>60.5425632510049</v>
       </c>
       <c r="AO16" t="n">
-        <v>152.4141922569584</v>
+        <v>427441.551398722</v>
       </c>
       <c r="AP16" t="n">
-        <v>151.1840258690456</v>
+        <v>972.864205910088</v>
       </c>
       <c r="AQ16" t="n">
-        <v>229.0090123210877</v>
+        <v>371.111318236567</v>
       </c>
       <c r="AR16" t="n">
-        <v>227.3449249618669</v>
+        <v>1434</v>
       </c>
       <c r="AS16" t="n">
-        <v>60.54256325100489</v>
+        <v>532.7443170731476</v>
       </c>
     </row>
     <row r="17">
@@ -4367,43 +4277,37 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>{"A": 12.7502929651604, "mu_m": 0.029002220926796798, "lambda": 5.2041241058161183e-20}</t>
+          <t>{"A": 347273.80176726007, "mu_m": 721.53579871027, "lambda": 392.80871001271436}</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>{"A": 12.717032260158158, "mu_m": 0.02635986147351304, "lambda": 1.2992315588781315e-14}</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
           <t>{"A": 12.489713945230784, "mu_m": 0.028160548468671068, "lambda": 3.5381823521343206e-18}</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>{"A": 12.489713945230784, "mu_m": 0.028160548468671068, "lambda": 3.5381823521343206e-18}</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>{"A": 12.456498371626058, "mu_m": 0.0256139785273075, "lambda": 1.4301428555712668e-14}</t>
-        </is>
+      <c r="AL17" t="n">
+        <v>163.161203755472</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>161.731429556193</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>59.5555978081423</v>
       </c>
       <c r="AO17" t="n">
-        <v>163.1612037554715</v>
+        <v>347273.80176726</v>
       </c>
       <c r="AP17" t="n">
-        <v>161.7314295561929</v>
+        <v>721.53579871027</v>
       </c>
       <c r="AQ17" t="n">
-        <v>243.15821062991</v>
+        <v>392.808710012714</v>
       </c>
       <c r="AR17" t="n">
-        <v>241.2196337400428</v>
+        <v>1504</v>
       </c>
       <c r="AS17" t="n">
-        <v>59.55559780814227</v>
+        <v>569.8683823893043</v>
       </c>
     </row>
     <row r="18">
@@ -4605,43 +4509,37 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>{"A": 12.78019542055308, "mu_m": 0.03135429140272518, "lambda": 3.0864059477110108e-15}</t>
+          <t>{"A": 356339.3504850099, "mu_m": 810.7961511399506, "lambda": 362.7411410547553}</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>{"A": 12.753837963131135, "mu_m": 0.02824721100083839, "lambda": 3.6712774149170967e-17}</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
           <t>{"A": 12.519205150292205, "mu_m": 0.03046468738008103, "lambda": 3.8935649926812435e-25}</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>{"A": 12.519205150292205, "mu_m": 0.03046468738008103, "lambda": 3.8935649926812435e-25}</t>
-        </is>
-      </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>{"A": 12.492871281038603, "mu_m": 0.027467342642374007, "lambda": 4.120852845279843e-17}</t>
-        </is>
+      <c r="AL18" t="n">
+        <v>151.176939291733</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>149.949845429014</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>68.4649874597807</v>
       </c>
       <c r="AO18" t="n">
-        <v>151.1769392917332</v>
+        <v>356339.35048501</v>
       </c>
       <c r="AP18" t="n">
-        <v>149.9498454290137</v>
+        <v>810.796151139951</v>
       </c>
       <c r="AQ18" t="n">
-        <v>227.4131765073951</v>
+        <v>362.741141054755</v>
       </c>
       <c r="AR18" t="n">
-        <v>225.7539330653316</v>
+        <v>1397</v>
       </c>
       <c r="AS18" t="n">
-        <v>68.46498745978072</v>
+        <v>524.4216336662608</v>
       </c>
     </row>
     <row r="19">
@@ -4843,43 +4741,37 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>{"A": 12.854440159506122, "mu_m": 0.03154896702910339, "lambda": 3.1311565511990276e-16}</t>
+          <t>{"A": 385356.9470606942, "mu_m": 844.7829575156652, "lambda": 360.41078853689027}</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>{"A": 12.82753340565657, "mu_m": 0.02843610341928141, "lambda": 2.698708428174195e-18}</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
           <t>{"A": 12.593474232879165, "mu_m": 0.03065799153601439, "lambda": 1.1761474334738362e-24}</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>{"A": 12.593474232879165, "mu_m": 0.03065799153601439, "lambda": 1.1761474334738362e-24}</t>
-        </is>
-      </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>{"A": 12.566588312042608, "mu_m": 0.027654743294445106, "lambda": 2.8337204658706916e-18}</t>
-        </is>
+      <c r="AL19" t="n">
+        <v>151.114930596684</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>149.890304113239</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>59.8994168999892</v>
       </c>
       <c r="AO19" t="n">
-        <v>151.1149305966842</v>
+        <v>385356.947060694</v>
       </c>
       <c r="AP19" t="n">
-        <v>149.890304113239</v>
+        <v>844.782957515665</v>
       </c>
       <c r="AQ19" t="n">
-        <v>227.2049351216868</v>
+        <v>360.41078853689</v>
       </c>
       <c r="AR19" t="n">
-        <v>225.5501257770557</v>
+        <v>1440</v>
       </c>
       <c r="AS19" t="n">
-        <v>59.89941689998923</v>
+        <v>528.2230024020027</v>
       </c>
     </row>
     <row r="20">
@@ -5064,43 +4956,37 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>{"A": 13.583849075498991, "mu_m": 0.027728913862367914, "lambda": 6.452039555807012e-13}</t>
+          <t>{"A": 947468.4364931284, "mu_m": 972.765607925174, "lambda": 433.5381576967668}</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>{"A": 13.52800645988324, "mu_m": 0.02559226251603615, "lambda": 6.161194458130065e-12}</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
           <t>{"A": 12.990049796295784, "mu_m": 0.025938831412600904, "lambda": 3.467794940930608e-13}</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>{"A": 12.990049796295784, "mu_m": 0.025938831412600904, "lambda": 3.467794940930608e-13}</t>
-        </is>
-      </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>{"A": 12.93400078509785, "mu_m": 0.023982297353571082, "lambda": 2.6185363191524088e-12}</t>
-        </is>
+      <c r="AL20" t="n">
+        <v>184.23236512995</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>180.216896761822</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>25.711030547483</v>
       </c>
       <c r="AO20" t="n">
-        <v>184.2323651299502</v>
+        <v>947468.436493129</v>
       </c>
       <c r="AP20" t="n">
-        <v>180.2168967618215</v>
+        <v>972.765607925174</v>
       </c>
       <c r="AQ20" t="n">
-        <v>269.6572516471621</v>
+        <v>433.538157696767</v>
       </c>
       <c r="AR20" t="n">
-        <v>264.2987592716136</v>
+        <v>2519</v>
       </c>
       <c r="AS20" t="n">
-        <v>25.71103054748304</v>
+        <v>791.8507420490332</v>
       </c>
     </row>
     <row r="21">
@@ -5302,43 +5188,37 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>{"A": 13.42662711765273, "mu_m": 0.031001979408244604, "lambda": 4.151947724437951e-23}</t>
+          <t>{"A": 679543.9177984127, "mu_m": 1503.7844986122377, "lambda": 401.1600416915474}</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>{"A": 13.397092597746935, "mu_m": 0.027919533847905662, "lambda": 5.0858612157445095e-18}</t>
-        </is>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
           <t>{"A": 12.829045426452877, "mu_m": 0.029093790947982957, "lambda": 1.682195373615454e-13}</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>{"A": 12.829045426452877, "mu_m": 0.029093790947982957, "lambda": 1.682195373615454e-13}</t>
-        </is>
-      </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>{"A": 12.799558094977805, "mu_m": 0.0262466541724873, "lambda": 7.425602887888239e-18}</t>
-        </is>
+      <c r="AL21" t="n">
+        <v>162.218188433561</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>159.324668138637</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>45.7509362756735</v>
       </c>
       <c r="AO21" t="n">
-        <v>162.2181884335612</v>
+        <v>679543.917798413</v>
       </c>
       <c r="AP21" t="n">
-        <v>159.3246681386367</v>
+        <v>1503.78449861224</v>
       </c>
       <c r="AQ21" t="n">
-        <v>243.8321854447027</v>
+        <v>401.160041691547</v>
       </c>
       <c r="AR21" t="n">
-        <v>239.9232858028519</v>
+        <v>1567</v>
       </c>
       <c r="AS21" t="n">
-        <v>45.75093627567349</v>
+        <v>567.4007742977383</v>
       </c>
     </row>
     <row r="22">
@@ -5540,43 +5420,37 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>{"A": 13.544684161762072, "mu_m": 0.025563777756426966, "lambda": 7.715659512486374e-19}</t>
+          <t>{"A": 780727.8931973443, "mu_m": 1272.4627288178092, "lambda": 487.45007989941365}</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>{"A": 13.49315125942083, "mu_m": 0.023458443075376895, "lambda": 1.5406228284117537e-15}</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
           <t>{"A": 13.28500518927529, "mu_m": 0.02484837816745214, "lambda": 4.382474353710865e-17}</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>{"A": 13.28500518927529, "mu_m": 0.02484837816745214, "lambda": 4.382474353710865e-17}</t>
-        </is>
-      </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>{"A": 13.233491979065239, "mu_m": 0.02281747385206111, "lambda": 1.6912713017091004e-15}</t>
-        </is>
+      <c r="AL22" t="n">
+        <v>196.684075397402</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>194.916842406831</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>52.2169042788064</v>
       </c>
       <c r="AO22" t="n">
-        <v>196.6840753974016</v>
+        <v>780727.893197344</v>
       </c>
       <c r="AP22" t="n">
-        <v>194.9168424068306</v>
+        <v>1272.46272881781</v>
       </c>
       <c r="AQ22" t="n">
-        <v>289.9859130959375</v>
+        <v>487.450079899414</v>
       </c>
       <c r="AR22" t="n">
-        <v>287.5969052179743</v>
+        <v>2033</v>
       </c>
       <c r="AS22" t="n">
-        <v>52.21690427880642</v>
+        <v>713.1649354718317</v>
       </c>
     </row>
     <row r="23">
@@ -5778,43 +5652,37 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>{"A": 13.827761658745416, "mu_m": 0.024459315020267023, "lambda": 7.008392096737444e-18}</t>
+          <t>{"A": 1104423.4541542963, "mu_m": 1329.2161040769413, "lambda": 506.8646742616006}</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>{"A": 13.76213254397274, "mu_m": 0.022626006293879765, "lambda": 1.3333035463539163e-12}</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
           <t>{"A": 13.569023273809742, "mu_m": 0.023772221377721926, "lambda": 1.3750324981976715e-17}</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>{"A": 13.569023273809742, "mu_m": 0.023772221377721926, "lambda": 1.3750324981976715e-17}</t>
-        </is>
-      </c>
-      <c r="AN23" t="inlineStr">
-        <is>
-          <t>{"A": 13.503363849396475, "mu_m": 0.02200455026809233, "lambda": 1.0644641179697969e-12}</t>
-        </is>
+      <c r="AL23" t="n">
+        <v>209.983098335499</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>207.975948118584</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>56.6934859201029</v>
       </c>
       <c r="AO23" t="n">
-        <v>209.9830983354985</v>
+        <v>1104423.4541543</v>
       </c>
       <c r="AP23" t="n">
-        <v>207.9759481185841</v>
+        <v>1329.21610407694</v>
       </c>
       <c r="AQ23" t="n">
-        <v>306.8311709368825</v>
+        <v>506.864674261601</v>
       </c>
       <c r="AR23" t="n">
-        <v>304.1219993758995</v>
+        <v>2533</v>
       </c>
       <c r="AS23" t="n">
-        <v>56.69348592010294</v>
+        <v>812.5295559048045</v>
       </c>
     </row>
     <row r="24">
@@ -6016,43 +5884,37 @@
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>{"A": 13.752626396135796, "mu_m": 0.02363641315943552, "lambda": 2.300510240418421e-16}</t>
+          <t>{"A": 1014452.1283019794, "mu_m": 1219.2786605436745, "lambda": 516.1013801565808}</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>{"A": 13.684132280209438, "mu_m": 0.021897142324584302, "lambda": 9.652000532439285e-13}</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
           <t>{"A": 13.494126197659492, "mu_m": 0.02296537236648675, "lambda": 5.179953027790988e-16}</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>{"A": 13.494126197659492, "mu_m": 0.02296537236648675, "lambda": 5.179953027790988e-16}</t>
-        </is>
-      </c>
-      <c r="AN24" t="inlineStr">
-        <is>
-          <t>{"A": 13.425593636839126, "mu_m": 0.021288894590464968, "lambda": 7.697894855870101e-13}</t>
-        </is>
+      <c r="AL24" t="n">
+        <v>216.160727789293</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>214.047219395064</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>57.2934895461785</v>
       </c>
       <c r="AO24" t="n">
-        <v>216.160727789293</v>
+        <v>1014452.12830198</v>
       </c>
       <c r="AP24" t="n">
-        <v>214.0472193950636</v>
+        <v>1219.27866054368</v>
       </c>
       <c r="AQ24" t="n">
-        <v>315.319181552346</v>
+        <v>516.1013801565809</v>
       </c>
       <c r="AR24" t="n">
-        <v>312.4638840394728</v>
+        <v>2533</v>
       </c>
       <c r="AS24" t="n">
-        <v>57.29348954617847</v>
+        <v>822.1807811431474</v>
       </c>
     </row>
     <row r="25">
@@ -6254,43 +6116,37 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>{"A": 12.579624307503847, "mu_m": 0.03057370364226981, "lambda": 101.64696587446159}</t>
+          <t>{"A": 287326.2150840628, "mu_m": 776.3325626421487, "lambda": 483.2871636152782}</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>{"A": 12.572415185400013, "mu_m": 0.023273346874440107, "lambda": 25.771605256226493}</t>
-        </is>
-      </c>
-      <c r="AL25" t="inlineStr">
-        <is>
           <t>{"A": 11.978897545200738, "mu_m": 0.029328450135956523, "lambda": 112.90297478683965}</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>{"A": 11.978897545200738, "mu_m": 0.029328450135956523, "lambda": 112.90297478683965}</t>
-        </is>
-      </c>
-      <c r="AN25" t="inlineStr">
-        <is>
-          <t>{"A": 11.971346664729092, "mu_m": 0.022463422954766072, "lambda": 40.53041870128704}</t>
-        </is>
+      <c r="AL25" t="n">
+        <v>263.159470249438</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>253.011851677601</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>32.4882687735869</v>
       </c>
       <c r="AO25" t="n">
-        <v>263.1594702494385</v>
+        <v>287326.215084063</v>
       </c>
       <c r="AP25" t="n">
-        <v>253.0118516776013</v>
+        <v>776.332562642149</v>
       </c>
       <c r="AQ25" t="n">
-        <v>306.9935193791187</v>
+        <v>483.287163615278</v>
       </c>
       <c r="AR25" t="n">
-        <v>295.8748966570786</v>
+        <v>1348</v>
       </c>
       <c r="AS25" t="n">
-        <v>32.48826877358685</v>
+        <v>619.4419670145962</v>
       </c>
     </row>
     <row r="26">
@@ -6492,43 +6348,37 @@
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>{"A": 12.59065350019201, "mu_m": 0.030893290831727375, "lambda": 107.45137864774348}</t>
+          <t>{"A": 289982.90773593413, "mu_m": 791.3430348492013, "lambda": 481.33908593577763}</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>{"A": 12.583220193613858, "mu_m": 0.023589856490098024, "lambda": 33.793618108552415}</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
           <t>{"A": 11.989909851370985, "mu_m": 0.029642977448279942, "lambda": 118.68332816931446}</t>
         </is>
       </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>{"A": 11.989909851370985, "mu_m": 0.029642977448279942, "lambda": 118.68332816931446}</t>
-        </is>
-      </c>
-      <c r="AN26" t="inlineStr">
-        <is>
-          <t>{"A": 11.982122294784283, "mu_m": 0.022779858840154182, "lambda": 48.566669445976444}</t>
-        </is>
+      <c r="AL26" t="n">
+        <v>267.482191020194</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>257.381750224636</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>55.062757192605</v>
       </c>
       <c r="AO26" t="n">
-        <v>267.4821910201943</v>
+        <v>289982.907735934</v>
       </c>
       <c r="AP26" t="n">
-        <v>257.3817502246363</v>
+        <v>791.343034849201</v>
       </c>
       <c r="AQ26" t="n">
-        <v>311.5648376713065</v>
+        <v>481.339085935778</v>
       </c>
       <c r="AR26" t="n">
-        <v>300.5019000961037</v>
+        <v>1340</v>
       </c>
       <c r="AS26" t="n">
-        <v>55.06275719260503</v>
+        <v>616.1463001895738</v>
       </c>
     </row>
     <row r="27">
@@ -6730,43 +6580,37 @@
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>{"A": 12.62923874257904, "mu_m": 0.025674495057581997, "lambda": 27.058442949605773}</t>
+          <t>{"A": 306516.94724460825, "mu_m": 573.8866409013729, "lambda": 459.97183808952707}</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>{"A": 12.594071197025617, "mu_m": 0.022267912804753588, "lambda": 9.532987362015095e-16}</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
           <t>{"A": 12.028497344813793, "mu_m": 0.02460740081754388, "lambda": 39.93055239944851}</t>
         </is>
       </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>{"A": 12.028497344813793, "mu_m": 0.02460740081754388, "lambda": 39.93055239944851}</t>
-        </is>
-      </c>
-      <c r="AN27" t="inlineStr">
-        <is>
-          <t>{"A": 11.999430053300584, "mu_m": 0.02077082255639606, "lambda": 4.1138915903334e-19}</t>
-        </is>
+      <c r="AL27" t="n">
+        <v>219.75600061125</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>208.017689883994</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>35.6742155423854</v>
       </c>
       <c r="AO27" t="n">
-        <v>219.7560006112499</v>
+        <v>306516.947244608</v>
       </c>
       <c r="AP27" t="n">
-        <v>208.0176898839938</v>
+        <v>573.886640901373</v>
       </c>
       <c r="AQ27" t="n">
-        <v>288.8530297902319</v>
+        <v>459.971838089527</v>
       </c>
       <c r="AR27" t="n">
-        <v>282.7851740630385</v>
+        <v>1648</v>
       </c>
       <c r="AS27" t="n">
-        <v>35.67421554238539</v>
+        <v>656.4588709377124</v>
       </c>
     </row>
     <row r="28">
@@ -6968,43 +6812,37 @@
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>{"A": 12.63148382921934, "mu_m": 0.02496518399873576, "lambda": 13.533187879261085}</t>
+          <t>{"A": 305243.46445272624, "mu_m": 594.7673083913517, "lambda": 469.6931320546013}</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>{"A": 12.590146145309745, "mu_m": 0.02230916910825422, "lambda": 1.6931686862588044e-15}</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
           <t>{"A": 12.030757245467136, "mu_m": 0.023924418606469912, "lambda": 26.704264494513712}</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>{"A": 12.030757245467136, "mu_m": 0.023924418606469912, "lambda": 26.704264494513712}</t>
-        </is>
-      </c>
-      <c r="AN28" t="inlineStr">
-        <is>
-          <t>{"A": 11.99564109450487, "mu_m": 0.02080651857691648, "lambda": 6.453964711322958e-14}</t>
-        </is>
+      <c r="AL28" t="n">
+        <v>211.698028611935</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>199.666933678797</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>33.2851867836885</v>
       </c>
       <c r="AO28" t="n">
-        <v>211.6980286119346</v>
+        <v>305243.464452726</v>
       </c>
       <c r="AP28" t="n">
-        <v>199.6669336787969</v>
+        <v>594.767308391352</v>
       </c>
       <c r="AQ28" t="n">
-        <v>288.2664163675436</v>
+        <v>469.693132054601</v>
       </c>
       <c r="AR28" t="n">
-        <v>282.174250511452</v>
+        <v>1618</v>
       </c>
       <c r="AS28" t="n">
-        <v>33.28518678368846</v>
+        <v>658.4943548854566</v>
       </c>
     </row>
     <row r="29">
@@ -7206,43 +7044,37 @@
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>{"A": 12.707678255621241, "mu_m": 0.023736525826039415, "lambda": 4.647697328807519}</t>
+          <t>{"A": 329199.8137842164, "mu_m": 616.2154854542989, "lambda": 493.3985635135213}</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>{"A": 12.656971349085106, "mu_m": 0.021701397812280015, "lambda": 2.9429415198316746e-17}</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
           <t>{"A": 12.106855143353185, "mu_m": 0.022759942008435476, "lambda": 18.661629608108218}</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>{"A": 12.106855143353185, "mu_m": 0.022759942008435476, "lambda": 18.661629608108218}</t>
-        </is>
-      </c>
-      <c r="AN29" t="inlineStr">
-        <is>
-          <t>{"A": 12.063403838846387, "mu_m": 0.020230378218499538, "lambda": 1.3282751030972482e-16}</t>
-        </is>
+      <c r="AL29" t="n">
+        <v>214.350313824863</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>201.597057547984</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>29.7240314401845</v>
       </c>
       <c r="AO29" t="n">
-        <v>214.3503138248626</v>
+        <v>329199.813784216</v>
       </c>
       <c r="AP29" t="n">
-        <v>201.5970575479843</v>
+        <v>616.215485454299</v>
       </c>
       <c r="AQ29" t="n">
-        <v>298.1507243353237</v>
+        <v>493.398563513521</v>
       </c>
       <c r="AR29" t="n">
-        <v>291.6164999731722</v>
+        <v>1696</v>
       </c>
       <c r="AS29" t="n">
-        <v>29.72403144018446</v>
+        <v>689.9302093214743</v>
       </c>
     </row>
     <row r="30">
@@ -7444,43 +7276,37 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>{"A": 13.066805136252812, "mu_m": 0.029567525617656295, "lambda": 47.203337343149244}</t>
+          <t>{"A": 473753.1491223829, "mu_m": 1011.3772496962586, "lambda": 446.20243410882466}</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>{"A": 13.044969671045518, "mu_m": 0.024268839185174678, "lambda": 1.6692335354730648e-16}</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
           <t>{"A": 12.46620213340426, "mu_m": 0.028366283829052503, "lambda": 58.16343751578574}</t>
         </is>
       </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>{"A": 12.46620213340426, "mu_m": 0.028366283829052503, "lambda": 58.16343751578574}</t>
-        </is>
-      </c>
-      <c r="AN30" t="inlineStr">
-        <is>
-          <t>{"A": 12.449056242752995, "mu_m": 0.02272161965680037, "lambda": 5.013586370105258e-19}</t>
-        </is>
+      <c r="AL30" t="n">
+        <v>219.836341235024</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>209.780653875524</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>42.5998215757089</v>
       </c>
       <c r="AO30" t="n">
-        <v>219.8363412350244</v>
+        <v>473753.149122383</v>
       </c>
       <c r="AP30" t="n">
-        <v>209.7806538755243</v>
+        <v>1011.37724969626</v>
       </c>
       <c r="AQ30" t="n">
-        <v>273.9473776691599</v>
+        <v>446.202434108825</v>
       </c>
       <c r="AR30" t="n">
-        <v>268.7596545411701</v>
+        <v>1586</v>
       </c>
       <c r="AS30" t="n">
-        <v>42.5998215757089</v>
+        <v>618.5259106401537</v>
       </c>
     </row>
     <row r="31">
@@ -7682,43 +7508,37 @@
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>{"A": 13.441666309854451, "mu_m": 0.028473373316671994, "lambda": 25.251026784998235}</t>
+          <t>{"A": 683628.516455209, "mu_m": 1491.412933599461, "lambda": 467.07042160125013}</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>{"A": 13.4082795287993, "mu_m": 0.024659719226299164, "lambda": 1.6875433296326709e-19}</t>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
           <t>{"A": 12.841044107118968, "mu_m": 0.027348727895156535, "lambda": 36.625019092304946}</t>
         </is>
       </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>{"A": 12.841044107118968, "mu_m": 0.027348727895156535, "lambda": 36.625019092304946}</t>
-        </is>
-      </c>
-      <c r="AN31" t="inlineStr">
-        <is>
-          <t>{"A": 12.812821117439555, "mu_m": 0.023119686603062364, "lambda": 2.4903444567514346e-18}</t>
-        </is>
+      <c r="AL31" t="n">
+        <v>209.355397934583</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>198.918987917895</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>46.6213728827003</v>
       </c>
       <c r="AO31" t="n">
-        <v>209.3553979345831</v>
+        <v>683628.516455209</v>
       </c>
       <c r="AP31" t="n">
-        <v>198.9189879178952</v>
+        <v>1491.41293359946</v>
       </c>
       <c r="AQ31" t="n">
-        <v>277.0976384200296</v>
+        <v>467.07042160125</v>
       </c>
       <c r="AR31" t="n">
-        <v>271.8660217854306</v>
+        <v>1648</v>
       </c>
       <c r="AS31" t="n">
-        <v>46.6213728827003</v>
+        <v>635.6976816555378</v>
       </c>
     </row>
     <row r="32">
@@ -7920,43 +7740,37 @@
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>{"A": 12.595305363464226, "mu_m": 0.026376351053319848, "lambda": 33.86126385186888}</t>
+          <t>{"A": 293548.41506084683, "mu_m": 634.158332161568, "lambda": 471.4756111785614}</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>{"A": 12.565307863390068, "mu_m": 0.022473990181544293, "lambda": 2.0146117144426125e-19}</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
           <t>{"A": 11.994631777011383, "mu_m": 0.0252726433649437, "lambda": 46.32124193336259}</t>
         </is>
       </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>{"A": 11.994631777011383, "mu_m": 0.0252726433649437, "lambda": 46.32124193336259}</t>
-        </is>
-      </c>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t>{"A": 11.970321339729075, "mu_m": 0.020966559220467244, "lambda": 8.811424831344673e-18}</t>
-        </is>
+      <c r="AL32" t="n">
+        <v>220.920248909616</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>209.532033820321</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>30.1520444190249</v>
       </c>
       <c r="AO32" t="n">
-        <v>220.9202489096161</v>
+        <v>293548.415060847</v>
       </c>
       <c r="AP32" t="n">
-        <v>209.5320338203209</v>
+        <v>634.158332161568</v>
       </c>
       <c r="AQ32" t="n">
-        <v>285.4622261540135</v>
+        <v>471.475611178561</v>
       </c>
       <c r="AR32" t="n">
-        <v>279.5522237459357</v>
+        <v>1518</v>
       </c>
       <c r="AS32" t="n">
-        <v>30.15204441902487</v>
+        <v>641.764987526034</v>
       </c>
     </row>
     <row r="33">
@@ -8158,43 +7972,37 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>{"A": 12.636975619628013, "mu_m": 0.024351834189770473, "lambda": 2.8001085907810954e-13}</t>
+          <t>{"A": 308102.37161365926, "mu_m": 564.7477653637109, "lambda": 462.7343537730091}</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>{"A": 12.58909704837606, "mu_m": 0.022408222297349793, "lambda": 9.238152285874658e-17}</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
           <t>{"A": 12.038137896333378, "mu_m": 0.02313196989811226, "lambda": 9.420740903239626}</t>
         </is>
       </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>{"A": 12.038137896333378, "mu_m": 0.02313196989811226, "lambda": 9.420740903239626}</t>
-        </is>
-      </c>
-      <c r="AN33" t="inlineStr">
-        <is>
-          <t>{"A": 11.994718265662238, "mu_m": 0.020896689905840045, "lambda": 2.6870531551432985e-16}</t>
-        </is>
+      <c r="AL33" t="n">
+        <v>200.869349108859</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>190.904861326576</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>38.3045641663085</v>
       </c>
       <c r="AO33" t="n">
-        <v>200.8693491088595</v>
+        <v>308102.371613659</v>
       </c>
       <c r="AP33" t="n">
-        <v>190.9048613265759</v>
+        <v>564.747765363711</v>
       </c>
       <c r="AQ33" t="n">
-        <v>287.0004369043646</v>
+        <v>462.734353773009</v>
       </c>
       <c r="AR33" t="n">
-        <v>280.9035201749352</v>
+        <v>1673</v>
       </c>
       <c r="AS33" t="n">
-        <v>38.30456416630851</v>
+        <v>663.433737186828</v>
       </c>
     </row>
     <row r="34">
@@ -8396,43 +8204,37 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>{"A": 13.245675868700339, "mu_m": 0.02989734221964515, "lambda": 54.19477753283665}</t>
+          <t>{"A": 564050.5874901084, "mu_m": 1232.009927255727, "lambda": 455.1001762213516}</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>{"A": 13.22609080039917, "mu_m": 0.02417272616684083, "lambda": 1.2717367890724402e-20}</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
           <t>{"A": 12.645025058085935, "mu_m": 0.028710812115596642, "lambda": 65.21400338908721}</t>
         </is>
       </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>{"A": 12.645025058085935, "mu_m": 0.028710812115596642, "lambda": 65.21400338908721}</t>
-        </is>
-      </c>
-      <c r="AN34" t="inlineStr">
-        <is>
-          <t>{"A": 12.630351747898665, "mu_m": 0.022647649001393627, "lambda": 4.317940700169683e-19}</t>
-        </is>
+      <c r="AL34" t="n">
+        <v>227.238147228631</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>217.179560618795</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>55.4844204154959</v>
       </c>
       <c r="AO34" t="n">
-        <v>227.2381472286307</v>
+        <v>564050.587490108</v>
       </c>
       <c r="AP34" t="n">
-        <v>217.1795606187953</v>
+        <v>1232.00992725573</v>
       </c>
       <c r="AQ34" t="n">
-        <v>278.8446550704105</v>
+        <v>455.100176221352</v>
       </c>
       <c r="AR34" t="n">
-        <v>273.5746623924898</v>
+        <v>1603</v>
       </c>
       <c r="AS34" t="n">
-        <v>55.48442041549589</v>
+        <v>623.5262662452297</v>
       </c>
     </row>
     <row r="35">
@@ -8634,43 +8436,37 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>{"A": 12.516677952282334, "mu_m": 0.023827282915932464, "lambda": 7.110495681123816}</t>
+          <t>{"A": 271165.7362876633, "mu_m": 517.1474539646721, "lambda": 477.66038271177206}</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>{"A": 12.47043970851815, "mu_m": 0.02163062693952569, "lambda": 1.0065038546449047e-16}</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
           <t>{"A": 11.915868044117426, "mu_m": 0.022833151039037693, "lambda": 21.099396639417836}</t>
         </is>
       </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>{"A": 11.915868044117426, "mu_m": 0.022833151039037693, "lambda": 21.099396639417836}</t>
-        </is>
-      </c>
-      <c r="AN35" t="inlineStr">
-        <is>
-          <t>{"A": 11.876478526224533, "mu_m": 0.02014963460856801, "lambda": 7.56276274214743e-16}</t>
-        </is>
+      <c r="AL35" t="n">
+        <v>213.083537139691</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>200.3607503012</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>35.8218269340582</v>
       </c>
       <c r="AO35" t="n">
-        <v>213.0835371396908</v>
+        <v>271165.736287663</v>
       </c>
       <c r="AP35" t="n">
-        <v>200.3607503011999</v>
+        <v>517.147453964672</v>
       </c>
       <c r="AQ35" t="n">
-        <v>294.7070444933633</v>
+        <v>477.660382711772</v>
       </c>
       <c r="AR35" t="n">
-        <v>288.2588596110196</v>
+        <v>1624</v>
       </c>
       <c r="AS35" t="n">
-        <v>35.82182693405822</v>
+        <v>670.5575898150344</v>
       </c>
     </row>
     <row r="36">
@@ -8893,43 +8689,37 @@
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>{"A": 13.71926140972955, "mu_m": 0.027245267042269806, "lambda": 3.2928988609020684}</t>
+          <t>{"A": 907214.2326227564, "mu_m": 1796.158450748439, "lambda": 478.9311469093912}</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>{"A": 13.689044842529203, "mu_m": 0.024660613433106205, "lambda": 6.4753458917989355e-15}</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
           <t>{"A": 13.457110541366077, "mu_m": 0.02677443628916411, "lambda": 8.202256003165784}</t>
         </is>
       </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>{"A": 13.457110541366077, "mu_m": 0.02677443628916411, "lambda": 8.202256003165784}</t>
-        </is>
-      </c>
-      <c r="AN36" t="inlineStr">
-        <is>
-          <t>{"A": 13.428344507878425, "mu_m": 0.02400762596077213, "lambda": 8.265278710890175e-15}</t>
-        </is>
+      <c r="AL36" t="n">
+        <v>193.102294692071</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>188.537338303026</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>51.2965989675901</v>
       </c>
       <c r="AO36" t="n">
-        <v>193.1022946920712</v>
+        <v>907214.232622756</v>
       </c>
       <c r="AP36" t="n">
-        <v>188.5373383030259</v>
+        <v>1796.15845074844</v>
       </c>
       <c r="AQ36" t="n">
-        <v>279.6683130980966</v>
+        <v>478.931146909391</v>
       </c>
       <c r="AR36" t="n">
-        <v>277.5487495406751</v>
+        <v>1815</v>
       </c>
       <c r="AS36" t="n">
-        <v>51.29659896759006</v>
+        <v>664.7418501805696</v>
       </c>
     </row>
     <row r="37">
@@ -9152,43 +8942,37 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>{"A": 13.381147564717189, "mu_m": 0.026165287588381877, "lambda": 4.636381138021661e-22}</t>
+          <t>{"A": 651699.3275385875, "mu_m": 1211.491206869801, "lambda": 479.06020719954984}</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>{"A": 13.34909637176046, "mu_m": 0.023886742902476596, "lambda": 3.695205220957767e-15}</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
           <t>{"A": 13.120502925555432, "mu_m": 0.02543363979610329, "lambda": 1.42090888425857e-24}</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>{"A": 13.120502925555432, "mu_m": 0.02543363979610329, "lambda": 1.42090888425857e-24}</t>
-        </is>
-      </c>
-      <c r="AN37" t="inlineStr">
-        <is>
-          <t>{"A": 13.08853406089375, "mu_m": 0.023234043731567476, "lambda": 1.0339493684127711e-15}</t>
-        </is>
+      <c r="AL37" t="n">
+        <v>189.77870736697</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>188.13663223509</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>49.4291732359605</v>
       </c>
       <c r="AO37" t="n">
-        <v>189.7787073669699</v>
+        <v>651699.327538588</v>
       </c>
       <c r="AP37" t="n">
-        <v>188.13663223509</v>
+        <v>1211.4912068698</v>
       </c>
       <c r="AQ37" t="n">
-        <v>281.6671564388662</v>
+        <v>479.06020719955</v>
       </c>
       <c r="AR37" t="n">
-        <v>279.4247927869734</v>
+        <v>1824</v>
       </c>
       <c r="AS37" t="n">
-        <v>49.42917323596047</v>
+        <v>676.954160591212</v>
       </c>
     </row>
     <row r="38">
@@ -9411,43 +9195,37 @@
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>{"A": 13.521859798670079, "mu_m": 0.03216182351767067, "lambda": 85.38101386442959}</t>
+          <t>{"A": 743585.2882868558, "mu_m": 1783.3530164059691, "lambda": 478.474561752004}</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>{"A": 13.517230365220911, "mu_m": 0.024125573882778084, "lambda": 2.295194589263137e-19}</t>
-        </is>
-      </c>
-      <c r="AL38" t="inlineStr">
-        <is>
           <t>{"A": 13.259702281357821, "mu_m": 0.031608405688800696, "lambda": 89.6921621128177}</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>{"A": 13.259702281357821, "mu_m": 0.031608405688800696, "lambda": 89.6921621128177}</t>
-        </is>
-      </c>
-      <c r="AN38" t="inlineStr">
-        <is>
-          <t>{"A": 13.255762841647096, "mu_m": 0.023596899207174324, "lambda": 2.290343716805574}</t>
-        </is>
+      <c r="AL38" t="n">
+        <v>244.01730946101</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>240.049303229311</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>56.3695829211705</v>
       </c>
       <c r="AO38" t="n">
-        <v>244.0173094610102</v>
+        <v>743585.288286856</v>
       </c>
       <c r="AP38" t="n">
-        <v>240.0493032293112</v>
+        <v>1783.35301640597</v>
       </c>
       <c r="AQ38" t="n">
-        <v>283.169681405735</v>
+        <v>478.474561752004</v>
       </c>
       <c r="AR38" t="n">
-        <v>280.1431881143793</v>
+        <v>1581</v>
       </c>
       <c r="AS38" t="n">
-        <v>56.36958292117053</v>
+        <v>631.8652464912292</v>
       </c>
     </row>
     <row r="39">
@@ -9670,43 +9448,37 @@
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>{"A": 13.517265429706896, "mu_m": 0.024945391562006373, "lambda": 1.675546535556422e-14}</t>
+          <t>{"A": 743378.5535691822, "mu_m": 1320.5605467463706, "lambda": 503.37236092475706}</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>{"A": 13.480528425090254, "mu_m": 0.022880668106086285, "lambda": 1.797189145917202e-17}</t>
-        </is>
-      </c>
-      <c r="AL39" t="inlineStr">
-        <is>
           <t>{"A": 13.256879664026838, "mu_m": 0.024246455999526833, "lambda": 1.988804333558222e-15}</t>
         </is>
       </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>{"A": 13.256879664026838, "mu_m": 0.024246455999526833, "lambda": 1.988804333558222e-15}</t>
-        </is>
-      </c>
-      <c r="AN39" t="inlineStr">
-        <is>
-          <t>{"A": 13.220233997844678, "mu_m": 0.022253451486526875, "lambda": 2.6344037158961244e-17}</t>
-        </is>
+      <c r="AL39" t="n">
+        <v>201.140054553722</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>199.344397544773</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>50.5044811169305</v>
       </c>
       <c r="AO39" t="n">
-        <v>201.1400545537222</v>
+        <v>743378.5535691821</v>
       </c>
       <c r="AP39" t="n">
-        <v>199.3443975447732</v>
+        <v>1320.56054674637</v>
       </c>
       <c r="AQ39" t="n">
-        <v>297.0378326671873</v>
+        <v>503.372360924757</v>
       </c>
       <c r="AR39" t="n">
-        <v>294.5833653673866</v>
+        <v>1929</v>
       </c>
       <c r="AS39" t="n">
-        <v>50.50448111693051</v>
+        <v>710.4614546733603</v>
       </c>
     </row>
     <row r="40">
@@ -9929,43 +9701,37 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>{"A": 12.955202233604243, "mu_m": 0.025382195464582234, "lambda": 1.9282241823101118e-19}</t>
+          <t>{"A": 426214.4407078869, "mu_m": 753.3645219303357, "lambda": 458.1254917720307}</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>{"A": 12.924375220940377, "mu_m": 0.023167638340415967, "lambda": 1.3022571494218885e-16}</t>
-        </is>
-      </c>
-      <c r="AL40" t="inlineStr">
-        <is>
           <t>{"A": 12.694528994507579, "mu_m": 0.024650149335984185, "lambda": 1.0080917266713113e-20}</t>
         </is>
       </c>
-      <c r="AM40" t="inlineStr">
-        <is>
-          <t>{"A": 12.694528994507579, "mu_m": 0.024650149335984185, "lambda": 1.0080917266713113e-20}</t>
-        </is>
-      </c>
-      <c r="AN40" t="inlineStr">
-        <is>
-          <t>{"A": 12.663767615874525, "mu_m": 0.0225152099970871, "lambda": 1.5840528224024448e-16}</t>
-        </is>
+      <c r="AL40" t="n">
+        <v>189.453466134454</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>187.767546137278</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>47.0428584576279</v>
       </c>
       <c r="AO40" t="n">
-        <v>189.4534661344543</v>
+        <v>426214.440707887</v>
       </c>
       <c r="AP40" t="n">
-        <v>187.7675461372779</v>
+        <v>753.364521930336</v>
       </c>
       <c r="AQ40" t="n">
-        <v>281.2269487495985</v>
+        <v>458.125491772031</v>
       </c>
       <c r="AR40" t="n">
-        <v>278.931650931243</v>
+        <v>1773</v>
       </c>
       <c r="AS40" t="n">
-        <v>47.04285845762791</v>
+        <v>666.2525347937294</v>
       </c>
     </row>
     <row r="41">
@@ -10188,43 +9954,37 @@
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>{"A": 13.373639996364657, "mu_m": 0.027127962672972076, "lambda": 9.879039348965586}</t>
+          <t>{"A": 646287.0531435832, "mu_m": 1175.8056644936207, "lambda": 452.8194453884292}</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>{"A": 13.346279863516806, "mu_m": 0.024212337022670987, "lambda": 4.699141759141113e-13}</t>
-        </is>
-      </c>
-      <c r="AL41" t="inlineStr">
-        <is>
           <t>{"A": 13.111488348585235, "mu_m": 0.026646649775848255, "lambda": 14.799932363566528}</t>
         </is>
       </c>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>{"A": 13.111488348585235, "mu_m": 0.026646649775848255, "lambda": 14.799932363566528}</t>
-        </is>
-      </c>
-      <c r="AN41" t="inlineStr">
-        <is>
-          <t>{"A": 13.085520915882565, "mu_m": 0.02355677475914989, "lambda": 2.78946395376267e-12}</t>
-        </is>
+      <c r="AL41" t="n">
+        <v>195.815071121282</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>191.237561092746</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>55.0391450203485</v>
       </c>
       <c r="AO41" t="n">
-        <v>195.8150711212818</v>
+        <v>646287.053143583</v>
       </c>
       <c r="AP41" t="n">
-        <v>191.2375610927464</v>
+        <v>1175.80566449362</v>
       </c>
       <c r="AQ41" t="n">
-        <v>277.7443230168857</v>
+        <v>452.819445388429</v>
       </c>
       <c r="AR41" t="n">
-        <v>275.6090800119825</v>
+        <v>1821</v>
       </c>
       <c r="AS41" t="n">
-        <v>55.03914502034846</v>
+        <v>655.0260915429983</v>
       </c>
     </row>
     <row r="42">
@@ -10447,43 +10207,37 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>{"A": 13.67592106314378, "mu_m": 0.01692697329521506, "lambda": 6.52639603595696}</t>
+          <t>{"A": 835802.4364656284, "mu_m": 1136.8681665488323, "lambda": 739.9317579375603}</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>{"A": 13.599992391702768, "mu_m": 0.015683305057341456, "lambda": 1.5561521764107873e-16}</t>
-        </is>
-      </c>
-      <c r="AL42" t="inlineStr">
-        <is>
           <t>{"A": 13.412951307095994, "mu_m": 0.016680694775095966, "lambda": 16.571491055576566}</t>
         </is>
       </c>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>{"A": 13.412951307095994, "mu_m": 0.016680694775095966, "lambda": 16.571491055576566}</t>
-        </is>
-      </c>
-      <c r="AN42" t="inlineStr">
-        <is>
-          <t>{"A": 13.34348866457923, "mu_m": 0.015213294959941082, "lambda": 1.0108181052535877e-15}</t>
-        </is>
+      <c r="AL42" t="n">
+        <v>312.383451998663</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>303.749656832161</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>57.6965386275688</v>
       </c>
       <c r="AO42" t="n">
-        <v>312.3834519986635</v>
+        <v>835802.436465628</v>
       </c>
       <c r="AP42" t="n">
-        <v>303.7496568321613</v>
+        <v>1136.86816654883</v>
       </c>
       <c r="AQ42" t="n">
-        <v>438.5469649972167</v>
+        <v>739.93175793756</v>
       </c>
       <c r="AR42" t="n">
-        <v>433.581835651935</v>
+        <v>2561</v>
       </c>
       <c r="AS42" t="n">
-        <v>57.69653862756882</v>
+        <v>1010.38926770327</v>
       </c>
     </row>
     <row r="43">
@@ -10681,43 +10435,37 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>{"A": 11.83637324425164, "mu_m": 0.03719036886836255, "lambda": 91.60803186770949}</t>
+          <t>{"A": 139035.8083081707, "mu_m": 351.55907548295437, "lambda": 334.67725863161246}</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>{"A": 11.83551364458621, "mu_m": 0.02629690796649635, "lambda": 9.979608527119637e-14}</t>
-        </is>
-      </c>
-      <c r="AL43" t="inlineStr">
-        <is>
           <t>{"A": 11.236134493120703, "mu_m": 0.035365961443592484, "lambda": 98.67991255004185}</t>
         </is>
       </c>
-      <c r="AM43" t="inlineStr">
-        <is>
-          <t>{"A": 11.236134493120703, "mu_m": 0.035365961443592484, "lambda": 98.67991255004185}</t>
-        </is>
-      </c>
-      <c r="AN43" t="inlineStr">
-        <is>
-          <t>{"A": 11.235597768813172, "mu_m": 0.024825283195639442, "lambda": 3.5374259318631958}</t>
-        </is>
+      <c r="AL43" t="n">
+        <v>215.559044617447</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>208.690989286185</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>21.7848177650585</v>
       </c>
       <c r="AO43" t="n">
-        <v>215.5590446174472</v>
+        <v>139035.808308171</v>
       </c>
       <c r="AP43" t="n">
-        <v>208.6909892861854</v>
+        <v>351.559075482954</v>
       </c>
       <c r="AQ43" t="n">
-        <v>229.8308720180433</v>
+        <v>334.677258631612</v>
       </c>
       <c r="AR43" t="n">
-        <v>225.0362221228687</v>
+        <v>1143</v>
       </c>
       <c r="AS43" t="n">
-        <v>21.78481776505853</v>
+        <v>480.1675020365494</v>
       </c>
     </row>
     <row r="44">
@@ -10915,43 +10663,37 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>{"A": 11.965614946969968, "mu_m": 0.03857903976834881, "lambda": 97.44166159084543}</t>
+          <t>{"A": 157810.56576256148, "mu_m": 441.5816336609494, "lambda": 350.9268145438196}</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>{"A": 11.965203477708226, "mu_m": 0.026981583096112857, "lambda": 2.654319065776951}</t>
-        </is>
-      </c>
-      <c r="AL44" t="inlineStr">
-        <is>
           <t>{"A": 11.365382218722264, "mu_m": 0.03670272884113652, "lambda": 104.21026652363895}</t>
         </is>
       </c>
-      <c r="AM44" t="inlineStr">
-        <is>
-          <t>{"A": 11.365382218722264, "mu_m": 0.03670272884113652, "lambda": 104.21026652363895}</t>
-        </is>
-      </c>
-      <c r="AN44" t="inlineStr">
-        <is>
-          <t>{"A": 11.364949076831643, "mu_m": 0.02570915482291693, "lambda": 10.42149277002458}</t>
-        </is>
+      <c r="AL44" t="n">
+        <v>218.12796668759</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>211.542576657565</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>25.8539516761006</v>
       </c>
       <c r="AO44" t="n">
-        <v>218.1279666875901</v>
+        <v>157810.565762562</v>
       </c>
       <c r="AP44" t="n">
-        <v>211.5425766575651</v>
+        <v>441.581633660949</v>
       </c>
       <c r="AQ44" t="n">
-        <v>231.4507167004243</v>
+        <v>350.92681454382</v>
       </c>
       <c r="AR44" t="n">
-        <v>224.3834043289766</v>
+        <v>1111</v>
       </c>
       <c r="AS44" t="n">
-        <v>25.85395167610064</v>
+        <v>482.3980042814256</v>
       </c>
     </row>
     <row r="45">
@@ -11149,43 +10891,37 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>{"A": 11.497906437143708, "mu_m": 0.031072832154026418, "lambda": 57.682346247337335}</t>
+          <t>{"A": 98713.45892562186, "mu_m": 248.06624227009414, "lambda": 371.36797959879715}</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>{"A": 11.49241621320832, "mu_m": 0.024019359253144426, "lambda": 2.0031386878410383e-16}</t>
-        </is>
-      </c>
-      <c r="AL45" t="inlineStr">
-        <is>
           <t>{"A": 10.897662797537883, "mu_m": 0.02950840946699266, "lambda": 66.25236275733023}</t>
         </is>
       </c>
-      <c r="AM45" t="inlineStr">
-        <is>
-          <t>{"A": 10.897662797537883, "mu_m": 0.02950840946699266, "lambda": 66.25236275733023}</t>
-        </is>
-      </c>
-      <c r="AN45" t="inlineStr">
-        <is>
-          <t>{"A": 10.893065835911369, "mu_m": 0.022451737185132534, "lambda": 1.8409098715212616e-19}</t>
-        </is>
+      <c r="AL45" t="n">
+        <v>202.112823298839</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>193.809087890032</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.0109087425279973</v>
       </c>
       <c r="AO45" t="n">
-        <v>202.1128232988395</v>
+        <v>98713.4589256219</v>
       </c>
       <c r="AP45" t="n">
-        <v>193.8090878900316</v>
+        <v>248.066242270094</v>
       </c>
       <c r="AQ45" t="n">
-        <v>242.5884853828754</v>
+        <v>371.367979598797</v>
       </c>
       <c r="AR45" t="n">
-        <v>239.2323644458547</v>
+        <v>1133</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.01090874252799731</v>
+        <v>517.7589265222344</v>
       </c>
     </row>
     <row r="46">
@@ -11383,43 +11119,37 @@
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>{"A": 11.407967192385149, "mu_m": 0.026633955420698536, "lambda": 6.11978445655035e-16}</t>
+          <t>{"A": 90669.24630292182, "mu_m": 180.90522632501794, "lambda": 343.2515478715169}</t>
         </is>
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>{"A": 11.39382294819649, "mu_m": 0.023249675377555817, "lambda": 1.255152105274385e-17}</t>
-        </is>
-      </c>
-      <c r="AL46" t="inlineStr">
-        <is>
           <t>{"A": 10.808945883802865, "mu_m": 0.024809925565956684, "lambda": 1.2226005598216974e-15}</t>
         </is>
       </c>
-      <c r="AM46" t="inlineStr">
-        <is>
-          <t>{"A": 10.808945883802865, "mu_m": 0.024809925565956684, "lambda": 1.2226005598216974e-15}</t>
-        </is>
-      </c>
-      <c r="AN46" t="inlineStr">
-        <is>
-          <t>{"A": 10.794713454030752, "mu_m": 0.021705706319746665, "lambda": 4.841379754272869e-17}</t>
-        </is>
+      <c r="AL46" t="n">
+        <v>160.27411935657</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>157.571661037448</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>20.7549161499371</v>
       </c>
       <c r="AO46" t="n">
-        <v>160.27411935657</v>
+        <v>90669.24630292181</v>
       </c>
       <c r="AP46" t="n">
-        <v>157.5716610374475</v>
+        <v>180.905226325018</v>
       </c>
       <c r="AQ46" t="n">
-        <v>248.6607276218953</v>
+        <v>343.251547871517</v>
       </c>
       <c r="AR46" t="n">
-        <v>245.0318716964877</v>
+        <v>1243</v>
       </c>
       <c r="AS46" t="n">
-        <v>20.75491614993714</v>
+        <v>527.6318023226949</v>
       </c>
     </row>
     <row r="47">
@@ -11617,43 +11347,37 @@
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
-          <t>{"A": 11.32455241121936, "mu_m": 0.02897451528618964, "lambda": 47.52742318447471}</t>
+          <t>{"A": 83172.59740530334, "mu_m": 189.11750716804602, "lambda": 367.1962539613875}</t>
         </is>
       </c>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>{"A": 11.316848502315725, "mu_m": 0.023012041208693032, "lambda": 2.48887535502818e-16}</t>
-        </is>
-      </c>
-      <c r="AL47" t="inlineStr">
-        <is>
           <t>{"A": 10.724294594838378, "mu_m": 0.027499839568071078, "lambda": 56.8426195971172}</t>
         </is>
       </c>
-      <c r="AM47" t="inlineStr">
-        <is>
-          <t>{"A": 10.724294594838378, "mu_m": 0.027499839568071078, "lambda": 56.8426195971172}</t>
-        </is>
-      </c>
-      <c r="AN47" t="inlineStr">
-        <is>
-          <t>{"A": 10.71766686608717, "mu_m": 0.02147646048500312, "lambda": 1.2539028226175346e-14}</t>
-        </is>
+      <c r="AL47" t="n">
+        <v>200.307002098015</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>191.311364741619</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>18.5309380169627</v>
       </c>
       <c r="AO47" t="n">
-        <v>200.3070020980146</v>
+        <v>83172.5974053033</v>
       </c>
       <c r="AP47" t="n">
-        <v>191.3113647416194</v>
+        <v>189.117507168046</v>
       </c>
       <c r="AQ47" t="n">
-        <v>249.5212577875961</v>
+        <v>367.196253961387</v>
       </c>
       <c r="AR47" t="n">
-        <v>245.8897148602505</v>
+        <v>1164</v>
       </c>
       <c r="AS47" t="n">
-        <v>18.53093801696269</v>
+        <v>528.9871379066371</v>
       </c>
     </row>
     <row r="48">
@@ -11851,43 +11575,37 @@
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
-          <t>{"A": 11.362944385349092, "mu_m": 0.030470175438497924, "lambda": 80.18907155724122}</t>
+          <t>{"A": 86483.26079570616, "mu_m": 202.8977119601992, "lambda": 383.33802425051186}</t>
         </is>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>{"A": 11.35907825677747, "mu_m": 0.022637076792064906, "lambda": 1.7387369563089144e-17}</t>
-        </is>
-      </c>
-      <c r="AL48" t="inlineStr">
-        <is>
           <t>{"A": 10.762679404689544, "mu_m": 0.028931327205925582, "lambda": 89.16315461056816}</t>
         </is>
       </c>
-      <c r="AM48" t="inlineStr">
-        <is>
-          <t>{"A": 10.762679404689544, "mu_m": 0.028931327205925582, "lambda": 89.16315461056816}</t>
-        </is>
-      </c>
-      <c r="AN48" t="inlineStr">
-        <is>
-          <t>{"A": 10.759962695709655, "mu_m": 0.02112731202894837, "lambda": 6.375922530186809e-19}</t>
-        </is>
+      <c r="AL48" t="n">
+        <v>226.017176436903</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>217.378751970531</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>20.420170207079</v>
       </c>
       <c r="AO48" t="n">
-        <v>226.0171764369032</v>
+        <v>86483.2607957062</v>
       </c>
       <c r="AP48" t="n">
-        <v>217.378751970531</v>
+        <v>202.897711960199</v>
       </c>
       <c r="AQ48" t="n">
-        <v>254.6458035212074</v>
+        <v>383.338024250512</v>
       </c>
       <c r="AR48" t="n">
-        <v>250.8954305610526</v>
+        <v>1167</v>
       </c>
       <c r="AS48" t="n">
-        <v>20.420170207079</v>
+        <v>540.1432111835687</v>
       </c>
     </row>
     <row r="49">
@@ -12085,43 +11803,37 @@
       </c>
       <c r="AJ49" t="inlineStr">
         <is>
-          <t>{"A": 11.412960222144564, "mu_m": 0.030016515377695136, "lambda": 61.83327160640625}</t>
+          <t>{"A": 90825.70155687515, "mu_m": 213.58297099272713, "lambda": 375.51190253422664}</t>
         </is>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>{"A": 11.40703261082406, "mu_m": 0.023136248622622552, "lambda": 7.283501846959352e-16}</t>
-        </is>
-      </c>
-      <c r="AL49" t="inlineStr">
-        <is>
           <t>{"A": 10.812704098080138, "mu_m": 0.028501192035206742, "lambda": 70.83561708877761}</t>
         </is>
       </c>
-      <c r="AM49" t="inlineStr">
-        <is>
-          <t>{"A": 10.812704098080138, "mu_m": 0.028501192035206742, "lambda": 70.83561708877761}</t>
-        </is>
-      </c>
-      <c r="AN49" t="inlineStr">
-        <is>
-          <t>{"A": 10.807842637039546, "mu_m": 0.021604622676602764, "lambda": 2.3287337982788905e-19}</t>
-        </is>
+      <c r="AL49" t="n">
+        <v>210.400710936089</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>201.709382334248</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>15.5342561843783</v>
       </c>
       <c r="AO49" t="n">
-        <v>210.4007109360894</v>
+        <v>90825.7015568752</v>
       </c>
       <c r="AP49" t="n">
-        <v>201.7093823342477</v>
+        <v>213.582970992727</v>
       </c>
       <c r="AQ49" t="n">
-        <v>250.1280119264511</v>
+        <v>375.511902534227</v>
       </c>
       <c r="AR49" t="n">
-        <v>246.5186296379591</v>
+        <v>1165</v>
       </c>
       <c r="AS49" t="n">
-        <v>15.53425618437828</v>
+        <v>531.9518479917009</v>
       </c>
     </row>
     <row r="50">
@@ -12319,43 +12031,37 @@
       </c>
       <c r="AJ50" t="inlineStr">
         <is>
-          <t>{"A": 11.57418152193212, "mu_m": 0.03915164068154949, "lambda": 164.4203999135384}</t>
+          <t>{"A": 106705.91757029809, "mu_m": 314.57960740748916, "lambda": 405.1537601300752}</t>
         </is>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>{"A": 11.573279207082377, "mu_m": 0.02785394510374966, "lambda": 82.53085104967934}</t>
-        </is>
-      </c>
-      <c r="AL50" t="inlineStr">
-        <is>
           <t>{"A": 10.973915968663169, "mu_m": 0.037223590467329516, "lambda": 171.53289291917542}</t>
         </is>
       </c>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>{"A": 10.973915968663169, "mu_m": 0.037223590467329516, "lambda": 171.53289291917542}</t>
-        </is>
-      </c>
-      <c r="AN50" t="inlineStr">
-        <is>
-          <t>{"A": 10.972964362746605, "mu_m": 0.026551149907056953, "lambda": 91.06860917116597}</t>
-        </is>
+      <c r="AL50" t="n">
+        <v>279.987720176031</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>273.174550600046</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>25.9913846181034</v>
       </c>
       <c r="AO50" t="n">
-        <v>279.9877201760314</v>
+        <v>106705.917570298</v>
       </c>
       <c r="AP50" t="n">
-        <v>273.1745506000457</v>
+        <v>314.579607407489</v>
       </c>
       <c r="AQ50" t="n">
-        <v>297.7068226036873</v>
+        <v>405.153760130075</v>
       </c>
       <c r="AR50" t="n">
-        <v>290.2802230681586</v>
+        <v>1084</v>
       </c>
       <c r="AS50" t="n">
-        <v>25.99138461810339</v>
+        <v>529.9390685261103</v>
       </c>
     </row>
     <row r="51">
@@ -12553,43 +12259,37 @@
       </c>
       <c r="AJ51" t="inlineStr">
         <is>
-          <t>{"A": 11.82456554460612, "mu_m": 0.03788138957274832, "lambda": 127.63812193332497}</t>
+          <t>{"A": 137643.66632885937, "mu_m": 345.7856690519302, "lambda": 364.48503679857566}</t>
         </is>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
-          <t>{"A": 11.823790155041934, "mu_m": 0.026765478838780967, "lambda": 37.61715749006768}</t>
-        </is>
-      </c>
-      <c r="AL51" t="inlineStr">
-        <is>
           <t>{"A": 11.22431015417906, "mu_m": 0.03603941590397934, "lambda": 134.79847101042654}</t>
         </is>
       </c>
-      <c r="AM51" t="inlineStr">
-        <is>
-          <t>{"A": 11.22431015417906, "mu_m": 0.03603941590397934, "lambda": 134.79847101042654}</t>
-        </is>
-      </c>
-      <c r="AN51" t="inlineStr">
-        <is>
-          <t>{"A": 11.223493430842808, "mu_m": 0.025518703015119906, "lambda": 46.068475271242356}</t>
-        </is>
+      <c r="AL51" t="n">
+        <v>249.372829209123</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>242.470619201962</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>42.8535712154044</v>
       </c>
       <c r="AO51" t="n">
-        <v>249.3728292091233</v>
+        <v>137643.666328859</v>
       </c>
       <c r="AP51" t="n">
-        <v>242.4706192019618</v>
+        <v>345.78566905193</v>
       </c>
       <c r="AQ51" t="n">
-        <v>265.9756826279967</v>
+        <v>364.485036798576</v>
       </c>
       <c r="AR51" t="n">
-        <v>258.4947705202937</v>
+        <v>1175</v>
       </c>
       <c r="AS51" t="n">
-        <v>42.85357121540435</v>
+        <v>510.923364299779</v>
       </c>
     </row>
     <row r="52">
@@ -12787,43 +12487,37 @@
       </c>
       <c r="AJ52" t="inlineStr">
         <is>
-          <t>{"A": 11.841641998422977, "mu_m": 0.04274937423856795, "lambda": 182.21271860882715}</t>
+          <t>{"A": 138976.87252506, "mu_m": 484.30095046732373, "lambda": 425.1805665032128}</t>
         </is>
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>{"A": 11.840972788790452, "mu_m": 0.030326907132843996, "lambda": 104.38146772742104}</t>
-        </is>
-      </c>
-      <c r="AL52" t="inlineStr">
-        <is>
           <t>{"A": 11.241392098427541, "mu_m": 0.04068460221797183, "lambda": 188.66973045331704}</t>
         </is>
       </c>
-      <c r="AM52" t="inlineStr">
-        <is>
-          <t>{"A": 11.241392098427541, "mu_m": 0.04068460221797183, "lambda": 188.66973045331704}</t>
-        </is>
-      </c>
-      <c r="AN52" t="inlineStr">
-        <is>
-          <t>{"A": 11.240687022798207, "mu_m": 0.028930727125360028, "lambda": 112.08872179920759}</t>
-        </is>
+      <c r="AL52" t="n">
+        <v>290.316958586515</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>284.11588604752</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0.00665596259596654</v>
       </c>
       <c r="AO52" t="n">
-        <v>290.3169585865149</v>
+        <v>138976.87252506</v>
       </c>
       <c r="AP52" t="n">
-        <v>284.1158860475198</v>
+        <v>484.300950467324</v>
       </c>
       <c r="AQ52" t="n">
-        <v>306.3577246848087</v>
+        <v>425.180566503213</v>
       </c>
       <c r="AR52" t="n">
-        <v>299.6036962409033</v>
+        <v>1046</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.006655962595966542</v>
+        <v>530.7486727622227</v>
       </c>
     </row>
     <row r="53">
@@ -13021,43 +12715,37 @@
       </c>
       <c r="AJ53" t="inlineStr">
         <is>
-          <t>{"A": 11.969381263822156, "mu_m": 0.03814079719699231, "lambda": 91.52127583715827}</t>
+          <t>{"A": 158415.06184387993, "mu_m": 436.6805379007059, "lambda": 347.212759209357}</t>
         </is>
       </c>
       <c r="AK53" t="inlineStr">
         <is>
-          <t>{"A": 11.968641699401912, "mu_m": 0.026904352360125797, "lambda": 3.1757950220108284e-14}</t>
-        </is>
-      </c>
-      <c r="AL53" t="inlineStr">
-        <is>
           <t>{"A": 11.369148341429469, "mu_m": 0.036285984974120014, "lambda": 98.36187777738132}</t>
         </is>
       </c>
-      <c r="AM53" t="inlineStr">
-        <is>
-          <t>{"A": 11.369148341429469, "mu_m": 0.036285984974120014, "lambda": 98.36187777738132}</t>
-        </is>
-      </c>
-      <c r="AN53" t="inlineStr">
-        <is>
-          <t>{"A": 11.368710434856842, "mu_m": 0.025412756930574282, "lambda": 3.353612212676191}</t>
-        </is>
+      <c r="AL53" t="n">
+        <v>213.626102833511</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>206.969552069047</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>29.8525576574265</v>
       </c>
       <c r="AO53" t="n">
-        <v>213.6261028335109</v>
+        <v>158415.06184388</v>
       </c>
       <c r="AP53" t="n">
-        <v>206.9695520690473</v>
+        <v>436.680537900706</v>
       </c>
       <c r="AQ53" t="n">
-        <v>227.0347827742822</v>
+        <v>347.212759209357</v>
       </c>
       <c r="AR53" t="n">
-        <v>222.4294705034474</v>
+        <v>1118</v>
       </c>
       <c r="AS53" t="n">
-        <v>29.85255765742653</v>
+        <v>480.6687742276343</v>
       </c>
     </row>
     <row r="54">
@@ -13247,43 +12935,37 @@
       </c>
       <c r="AJ54" t="inlineStr">
         <is>
-          <t>{"A": 10.736072422308599, "mu_m": 0.030894838000085526, "lambda": 121.5736693475344}</t>
+          <t>{"A": 46172.91698445855, "mu_m": 117.27072616216886, "lambda": 397.99511027050704}</t>
         </is>
       </c>
       <c r="AK54" t="inlineStr">
         <is>
-          <t>{"A": 10.73506728989691, "mu_m": 0.021990287835977052, "lambda": 25.645867513126912}</t>
-        </is>
-      </c>
-      <c r="AL54" t="inlineStr">
-        <is>
           <t>{"A": 10.135794704552698, "mu_m": 0.02925586740018618, "lambda": 130.630919431542}</t>
         </is>
       </c>
-      <c r="AM54" t="inlineStr">
-        <is>
-          <t>{"A": 10.135794704552698, "mu_m": 0.02925586740018618, "lambda": 130.630919431542}</t>
-        </is>
-      </c>
-      <c r="AN54" t="inlineStr">
-        <is>
-          <t>{"A": 10.1347304252672, "mu_m": 0.020882791609542525, "lambda": 36.53070328428611}</t>
-        </is>
+      <c r="AL54" t="n">
+        <v>258.084002286149</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>249.41315900869</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0.0020819549461036</v>
       </c>
       <c r="AO54" t="n">
-        <v>258.0840022861485</v>
+        <v>46172.9169844586</v>
       </c>
       <c r="AP54" t="n">
-        <v>249.4131590086903</v>
+        <v>117.270726162169</v>
       </c>
       <c r="AQ54" t="n">
-        <v>279.1881653411327</v>
+        <v>397.995110270507</v>
       </c>
       <c r="AR54" t="n">
-        <v>269.7324244961119</v>
+        <v>1040</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.0020819549461036</v>
+        <v>542.8400127742118</v>
       </c>
     </row>
     <row r="55">
@@ -13481,43 +13163,37 @@
       </c>
       <c r="AJ55" t="inlineStr">
         <is>
-          <t>{"A": 11.53684002902329, "mu_m": 0.029487983837263178, "lambda": 21.62830932974826}</t>
+          <t>{"A": 102787.1025905588, "mu_m": 234.70221362899628, "lambda": 344.1111490026053}</t>
         </is>
       </c>
       <c r="AK55" t="inlineStr">
         <is>
-          <t>{"A": 11.527727618598185, "mu_m": 0.024492640291155682, "lambda": 2.7836093702450017e-18}</t>
-        </is>
-      </c>
-      <c r="AL55" t="inlineStr">
-        <is>
           <t>{"A": 10.93659441861754, "mu_m": 0.028005726458699507, "lambda": 30.598146875712636}</t>
         </is>
       </c>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>{"A": 10.93659441861754, "mu_m": 0.028005726458699507, "lambda": 30.598146875712636}</t>
-        </is>
-      </c>
-      <c r="AN55" t="inlineStr">
-        <is>
-          <t>{"A": 10.928338704812807, "mu_m": 0.022902639493488183, "lambda": 1.9980829495105187e-17}</t>
-        </is>
+      <c r="AL55" t="n">
+        <v>174.259774399392</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>165.556978247363</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>24.2507641612624</v>
       </c>
       <c r="AO55" t="n">
-        <v>174.2597743993918</v>
+        <v>102787.102590559</v>
       </c>
       <c r="AP55" t="n">
-        <v>165.5569782473626</v>
+        <v>234.702213628996</v>
       </c>
       <c r="AQ55" t="n">
-        <v>238.5825159567311</v>
+        <v>344.111149002605</v>
       </c>
       <c r="AR55" t="n">
-        <v>235.3304397068384</v>
+        <v>1173</v>
       </c>
       <c r="AS55" t="n">
-        <v>24.25076416126238</v>
+        <v>505.2228031109025</v>
       </c>
     </row>
     <row r="56">
@@ -13715,43 +13391,37 @@
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>{"A": 11.40950889643863, "mu_m": 0.02667686561251289, "lambda": 8.832706896279101e-15}</t>
+          <t>{"A": 90786.85931335892, "mu_m": 181.85853317864365, "lambda": 343.1734222924169}</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>{"A": 11.3954625722647, "mu_m": 0.023281471559829885, "lambda": 2.9677688175598764e-17}</t>
-        </is>
-      </c>
-      <c r="AL56" t="inlineStr">
-        <is>
           <t>{"A": 10.81047616017687, "mu_m": 0.024850882875382323, "lambda": 3.059356616943616e-11}</t>
         </is>
       </c>
-      <c r="AM56" t="inlineStr">
-        <is>
-          <t>{"A": 10.81047616017687, "mu_m": 0.024850882875382323, "lambda": 3.059356616943616e-11}</t>
-        </is>
-      </c>
-      <c r="AN56" t="inlineStr">
-        <is>
-          <t>{"A": 10.796342060480155, "mu_m": 0.02173621407164627, "lambda": 1.2795068558525345e-16}</t>
-        </is>
+      <c r="AL56" t="n">
+        <v>160.032621317589</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>157.339464756822</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>24.2875448671213</v>
       </c>
       <c r="AO56" t="n">
-        <v>160.0326213175894</v>
+        <v>90786.8593133589</v>
       </c>
       <c r="AP56" t="n">
-        <v>157.3394647568218</v>
+        <v>181.858533178644</v>
       </c>
       <c r="AQ56" t="n">
-        <v>248.349184105695</v>
+        <v>343.173422292417</v>
       </c>
       <c r="AR56" t="n">
-        <v>244.7324376163266</v>
+        <v>1240</v>
       </c>
       <c r="AS56" t="n">
-        <v>24.28754486712129</v>
+        <v>526.8250689110586</v>
       </c>
     </row>
     <row r="57">
@@ -13949,43 +13619,37 @@
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>{"A": 10.917379109122859, "mu_m": 0.028418517856951334, "lambda": 76.35579721947083}</t>
+          <t>{"A": 55496.589440638316, "mu_m": 121.82038464253411, "lambda": 375.1680660985228}</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>{"A": 10.91262606587403, "mu_m": 0.021373153993770107, "lambda": 1.0327790142409032e-17}</t>
-        </is>
-      </c>
-      <c r="AL57" t="inlineStr">
-        <is>
           <t>{"A": 10.317101690399044, "mu_m": 0.02692947312356657, "lambda": 86.07463860116343}</t>
         </is>
       </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>{"A": 10.317101690399044, "mu_m": 0.02692947312356657, "lambda": 86.07463860116343}</t>
-        </is>
-      </c>
-      <c r="AN57" t="inlineStr">
-        <is>
-          <t>{"A": 10.313636104729058, "mu_m": 0.01988314494842335, "lambda": 5.716215079435447e-17}</t>
-        </is>
+      <c r="AL57" t="n">
+        <v>227.014997402742</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>217.681933435913</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0.0012469819705292</v>
       </c>
       <c r="AO57" t="n">
-        <v>227.0149974027422</v>
+        <v>55496.5894406383</v>
       </c>
       <c r="AP57" t="n">
-        <v>217.6819334359129</v>
+        <v>121.820384642534</v>
       </c>
       <c r="AQ57" t="n">
-        <v>259.3562570579884</v>
+        <v>375.168066098523</v>
       </c>
       <c r="AR57" t="n">
-        <v>255.2881542203567</v>
+        <v>1125</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.001246981970529196</v>
+        <v>542.7595112433667</v>
       </c>
     </row>
     <row r="58">
@@ -14188,43 +13852,37 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>{"A": 12.687784654995822, "mu_m": 0.03250400708424061, "lambda": 100.50627713201084}</t>
+          <t>{"A": 322377.38569177716, "mu_m": 833.7176594671846, "lambda": 452.80258054208184}</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>{"A": 12.684604615565952, "mu_m": 0.023812790724466234, "lambda": 9.305273800328768}</t>
-        </is>
-      </c>
-      <c r="AL58" t="inlineStr">
-        <is>
           <t>{"A": 12.425645089907464, "mu_m": 0.031891437320511765, "lambda": 104.55131368188249}</t>
         </is>
       </c>
-      <c r="AM58" t="inlineStr">
-        <is>
-          <t>{"A": 12.425645089907464, "mu_m": 0.031891437320511765, "lambda": 104.55131368188249}</t>
-        </is>
-      </c>
-      <c r="AN58" t="inlineStr">
-        <is>
-          <t>{"A": 12.422398068568015, "mu_m": 0.02340344134871263, "lambda": 14.413816389710693}</t>
-        </is>
+      <c r="AL58" t="n">
+        <v>247.885692936398</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>244.106268249614</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>49.4254491727934</v>
       </c>
       <c r="AO58" t="n">
-        <v>247.8856929363977</v>
+        <v>322377.385691777</v>
       </c>
       <c r="AP58" t="n">
-        <v>244.1062682496141</v>
+        <v>833.7176594671849</v>
       </c>
       <c r="AQ58" t="n">
-        <v>279.8106416572764</v>
+        <v>452.802580542082</v>
       </c>
       <c r="AR58" t="n">
-        <v>275.6454260810372</v>
+        <v>1366</v>
       </c>
       <c r="AS58" t="n">
-        <v>49.42544917279338</v>
+        <v>595.0521912440961</v>
       </c>
     </row>
     <row r="59">
@@ -14427,43 +14085,37 @@
       </c>
       <c r="AJ59" t="inlineStr">
         <is>
-          <t>{"A": 12.898936405095627, "mu_m": 0.032536725902927825, "lambda": 68.80622395855922}</t>
+          <t>{"A": 398996.443916732, "mu_m": 998.1278811660445, "lambda": 429.46211445943595}</t>
         </is>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
-          <t>{"A": 12.89049407207306, "mu_m": 0.02501270066929342, "lambda": 9.178085884158688e-22}</t>
-        </is>
-      </c>
-      <c r="AL59" t="inlineStr">
-        <is>
           <t>{"A": 12.636820752857952, "mu_m": 0.03192308741421505, "lambda": 72.69575856518877}</t>
         </is>
       </c>
-      <c r="AM59" t="inlineStr">
-        <is>
-          <t>{"A": 12.636820752857952, "mu_m": 0.03192308741421505, "lambda": 72.69575856518877}</t>
-        </is>
-      </c>
-      <c r="AN59" t="inlineStr">
-        <is>
-          <t>{"A": 12.629286138249352, "mu_m": 0.02434609981155284, "lambda": 6.645569041251024e-20}</t>
-        </is>
+      <c r="AL59" t="n">
+        <v>218.321602845996</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>214.64921782862</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>49.689363849687</v>
       </c>
       <c r="AO59" t="n">
-        <v>218.3216028459958</v>
+        <v>398996.443916732</v>
       </c>
       <c r="AP59" t="n">
-        <v>214.6492178286201</v>
+        <v>998.127881166045</v>
       </c>
       <c r="AQ59" t="n">
-        <v>259.3698012413561</v>
+        <v>429.462114459436</v>
       </c>
       <c r="AR59" t="n">
-        <v>257.6789736243464</v>
+        <v>1401</v>
       </c>
       <c r="AS59" t="n">
-        <v>49.68936384968703</v>
+        <v>576.5200131387154</v>
       </c>
     </row>
     <row r="60">
@@ -14666,43 +14318,37 @@
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>{"A": 12.419126888220893, "mu_m": 0.032201597243241564, "lambda": 110.50800027842487}</t>
+          <t>{"A": 247199.4210796625, "mu_m": 610.4311753021004, "lambda": 446.78578846009947}</t>
         </is>
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>{"A": 12.415691398152727, "mu_m": 0.02367210916764629, "lambda": 22.134569685230893}</t>
-        </is>
-      </c>
-      <c r="AL60" t="inlineStr">
-        <is>
           <t>{"A": 12.15697775023861, "mu_m": 0.03158472843631926, "lambda": 114.63292151841772}</t>
         </is>
       </c>
-      <c r="AM60" t="inlineStr">
-        <is>
-          <t>{"A": 12.15697775023861, "mu_m": 0.03158472843631926, "lambda": 114.63292151841772}</t>
-        </is>
-      </c>
-      <c r="AN60" t="inlineStr">
-        <is>
-          <t>{"A": 12.15346866631665, "mu_m": 0.023260578988802967, "lambda": 27.36608825804764}</t>
-        </is>
+      <c r="AL60" t="n">
+        <v>256.229902163936</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>252.387343249054</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>59.7647439766206</v>
       </c>
       <c r="AO60" t="n">
-        <v>256.2299021639357</v>
+        <v>247199.421079662</v>
       </c>
       <c r="AP60" t="n">
-        <v>252.387343249054</v>
+        <v>610.431175302101</v>
       </c>
       <c r="AQ60" t="n">
-        <v>288.6121361781577</v>
+        <v>446.7857884601</v>
       </c>
       <c r="AR60" t="n">
-        <v>284.3776024083521</v>
+        <v>1357</v>
       </c>
       <c r="AS60" t="n">
-        <v>59.76474397662063</v>
+        <v>595.7617722631624</v>
       </c>
     </row>
     <row r="61">
@@ -14905,43 +14551,37 @@
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
-          <t>{"A": 13.122007075231364, "mu_m": 0.03523549351796213, "lambda": 134.5801672610265}</t>
+          <t>{"A": 496803.57598075777, "mu_m": 1383.43680613045, "lambda": 478.127527346358}</t>
         </is>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>{"A": 13.118180087216528, "mu_m": 0.026056624474755794, "lambda": 52.33263708585343}</t>
-        </is>
-      </c>
-      <c r="AL61" t="inlineStr">
-        <is>
           <t>{"A": 12.859850652433929, "mu_m": 0.03460271514861768, "lambda": 138.4224945354441}</t>
         </is>
       </c>
-      <c r="AM61" t="inlineStr">
-        <is>
-          <t>{"A": 12.859850652433929, "mu_m": 0.03460271514861768, "lambda": 138.4224945354441}</t>
-        </is>
-      </c>
-      <c r="AN61" t="inlineStr">
-        <is>
-          <t>{"A": 12.855945955254214, "mu_m": 0.025635911666648185, "lambda": 57.242741172335435}</t>
-        </is>
+      <c r="AL61" t="n">
+        <v>275.14224763131</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>271.581700315274</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>65.8661951326356</v>
       </c>
       <c r="AO61" t="n">
-        <v>275.1422476313104</v>
+        <v>496803.575980758</v>
       </c>
       <c r="AP61" t="n">
-        <v>271.5817003152744</v>
+        <v>1383.43680613045</v>
       </c>
       <c r="AQ61" t="n">
-        <v>307.9836963297747</v>
+        <v>478.127527346358</v>
       </c>
       <c r="AR61" t="n">
-        <v>304.0571093006965</v>
+        <v>1394</v>
       </c>
       <c r="AS61" t="n">
-        <v>65.86619513263555</v>
+        <v>610.2360711510989</v>
       </c>
     </row>
     <row r="62">
@@ -15144,43 +14784,37 @@
       </c>
       <c r="AJ62" t="inlineStr">
         <is>
-          <t>{"A": 12.775346548478902, "mu_m": 0.032203644723535284, "lambda": 100.52774875346687}</t>
+          <t>{"A": 351742.39303092053, "mu_m": 899.6768775112774, "lambda": 460.4902144667163}</t>
         </is>
       </c>
       <c r="AK62" t="inlineStr">
         <is>
-          <t>{"A": 12.771922836934559, "mu_m": 0.023639050953461777, "lambda": 8.91491372995958}</t>
-        </is>
-      </c>
-      <c r="AL62" t="inlineStr">
-        <is>
           <t>{"A": 12.51320052340262, "mu_m": 0.031602710827072236, "lambda": 104.63593421863276}</t>
         </is>
       </c>
-      <c r="AM62" t="inlineStr">
-        <is>
-          <t>{"A": 12.51320052340262, "mu_m": 0.031602710827072236, "lambda": 104.63593421863276}</t>
-        </is>
-      </c>
-      <c r="AN62" t="inlineStr">
-        <is>
-          <t>{"A": 12.50970539551197, "mu_m": 0.02323783779436956, "lambda": 14.116041212707929}</t>
-        </is>
+      <c r="AL62" t="n">
+        <v>250.29904650684</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>246.467358675669</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>59.6684473707379</v>
       </c>
       <c r="AO62" t="n">
-        <v>250.2990465068397</v>
+        <v>351742.39303092</v>
       </c>
       <c r="AP62" t="n">
-        <v>246.4673586756693</v>
+        <v>899.676877511278</v>
       </c>
       <c r="AQ62" t="n">
-        <v>283.2827663230585</v>
+        <v>460.490214466716</v>
       </c>
       <c r="AR62" t="n">
-        <v>279.0594906437844</v>
+        <v>1395</v>
       </c>
       <c r="AS62" t="n">
-        <v>59.66844737073787</v>
+        <v>604.3182912118567</v>
       </c>
     </row>
     <row r="63">
@@ -15383,43 +15017,37 @@
       </c>
       <c r="AJ63" t="inlineStr">
         <is>
-          <t>{"A": 12.583548909735537, "mu_m": 0.031158665372665595, "lambda": 77.43514762880521}</t>
+          <t>{"A": 291208.87938431615, "mu_m": 704.2191415135566, "lambda": 437.8679697784281}</t>
         </is>
       </c>
       <c r="AK63" t="inlineStr">
         <is>
-          <t>{"A": 12.576334536933464, "mu_m": 0.023617625623774112, "lambda": 7.331285225445233e-19}</t>
-        </is>
-      </c>
-      <c r="AL63" t="inlineStr">
-        <is>
           <t>{"A": 12.321418188987156, "mu_m": 0.03056142734307235, "lambda": 81.57661836276198}</t>
         </is>
       </c>
-      <c r="AM63" t="inlineStr">
-        <is>
-          <t>{"A": 12.321418188987156, "mu_m": 0.03056142734307235, "lambda": 81.57661836276198}</t>
-        </is>
-      </c>
-      <c r="AN63" t="inlineStr">
-        <is>
-          <t>{"A": 12.31525591374363, "mu_m": 0.022967333060767713, "lambda": 4.4832542965520543e-26}</t>
-        </is>
+      <c r="AL63" t="n">
+        <v>229.89418177106</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>226.004699164478</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>53.536325777287</v>
       </c>
       <c r="AO63" t="n">
-        <v>229.8941817710605</v>
+        <v>291208.879384316</v>
       </c>
       <c r="AP63" t="n">
-        <v>226.0046991644779</v>
+        <v>704.219141513557</v>
       </c>
       <c r="AQ63" t="n">
-        <v>268.1037428498888</v>
+        <v>437.867969778428</v>
       </c>
       <c r="AR63" t="n">
-        <v>266.2489180172668</v>
+        <v>1389</v>
       </c>
       <c r="AS63" t="n">
-        <v>53.53632577728696</v>
+        <v>589.9935703149504</v>
       </c>
     </row>
     <row r="64">
@@ -15622,43 +15250,37 @@
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>{"A": 12.640617246198191, "mu_m": 0.02913932030696659, "lambda": 82.32141599769197}</t>
+          <t>{"A": 307379.3443732486, "mu_m": 727.9268247584172, "lambda": 479.02474553491083}</t>
         </is>
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t>{"A": 12.632292259234323, "mu_m": 0.0221305098942806, "lambda": 4.162166047213697e-21}</t>
-        </is>
-      </c>
-      <c r="AL64" t="inlineStr">
-        <is>
           <t>{"A": 12.378454683193793, "mu_m": 0.028591609793027776, "lambda": 86.89461555131888}</t>
         </is>
       </c>
-      <c r="AM64" t="inlineStr">
-        <is>
-          <t>{"A": 12.378454683193793, "mu_m": 0.028591609793027776, "lambda": 86.89461555131888}</t>
-        </is>
-      </c>
-      <c r="AN64" t="inlineStr">
-        <is>
-          <t>{"A": 12.371580694582896, "mu_m": 0.021512345416155827, "lambda": 1.8175355256292112e-27}</t>
-        </is>
+      <c r="AL64" t="n">
+        <v>246.164381205781</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>241.907266306003</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>50.6934910460885</v>
       </c>
       <c r="AO64" t="n">
-        <v>246.1643812057809</v>
+        <v>307379.344373249</v>
       </c>
       <c r="AP64" t="n">
-        <v>241.9072663060026</v>
+        <v>727.926824758417</v>
       </c>
       <c r="AQ64" t="n">
-        <v>287.5460684377959</v>
+        <v>479.024745534911</v>
       </c>
       <c r="AR64" t="n">
-        <v>285.4044556492349</v>
+        <v>1456</v>
       </c>
       <c r="AS64" t="n">
-        <v>50.69349104608848</v>
+        <v>634.368026740688</v>
       </c>
     </row>
     <row r="65">
@@ -15861,43 +15483,37 @@
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>{"A": 12.442192721855962, "mu_m": 0.02791744516949693, "lambda": 47.822479121216375}</t>
+          <t>{"A": 253005.93916542636, "mu_m": 554.5397013469948, "lambda": 446.45524078539506}</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>{"A": 12.425106855950743, "mu_m": 0.02275816212505079, "lambda": 5.313979669782189e-20}</t>
-        </is>
-      </c>
-      <c r="AL65" t="inlineStr">
-        <is>
           <t>{"A": 12.180051641497592, "mu_m": 0.027376418769093004, "lambda": 52.44886504160343}</t>
         </is>
       </c>
-      <c r="AM65" t="inlineStr">
-        <is>
-          <t>{"A": 12.180051641497592, "mu_m": 0.027376418769093004, "lambda": 52.44886504160343}</t>
-        </is>
-      </c>
-      <c r="AN65" t="inlineStr">
-        <is>
-          <t>{"A": 12.164240834482088, "mu_m": 0.022117386120463062, "lambda": 2.4487381910450135e-19}</t>
-        </is>
+      <c r="AL65" t="n">
+        <v>216.122230396903</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>211.778273703197</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>46.2790734717792</v>
       </c>
       <c r="AO65" t="n">
-        <v>216.1222303969031</v>
+        <v>253005.939165426</v>
       </c>
       <c r="AP65" t="n">
-        <v>211.7782737031974</v>
+        <v>554.539701346995</v>
       </c>
       <c r="AQ65" t="n">
-        <v>274.9927312438539</v>
+        <v>446.455240785395</v>
       </c>
       <c r="AR65" t="n">
-        <v>272.9813327560828</v>
+        <v>1456</v>
       </c>
       <c r="AS65" t="n">
-        <v>46.27907347177915</v>
+        <v>614.2983785934707</v>
       </c>
     </row>
     <row r="66">
@@ -16100,43 +15716,37 @@
       </c>
       <c r="AJ66" t="inlineStr">
         <is>
-          <t>{"A": 12.617254138402732, "mu_m": 0.02725001991868603, "lambda": 44.886525239847174}</t>
+          <t>{"A": 299828.67149621353, "mu_m": 679.8961843464159, "lambda": 471.96529577095515}</t>
         </is>
       </c>
       <c r="AK66" t="inlineStr">
         <is>
-          <t>{"A": 12.597375065816822, "mu_m": 0.02245041977226633, "lambda": 2.0636634270870943e-17}</t>
-        </is>
-      </c>
-      <c r="AL66" t="inlineStr">
-        <is>
           <t>{"A": 12.35509962399869, "mu_m": 0.026732638050131034, "lambda": 49.69373485454161}</t>
         </is>
       </c>
-      <c r="AM66" t="inlineStr">
-        <is>
-          <t>{"A": 12.35509962399869, "mu_m": 0.026732638050131034, "lambda": 49.69373485454161}</t>
-        </is>
-      </c>
-      <c r="AN66" t="inlineStr">
-        <is>
-          <t>{"A": 12.336678900504657, "mu_m": 0.021821912261543487, "lambda": 1.1543654849268244e-16}</t>
-        </is>
+      <c r="AL66" t="n">
+        <v>219.717626128222</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>215.221387944692</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>33.7951886998932</v>
       </c>
       <c r="AO66" t="n">
-        <v>219.7176261282222</v>
+        <v>299828.671496213</v>
       </c>
       <c r="AP66" t="n">
-        <v>215.2213879446918</v>
+        <v>679.896184346416</v>
       </c>
       <c r="AQ66" t="n">
-        <v>282.6672280743574</v>
+        <v>471.965295770955</v>
       </c>
       <c r="AR66" t="n">
-        <v>280.5599002959119</v>
+        <v>1481</v>
       </c>
       <c r="AS66" t="n">
-        <v>33.79518869989323</v>
+        <v>634.1971285958957</v>
       </c>
     </row>
     <row r="67">
@@ -16339,43 +15949,37 @@
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>{"A": 12.785812171759051, "mu_m": 0.029414847677219445, "lambda": 77.68811066602957}</t>
+          <t>{"A": 354744.86656629486, "mu_m": 847.1472123845634, "lambda": 475.6628746654428}</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>{"A": 12.776263411508317, "mu_m": 0.02254815016169469, "lambda": 3.2746012499442983e-22}</t>
-        </is>
-      </c>
-      <c r="AL67" t="inlineStr">
-        <is>
           <t>{"A": 12.523647656982435, "mu_m": 0.028868748275674913, "lambda": 82.22426823324777}</t>
         </is>
       </c>
-      <c r="AM67" t="inlineStr">
-        <is>
-          <t>{"A": 12.523647656982435, "mu_m": 0.028868748275674913, "lambda": 82.22426823324777}</t>
-        </is>
-      </c>
-      <c r="AN67" t="inlineStr">
-        <is>
-          <t>{"A": 12.515511517561087, "mu_m": 0.02192657960685872, "lambda": 1.565704443261148e-19}</t>
-        </is>
+      <c r="AL67" t="n">
+        <v>241.815271538396</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>237.595021906386</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>52.5133036258177</v>
       </c>
       <c r="AO67" t="n">
-        <v>241.8152715383965</v>
+        <v>354744.866566295</v>
       </c>
       <c r="AP67" t="n">
-        <v>237.5950219063864</v>
+        <v>847.147212384563</v>
       </c>
       <c r="AQ67" t="n">
-        <v>285.3958926098575</v>
+        <v>475.662874665443</v>
       </c>
       <c r="AR67" t="n">
-        <v>283.3106778136711</v>
+        <v>1468</v>
       </c>
       <c r="AS67" t="n">
-        <v>52.51330362581772</v>
+        <v>629.7132467412757</v>
       </c>
     </row>
     <row r="68">
@@ -16578,43 +16182,37 @@
       </c>
       <c r="AJ68" t="inlineStr">
         <is>
-          <t>{"A": 12.636494761967676, "mu_m": 0.02870364546919839, "lambda": 74.82794767928556}</t>
+          <t>{"A": 305336.2200622306, "mu_m": 732.9214161270119, "lambda": 479.7845204477567}</t>
         </is>
       </c>
       <c r="AK68" t="inlineStr">
         <is>
-          <t>{"A": 12.625870527339728, "mu_m": 0.02217060752337472, "lambda": 6.412467162353417e-14}</t>
-        </is>
-      </c>
-      <c r="AL68" t="inlineStr">
-        <is>
           <t>{"A": 12.374329827594272, "mu_m": 0.028164325218112633, "lambda": 79.4759859148978}</t>
         </is>
       </c>
-      <c r="AM68" t="inlineStr">
-        <is>
-          <t>{"A": 12.374329827594272, "mu_m": 0.028164325218112633, "lambda": 79.4759859148978}</t>
-        </is>
-      </c>
-      <c r="AN68" t="inlineStr">
-        <is>
-          <t>{"A": 12.365161693834064, "mu_m": 0.021551045096679284, "lambda": 3.679299364635867e-21}</t>
-        </is>
+      <c r="AL68" t="n">
+        <v>241.108175097222</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>236.783216963356</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>48.8001484922727</v>
       </c>
       <c r="AO68" t="n">
-        <v>241.1081750972222</v>
+        <v>305336.220062231</v>
       </c>
       <c r="AP68" t="n">
-        <v>236.7832169633565</v>
+        <v>732.921416127012</v>
       </c>
       <c r="AQ68" t="n">
-        <v>286.8807901974871</v>
+        <v>479.784520447757</v>
       </c>
       <c r="AR68" t="n">
-        <v>284.7434494979024</v>
+        <v>1444</v>
       </c>
       <c r="AS68" t="n">
-        <v>48.80014849227268</v>
+        <v>633.0436769334073</v>
       </c>
     </row>
     <row r="69">
@@ -16817,43 +16415,37 @@
       </c>
       <c r="AJ69" t="inlineStr">
         <is>
-          <t>{"A": 13.000687110114221, "mu_m": 0.02275785995277222, "lambda": 2.54617605217874}</t>
+          <t>{"A": 443791.55306976, "mu_m": 720.2774297452379, "lambda": 510.19887042909363}</t>
         </is>
       </c>
       <c r="AK69" t="inlineStr">
         <is>
-          <t>{"A": 12.950269910792759, "mu_m": 0.020740146960192666, "lambda": 1.0679474213251688e-16}</t>
-        </is>
-      </c>
-      <c r="AL69" t="inlineStr">
-        <is>
           <t>{"A": 12.738416443096591, "mu_m": 0.022349006757299263, "lambda": 8.580671749578084}</t>
         </is>
       </c>
-      <c r="AM69" t="inlineStr">
-        <is>
-          <t>{"A": 12.738416443096591, "mu_m": 0.022349006757299263, "lambda": 8.580671749578084}</t>
-        </is>
-      </c>
-      <c r="AN69" t="inlineStr">
-        <is>
-          <t>{"A": 12.690605735257215, "mu_m": 0.02015404958514622, "lambda": 1.5011586573068253e-16}</t>
-        </is>
+      <c r="AL69" t="n">
+        <v>218.26343632993</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>212.701503435279</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>53.8194428511483</v>
       </c>
       <c r="AO69" t="n">
-        <v>218.2634363299305</v>
+        <v>443791.55306976</v>
       </c>
       <c r="AP69" t="n">
-        <v>212.701503435279</v>
+        <v>720.277429745238</v>
       </c>
       <c r="AQ69" t="n">
-        <v>314.8400940873527</v>
+        <v>510.198870429094</v>
       </c>
       <c r="AR69" t="n">
-        <v>312.2029447440438</v>
+        <v>1932</v>
       </c>
       <c r="AS69" t="n">
-        <v>53.81944285114832</v>
+        <v>736.8640161044978</v>
       </c>
     </row>
     <row r="70">
@@ -17056,43 +16648,37 @@
       </c>
       <c r="AJ70" t="inlineStr">
         <is>
-          <t>{"A": 12.675128515180422, "mu_m": 0.023205844974734643, "lambda": 1.0751155934566094e-19}</t>
+          <t>{"A": 324950.4796279615, "mu_m": 500.48166293580005, "lambda": 467.5404686700554}</t>
         </is>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>{"A": 12.630153302061254, "mu_m": 0.0211650807410844, "lambda": 9.562915334181975e-16}</t>
-        </is>
-      </c>
-      <c r="AL70" t="inlineStr">
-        <is>
           <t>{"A": 12.415118275360848, "mu_m": 0.022523776401742152, "lambda": 1.854555476956139e-19}</t>
         </is>
       </c>
-      <c r="AM70" t="inlineStr">
-        <is>
-          <t>{"A": 12.415118275360848, "mu_m": 0.022523776401742152, "lambda": 1.854555476956139e-19}</t>
-        </is>
-      </c>
-      <c r="AN70" t="inlineStr">
-        <is>
-          <t>{"A": 12.3701093796853, "mu_m": 0.02055945553300273, "lambda": 1.1186679158607893e-15}</t>
-        </is>
+      <c r="AL70" t="n">
+        <v>202.775355773104</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>200.937272485339</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>44.911661508472</v>
       </c>
       <c r="AO70" t="n">
-        <v>202.775355773104</v>
+        <v>324950.479627961</v>
       </c>
       <c r="AP70" t="n">
-        <v>200.9372724853389</v>
+        <v>500.4816629358</v>
       </c>
       <c r="AQ70" t="n">
-        <v>300.8374749960763</v>
+        <v>467.540468670055</v>
       </c>
       <c r="AR70" t="n">
-        <v>298.3724337404569</v>
+        <v>1879</v>
       </c>
       <c r="AS70" t="n">
-        <v>44.911661508472</v>
+        <v>706.3955750743449</v>
       </c>
     </row>
     <row r="71">
@@ -17295,43 +16881,37 @@
       </c>
       <c r="AJ71" t="inlineStr">
         <is>
-          <t>{"A": 12.83175710280873, "mu_m": 0.023215959802349088, "lambda": 21.008820193971804}</t>
+          <t>{"A": 374670.4007864702, "mu_m": 628.5821905710342, "lambda": 509.0573946368144}</t>
         </is>
       </c>
       <c r="AK71" t="inlineStr">
         <is>
-          <t>{"A": 12.790317977641456, "mu_m": 0.02042309855660694, "lambda": 2.362786755455857e-15}</t>
-        </is>
-      </c>
-      <c r="AL71" t="inlineStr">
-        <is>
           <t>{"A": 12.569485684557478, "mu_m": 0.022794814596192148, "lambda": 26.962447203030827}</t>
         </is>
       </c>
-      <c r="AM71" t="inlineStr">
-        <is>
-          <t>{"A": 12.569485684557478, "mu_m": 0.022794814596192148, "lambda": 26.962447203030827}</t>
-        </is>
-      </c>
-      <c r="AN71" t="inlineStr">
-        <is>
-          <t>{"A": 12.530593588716608, "mu_m": 0.019839665398534233, "lambda": 7.479345181023863e-14}</t>
-        </is>
+      <c r="AL71" t="n">
+        <v>229.818028674612</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>224.340479639355</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>50.032762896437</v>
       </c>
       <c r="AO71" t="n">
-        <v>229.8180286746122</v>
+        <v>374670.40078647</v>
       </c>
       <c r="AP71" t="n">
-        <v>224.3404796393555</v>
+        <v>628.5821905710339</v>
       </c>
       <c r="AQ71" t="n">
-        <v>315.7964949762302</v>
+        <v>509.057394636814</v>
       </c>
       <c r="AR71" t="n">
-        <v>313.1336300951195</v>
+        <v>1855</v>
       </c>
       <c r="AS71" t="n">
-        <v>50.03276289643701</v>
+        <v>728.3342684209605</v>
       </c>
     </row>
     <row r="72">
@@ -17534,43 +17114,37 @@
       </c>
       <c r="AJ72" t="inlineStr">
         <is>
-          <t>{"A": 12.865068274285465, "mu_m": 0.023512352343014825, "lambda": 17.753267973977657}</t>
+          <t>{"A": 390448.72238562827, "mu_m": 618.4529018286524, "lambda": 490.0150489918383}</t>
         </is>
       </c>
       <c r="AK72" t="inlineStr">
         <is>
-          <t>{"A": 12.823484419643744, "mu_m": 0.0207859924190386, "lambda": 6.651560441522948e-15}</t>
-        </is>
-      </c>
-      <c r="AL72" t="inlineStr">
-        <is>
           <t>{"A": 12.602805498412115, "mu_m": 0.023085361246638875, "lambda": 23.589204837959848}</t>
         </is>
       </c>
-      <c r="AM72" t="inlineStr">
-        <is>
-          <t>{"A": 12.602805498412115, "mu_m": 0.023085361246638875, "lambda": 23.589204837959848}</t>
-        </is>
-      </c>
-      <c r="AN72" t="inlineStr">
-        <is>
-          <t>{"A": 12.563629068178873, "mu_m": 0.020196185686059413, "lambda": 2.068895732049376e-13}</t>
-        </is>
+      <c r="AL72" t="n">
+        <v>224.422667845746</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>219.042958530296</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>52.617962708919</v>
       </c>
       <c r="AO72" t="n">
-        <v>224.422667845746</v>
+        <v>390448.722385628</v>
       </c>
       <c r="AP72" t="n">
-        <v>219.0429585302963</v>
+        <v>618.452901828653</v>
       </c>
       <c r="AQ72" t="n">
-        <v>311.0396503447439</v>
+        <v>490.015048991838</v>
       </c>
       <c r="AR72" t="n">
-        <v>308.4645698200649</v>
+        <v>1912</v>
       </c>
       <c r="AS72" t="n">
-        <v>52.61796270891896</v>
+        <v>722.2688833139291</v>
       </c>
     </row>
     <row r="73">
@@ -17772,43 +17346,37 @@
       </c>
       <c r="AJ73" t="inlineStr">
         <is>
-          <t>{"A": 12.263285749213876, "mu_m": 0.0340061141540598, "lambda": 66.94960410336635}</t>
+          <t>{"A": 210507.4599433974, "mu_m": 622.9434200183545, "lambda": 396.50511752422267}</t>
         </is>
       </c>
       <c r="AK73" t="inlineStr">
         <is>
-          <t>{"A": 12.256631063886232, "mu_m": 0.02590723546587837, "lambda": 4.211284383538856e-16}</t>
-        </is>
-      </c>
-      <c r="AL73" t="inlineStr">
-        <is>
           <t>{"A": 11.662841314615687, "mu_m": 0.032515179387663753, "lambda": 76.29163973984018}</t>
         </is>
       </c>
-      <c r="AM73" t="inlineStr">
-        <is>
-          <t>{"A": 11.662841314615687, "mu_m": 0.032515179387663753, "lambda": 76.29163973984018}</t>
-        </is>
-      </c>
-      <c r="AN73" t="inlineStr">
-        <is>
-          <t>{"A": 11.659143820654323, "mu_m": 0.024202937135436798, "lambda": 0.21752008378503176}</t>
-        </is>
+      <c r="AL73" t="n">
+        <v>208.245995400564</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>199.614297514328</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>36.9235218426823</v>
       </c>
       <c r="AO73" t="n">
-        <v>208.2459954005643</v>
+        <v>210507.459943397</v>
       </c>
       <c r="AP73" t="n">
-        <v>199.6142975143282</v>
+        <v>622.943420018355</v>
       </c>
       <c r="AQ73" t="n">
-        <v>241.079688080403</v>
+        <v>396.505117524223</v>
       </c>
       <c r="AR73" t="n">
-        <v>236.5484167546373</v>
+        <v>1159</v>
       </c>
       <c r="AS73" t="n">
-        <v>36.92352184268229</v>
+        <v>520.8203670923376</v>
       </c>
     </row>
     <row r="74">
@@ -18010,43 +17578,37 @@
       </c>
       <c r="AJ74" t="inlineStr">
         <is>
-          <t>{"A": 12.248034074192471, "mu_m": 0.032893056700462456, "lambda": 62.308173956891174}</t>
+          <t>{"A": 206836.20763975414, "mu_m": 608.4436255980156, "lambda": 403.5805571319151}</t>
         </is>
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>{"A": 12.239342913881785, "mu_m": 0.02546582284704423, "lambda": 1.421435388771645e-13}</t>
-        </is>
-      </c>
-      <c r="AL74" t="inlineStr">
-        <is>
           <t>{"A": 11.64756292117553, "mu_m": 0.0314563386418901, "lambda": 72.05581388735702}</t>
         </is>
       </c>
-      <c r="AM74" t="inlineStr">
-        <is>
-          <t>{"A": 11.64756292117553, "mu_m": 0.0314563386418901, "lambda": 72.05581388735702}</t>
-        </is>
-      </c>
-      <c r="AN74" t="inlineStr">
-        <is>
-          <t>{"A": 11.642137370956736, "mu_m": 0.023767597744641645, "lambda": 2.2916706354101553e-14}</t>
-        </is>
+      <c r="AL74" t="n">
+        <v>208.273159053686</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>199.291488450718</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>35.5675312827396</v>
       </c>
       <c r="AO74" t="n">
-        <v>208.2731590536857</v>
+        <v>206836.207639754</v>
       </c>
       <c r="AP74" t="n">
-        <v>199.2914884507175</v>
+        <v>608.443625598016</v>
       </c>
       <c r="AQ74" t="n">
-        <v>244.9161563579019</v>
+        <v>403.580557131915</v>
       </c>
       <c r="AR74" t="n">
-        <v>240.309197692043</v>
+        <v>1167</v>
       </c>
       <c r="AS74" t="n">
-        <v>35.5675312827396</v>
+        <v>528.6386319958704</v>
       </c>
     </row>
     <row r="75">
@@ -18248,43 +17810,37 @@
       </c>
       <c r="AJ75" t="inlineStr">
         <is>
-          <t>{"A": 12.507902004662565, "mu_m": 0.033177111265420056, "lambda": 91.70846154969357}</t>
+          <t>{"A": 268035.06869656907, "mu_m": 778.4334303862846, "lambda": 439.5436496906802}</t>
         </is>
       </c>
       <c r="AK75" t="inlineStr">
         <is>
-          <t>{"A": 12.502184170257067, "mu_m": 0.025095128208429945, "lambda": 19.357433863274125}</t>
-        </is>
-      </c>
-      <c r="AL75" t="inlineStr">
-        <is>
           <t>{"A": 11.907291792290724, "mu_m": 0.03180116865726605, "lambda": 101.89160262206116}</t>
         </is>
       </c>
-      <c r="AM75" t="inlineStr">
-        <is>
-          <t>{"A": 11.907291792290724, "mu_m": 0.03180116865726605, "lambda": 101.89160262206116}</t>
-        </is>
-      </c>
-      <c r="AN75" t="inlineStr">
-        <is>
-          <t>{"A": 11.901291697185362, "mu_m": 0.024196057412209666, "lambda": 32.66873202816637}</t>
-        </is>
+      <c r="AL75" t="n">
+        <v>239.636472869537</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>230.400464083934</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>42.586293481108</v>
       </c>
       <c r="AO75" t="n">
-        <v>239.6364728695372</v>
+        <v>268035.068696569</v>
       </c>
       <c r="AP75" t="n">
-        <v>230.4004640839344</v>
+        <v>778.433430386285</v>
       </c>
       <c r="AQ75" t="n">
-        <v>278.6032554596533</v>
+        <v>439.54364969068</v>
       </c>
       <c r="AR75" t="n">
-        <v>268.4532756222602</v>
+        <v>1244</v>
       </c>
       <c r="AS75" t="n">
-        <v>42.58629348110798</v>
+        <v>566.2142003600057</v>
       </c>
     </row>
     <row r="76">
@@ -18486,43 +18042,37 @@
       </c>
       <c r="AJ76" t="inlineStr">
         <is>
-          <t>{"A": 12.456897752977932, "mu_m": 0.03303495394065219, "lambda": 78.66175027840181}</t>
+          <t>{"A": 254873.90699735325, "mu_m": 719.1581454230676, "lambda": 420.97084221346745}</t>
         </is>
       </c>
       <c r="AK76" t="inlineStr">
         <is>
-          <t>{"A": 12.451632289364012, "mu_m": 0.024860228176646567, "lambda": 3.7962703060566385}</t>
-        </is>
-      </c>
-      <c r="AL76" t="inlineStr">
-        <is>
           <t>{"A": 11.856324083718064, "mu_m": 0.03164671383278632, "lambda": 88.73095852507134}</t>
         </is>
       </c>
-      <c r="AM76" t="inlineStr">
-        <is>
-          <t>{"A": 11.856324083718064, "mu_m": 0.03164671383278632, "lambda": 88.73095852507134}</t>
-        </is>
-      </c>
-      <c r="AN76" t="inlineStr">
-        <is>
-          <t>{"A": 11.850794995711873, "mu_m": 0.023949419931148883, "lambda": 16.9043567158893}</t>
-        </is>
+      <c r="AL76" t="n">
+        <v>226.555628135695</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>217.382591007531</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>50.6086890011778</v>
       </c>
       <c r="AO76" t="n">
-        <v>226.5556281356946</v>
+        <v>254873.906997353</v>
       </c>
       <c r="AP76" t="n">
-        <v>217.3825910075306</v>
+        <v>719.158145423068</v>
       </c>
       <c r="AQ76" t="n">
-        <v>264.3173427043014</v>
+        <v>420.970842213467</v>
       </c>
       <c r="AR76" t="n">
-        <v>254.2290539653181</v>
+        <v>1239</v>
       </c>
       <c r="AS76" t="n">
-        <v>50.60868900117777</v>
+        <v>551.3494954653319</v>
       </c>
     </row>
     <row r="77">
@@ -18724,43 +18274,37 @@
       </c>
       <c r="AJ77" t="inlineStr">
         <is>
-          <t>{"A": 12.716645021176083, "mu_m": 0.0346159269931043, "lambda": 77.6850623263022}</t>
+          <t>{"A": 331140.9469414118, "mu_m": 945.5984568043115, "lambda": 414.53143469013514}</t>
         </is>
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>{"A": 12.712000697709772, "mu_m": 0.025891438301015417, "lambda": 1.9907125821143217}</t>
-        </is>
-      </c>
-      <c r="AL77" t="inlineStr">
-        <is>
           <t>{"A": 12.116127183461087, "mu_m": 0.03317552289300211, "lambda": 87.11796178993974}</t>
         </is>
       </c>
-      <c r="AM77" t="inlineStr">
-        <is>
-          <t>{"A": 12.116127183461087, "mu_m": 0.03317552289300211, "lambda": 87.11796178993974}</t>
-        </is>
-      </c>
-      <c r="AN77" t="inlineStr">
-        <is>
-          <t>{"A": 12.111255287347099, "mu_m": 0.02494159436987121, "lambda": 14.201284133931635}</t>
-        </is>
+      <c r="AL77" t="n">
+        <v>221.472260041377</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>212.83072128548</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>48.3957324357167</v>
       </c>
       <c r="AO77" t="n">
-        <v>221.4722600413769</v>
+        <v>331140.946941412</v>
       </c>
       <c r="AP77" t="n">
-        <v>212.8307212854797</v>
+        <v>945.598456804311</v>
       </c>
       <c r="AQ77" t="n">
-        <v>256.9936074261662</v>
+        <v>414.531434690135</v>
       </c>
       <c r="AR77" t="n">
-        <v>247.4772813451025</v>
+        <v>1258</v>
       </c>
       <c r="AS77" t="n">
-        <v>48.39573243571673</v>
+        <v>543.3598455586175</v>
       </c>
     </row>
     <row r="78">
@@ -18962,43 +18506,37 @@
       </c>
       <c r="AJ78" t="inlineStr">
         <is>
-          <t>{"A": 12.82941728628702, "mu_m": 0.03477692062270689, "lambda": 80.66551364247584}</t>
+          <t>{"A": 370034.5951293666, "mu_m": 1091.9860024946295, "lambda": 424.96236996822194}</t>
         </is>
       </c>
       <c r="AK78" t="inlineStr">
         <is>
-          <t>{"A": 12.824617691711264, "mu_m": 0.02605720417163058, "lambda": 5.519080027536233}</t>
-        </is>
-      </c>
-      <c r="AL78" t="inlineStr">
-        <is>
           <t>{"A": 12.22888952491487, "mu_m": 0.03334704370880752, "lambda": 90.10722517071032}</t>
         </is>
       </c>
-      <c r="AM78" t="inlineStr">
-        <is>
-          <t>{"A": 12.22888952491487, "mu_m": 0.03334704370880752, "lambda": 90.10722517071032}</t>
-        </is>
-      </c>
-      <c r="AN78" t="inlineStr">
-        <is>
-          <t>{"A": 12.223857273127441, "mu_m": 0.025115476051966516, "lambda": 17.760937749258513}</t>
-        </is>
+      <c r="AL78" t="n">
+        <v>225.01444764767</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>216.378474345296</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>58.7334067138963</v>
       </c>
       <c r="AO78" t="n">
-        <v>225.0144476476698</v>
+        <v>370034.595129367</v>
       </c>
       <c r="AP78" t="n">
-        <v>216.3784743452959</v>
+        <v>1091.98600249463</v>
       </c>
       <c r="AQ78" t="n">
-        <v>261.1140250615399</v>
+        <v>424.962369968222</v>
       </c>
       <c r="AR78" t="n">
-        <v>251.6049150089018</v>
+        <v>1260</v>
       </c>
       <c r="AS78" t="n">
-        <v>58.73340671389625</v>
+        <v>549.623418515831</v>
       </c>
     </row>
     <row r="79">
@@ -19200,43 +18738,37 @@
       </c>
       <c r="AJ79" t="inlineStr">
         <is>
-          <t>{"A": 12.120893481441879, "mu_m": 0.031688183003855, "lambda": 57.634057054510166}</t>
+          <t>{"A": 182348.68887260088, "mu_m": 506.10094208140487, "lambda": 402.4801950089279}</t>
         </is>
       </c>
       <c r="AK79" t="inlineStr">
         <is>
-          <t>{"A": 12.11006658601742, "mu_m": 0.02491053187243276, "lambda": 1.331674028860752e-14}</t>
-        </is>
-      </c>
-      <c r="AL79" t="inlineStr">
-        <is>
           <t>{"A": 11.520396564229847, "mu_m": 0.03029347706903772, "lambda": 67.8027472361609}</t>
         </is>
       </c>
-      <c r="AM79" t="inlineStr">
-        <is>
-          <t>{"A": 11.520396564229847, "mu_m": 0.03029347706903772, "lambda": 67.8027472361609}</t>
-        </is>
-      </c>
-      <c r="AN79" t="inlineStr">
-        <is>
-          <t>{"A": 11.513067386268188, "mu_m": 0.023224884341715362, "lambda": 2.0535644679103502e-16}</t>
-        </is>
+      <c r="AL79" t="n">
+        <v>207.704714925897</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>198.349841228975</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>39.0948122297557</v>
       </c>
       <c r="AO79" t="n">
-        <v>207.7047149258971</v>
+        <v>182348.688872601</v>
       </c>
       <c r="AP79" t="n">
-        <v>198.3498412289754</v>
+        <v>506.100942081405</v>
       </c>
       <c r="AQ79" t="n">
-        <v>247.8605967821549</v>
+        <v>402.480195008928</v>
       </c>
       <c r="AR79" t="n">
-        <v>243.0712167856003</v>
+        <v>1187</v>
       </c>
       <c r="AS79" t="n">
-        <v>39.0948122297557</v>
+        <v>535.0275352389481</v>
       </c>
     </row>
     <row r="80">
@@ -19434,43 +18966,37 @@
       </c>
       <c r="AJ80" t="inlineStr">
         <is>
-          <t>{"A": 11.967992790146393, "mu_m": 0.031555916913383435, "lambda": 45.4127550091914}</t>
+          <t>{"A": 157199.36234560778, "mu_m": 405.32084103457026, "lambda": 374.73435005684377}</t>
         </is>
       </c>
       <c r="AK80" t="inlineStr">
         <is>
-          <t>{"A": 11.954435945873598, "mu_m": 0.025504276952872152, "lambda": 3.5054363396348776e-21}</t>
-        </is>
-      </c>
-      <c r="AL80" t="inlineStr">
-        <is>
           <t>{"A": 11.367532833815211, "mu_m": 0.030133848235419834, "lambda": 55.41419125334471}</t>
         </is>
       </c>
-      <c r="AM80" t="inlineStr">
-        <is>
-          <t>{"A": 11.367532833815211, "mu_m": 0.030133848235419834, "lambda": 55.41419125334471}</t>
-        </is>
-      </c>
-      <c r="AN80" t="inlineStr">
-        <is>
-          <t>{"A": 11.357094174585374, "mu_m": 0.023770168768764536, "lambda": 1.4077998603276792e-17}</t>
-        </is>
+      <c r="AL80" t="n">
+        <v>194.191077422384</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>184.935828024877</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>33.2385977127625</v>
       </c>
       <c r="AO80" t="n">
-        <v>194.1910774223839</v>
+        <v>157199.362345608</v>
       </c>
       <c r="AP80" t="n">
-        <v>184.935828024877</v>
+        <v>405.32084103457</v>
       </c>
       <c r="AQ80" t="n">
-        <v>238.8938481057251</v>
+        <v>374.734350056844</v>
       </c>
       <c r="AR80" t="n">
-        <v>234.3613968740124</v>
+        <v>1188</v>
       </c>
       <c r="AS80" t="n">
-        <v>33.23859771276252</v>
+        <v>517.4124650646952</v>
       </c>
     </row>
     <row r="81">
@@ -19668,43 +19194,37 @@
       </c>
       <c r="AJ81" t="inlineStr">
         <is>
-          <t>{"A": 12.006673096852552, "mu_m": 0.03142110813722134, "lambda": 46.87810780841464}</t>
+          <t>{"A": 163300.9614748196, "mu_m": 427.78952125379254, "lambda": 383.8850740639751}</t>
         </is>
       </c>
       <c r="AK81" t="inlineStr">
         <is>
-          <t>{"A": 11.993021258125337, "mu_m": 0.025337191138615645, "lambda": 2.543684766039046e-17}</t>
-        </is>
-      </c>
-      <c r="AL81" t="inlineStr">
-        <is>
           <t>{"A": 11.406218362194402, "mu_m": 0.030008324427145138, "lambda": 56.91011079860467}</t>
         </is>
       </c>
-      <c r="AM81" t="inlineStr">
-        <is>
-          <t>{"A": 11.406218362194402, "mu_m": 0.030008324427145138, "lambda": 56.91011079860467}</t>
-        </is>
-      </c>
-      <c r="AN81" t="inlineStr">
-        <is>
-          <t>{"A": 11.395811309175677, "mu_m": 0.023614985369487796, "lambda": 1.757841519736439e-17}</t>
-        </is>
+      <c r="AL81" t="n">
+        <v>196.741751420557</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>187.452659473126</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>25.8522372530023</v>
       </c>
       <c r="AO81" t="n">
-        <v>196.7417514205573</v>
+        <v>163300.96147482</v>
       </c>
       <c r="AP81" t="n">
-        <v>187.4526594731261</v>
+        <v>427.789521253793</v>
       </c>
       <c r="AQ81" t="n">
-        <v>241.2834717208815</v>
+        <v>383.885074063975</v>
       </c>
       <c r="AR81" t="n">
-        <v>236.6683266608653</v>
+        <v>1192</v>
       </c>
       <c r="AS81" t="n">
-        <v>25.85223725300231</v>
+        <v>524.3164391755938</v>
       </c>
     </row>
     <row r="82">
@@ -19906,43 +19426,37 @@
       </c>
       <c r="AJ82" t="inlineStr">
         <is>
-          <t>{"A": 12.191883176994667, "mu_m": 0.03260401047444879, "lambda": 59.53157220794669}</t>
+          <t>{"A": 196999.03354171658, "mu_m": 507.7424549164075, "lambda": 387.22693771431074}</t>
         </is>
       </c>
       <c r="AK82" t="inlineStr">
         <is>
-          <t>{"A": 12.181888769581494, "mu_m": 0.025439479371862386, "lambda": 5.595007469899872e-21}</t>
-        </is>
-      </c>
-      <c r="AL82" t="inlineStr">
-        <is>
           <t>{"A": 11.591412166536397, "mu_m": 0.031167059053637435, "lambda": 69.28131990218807}</t>
         </is>
       </c>
-      <c r="AM82" t="inlineStr">
-        <is>
-          <t>{"A": 11.591412166536397, "mu_m": 0.031167059053637435, "lambda": 69.28131990218807}</t>
-        </is>
-      </c>
-      <c r="AN82" t="inlineStr">
-        <is>
-          <t>{"A": 11.584718553547088, "mu_m": 0.02373450307929244, "lambda": 1.4499894526686374e-25}</t>
-        </is>
+      <c r="AL82" t="n">
+        <v>206.100203675426</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>197.095727804549</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>37.0004544103329</v>
       </c>
       <c r="AO82" t="n">
-        <v>206.1002036754261</v>
+        <v>196999.033541717</v>
       </c>
       <c r="AP82" t="n">
-        <v>197.0957278045485</v>
+        <v>507.742454916408</v>
       </c>
       <c r="AQ82" t="n">
-        <v>244.0480534781949</v>
+        <v>387.226937714311</v>
       </c>
       <c r="AR82" t="n">
-        <v>239.4288143934149</v>
+        <v>1233</v>
       </c>
       <c r="AS82" t="n">
-        <v>37.0004544103329</v>
+        <v>529.9605099592643</v>
       </c>
     </row>
     <row r="83">
@@ -20144,43 +19658,37 @@
       </c>
       <c r="AJ83" t="inlineStr">
         <is>
-          <t>{"A": 12.197533291653967, "mu_m": 0.02848099218636909, "lambda": 52.23364760522858}</t>
+          <t>{"A": 195452.98978076517, "mu_m": 515.1104367155001, "lambda": 441.3402038084807}</t>
         </is>
       </c>
       <c r="AK83" t="inlineStr">
         <is>
-          <t>{"A": 12.180714823521665, "mu_m": 0.02302718486122604, "lambda": 1.0029578182774777e-16}</t>
-        </is>
-      </c>
-      <c r="AL83" t="inlineStr">
-        <is>
           <t>{"A": 11.596871523910188, "mu_m": 0.027266460245251225, "lambda": 64.04325935407948}</t>
         </is>
       </c>
-      <c r="AM83" t="inlineStr">
-        <is>
-          <t>{"A": 11.596871523910188, "mu_m": 0.027266460245251225, "lambda": 64.04325935407948}</t>
-        </is>
-      </c>
-      <c r="AN83" t="inlineStr">
-        <is>
-          <t>{"A": 11.585043187849218, "mu_m": 0.021440348640492525, "lambda": 2.861687484351034e-16}</t>
-        </is>
+      <c r="AL83" t="n">
+        <v>220.508402873987</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>209.785101629056</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>61.8494619922617</v>
       </c>
       <c r="AO83" t="n">
-        <v>220.5084028739873</v>
+        <v>195452.989780765</v>
       </c>
       <c r="AP83" t="n">
-        <v>209.7851016290562</v>
+        <v>515.1104367155</v>
       </c>
       <c r="AQ83" t="n">
-        <v>270.1691885263832</v>
+        <v>441.340203808481</v>
       </c>
       <c r="AR83" t="n">
-        <v>264.4855395248936</v>
+        <v>1270</v>
       </c>
       <c r="AS83" t="n">
-        <v>61.84946199226168</v>
+        <v>580.9280116469547</v>
       </c>
     </row>
     <row r="84">
@@ -20378,43 +19886,37 @@
       </c>
       <c r="AJ84" t="inlineStr">
         <is>
-          <t>{"A": 12.050718884952525, "mu_m": 0.02893021987195132, "lambda": 63.65193704853223}</t>
+          <t>{"A": 168766.71796600372, "mu_m": 460.1030002479546, "lambda": 440.77536783874166}</t>
         </is>
       </c>
       <c r="AK84" t="inlineStr">
         <is>
-          <t>{"A": 12.039076116206578, "mu_m": 0.022700347662751547, "lambda": 8.131470265176098e-16}</t>
-        </is>
-      </c>
-      <c r="AL84" t="inlineStr">
-        <is>
           <t>{"A": 11.450052027280142, "mu_m": 0.027686762241432367, "lambda": 75.36205300936045}</t>
         </is>
       </c>
-      <c r="AM84" t="inlineStr">
-        <is>
-          <t>{"A": 11.450052027280142, "mu_m": 0.027686762241432367, "lambda": 75.36205300936045}</t>
-        </is>
-      </c>
-      <c r="AN84" t="inlineStr">
-        <is>
-          <t>{"A": 11.443262395504984, "mu_m": 0.021120505934829614, "lambda": 2.988327045296273e-10}</t>
-        </is>
+      <c r="AL84" t="n">
+        <v>227.501140434913</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>216.890030251156</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>66.6327310761726</v>
       </c>
       <c r="AO84" t="n">
-        <v>227.5011404349128</v>
+        <v>168766.717966004</v>
       </c>
       <c r="AP84" t="n">
-        <v>216.8900302511562</v>
+        <v>460.103000247955</v>
       </c>
       <c r="AQ84" t="n">
-        <v>270.9040785014207</v>
+        <v>440.775367838742</v>
       </c>
       <c r="AR84" t="n">
-        <v>265.1738267418963</v>
+        <v>1227</v>
       </c>
       <c r="AS84" t="n">
-        <v>66.63273107617265</v>
+        <v>575.7142964269347</v>
       </c>
     </row>
     <row r="85">
@@ -20616,43 +20118,37 @@
       </c>
       <c r="AJ85" t="inlineStr">
         <is>
-          <t>{"A": 12.172037424635825, "mu_m": 0.031152610447743256, "lambda": 86.0870059593249}</t>
+          <t>{"A": 192198.5598825723, "mu_m": 511.969152662369, "lambda": 436.95498595036275}</t>
         </is>
       </c>
       <c r="AK85" t="inlineStr">
         <is>
-          <t>{"A": 12.166190771437309, "mu_m": 0.023552927469119866, "lambda": 10.920437317484184}</t>
-        </is>
-      </c>
-      <c r="AL85" t="inlineStr">
-        <is>
           <t>{"A": 11.571408350297848, "mu_m": 0.02982294200559342, "lambda": 96.91559788333217}</t>
         </is>
       </c>
-      <c r="AM85" t="inlineStr">
-        <is>
-          <t>{"A": 11.571408350297848, "mu_m": 0.02982294200559342, "lambda": 96.91559788333217}</t>
-        </is>
-      </c>
-      <c r="AN85" t="inlineStr">
-        <is>
-          <t>{"A": 11.565272942288242, "mu_m": 0.02268300164304324, "lambda": 25.063936055644536}</t>
-        </is>
+      <c r="AL85" t="n">
+        <v>239.654139127041</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>229.825917765905</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>60.1454928539605</v>
       </c>
       <c r="AO85" t="n">
-        <v>239.654139127041</v>
+        <v>192198.559882572</v>
       </c>
       <c r="AP85" t="n">
-        <v>229.8259177659048</v>
+        <v>511.969152662369</v>
       </c>
       <c r="AQ85" t="n">
-        <v>279.9965310509646</v>
+        <v>436.954985950363</v>
       </c>
       <c r="AR85" t="n">
-        <v>269.1938682399958</v>
+        <v>1256</v>
       </c>
       <c r="AS85" t="n">
-        <v>60.14549285396046</v>
+        <v>575.060765245596</v>
       </c>
     </row>
     <row r="86">
@@ -20854,43 +20350,37 @@
       </c>
       <c r="AJ86" t="inlineStr">
         <is>
-          <t>{"A": 12.347695106858955, "mu_m": 0.029963611338118635, "lambda": 79.28120379573816}</t>
+          <t>{"A": 226927.9389647651, "mu_m": 645.8010269093527, "lambda": 461.96840787554453}</t>
         </is>
       </c>
       <c r="AK86" t="inlineStr">
         <is>
-          <t>{"A": 12.340947108839641, "mu_m": 0.022789961969375414, "lambda": 2.989560354077266}</t>
-        </is>
-      </c>
-      <c r="AL86" t="inlineStr">
-        <is>
           <t>{"A": 11.747000733454735, "mu_m": 0.028716906548258956, "lambda": 90.73593779376057}</t>
         </is>
       </c>
-      <c r="AM86" t="inlineStr">
-        <is>
-          <t>{"A": 11.747000733454735, "mu_m": 0.028716906548258956, "lambda": 90.73593779376057}</t>
-        </is>
-      </c>
-      <c r="AN86" t="inlineStr">
-        <is>
-          <t>{"A": 11.73992007972924, "mu_m": 0.02197973526917012, "lambda": 18.035466801258554}</t>
-        </is>
+      <c r="AL86" t="n">
+        <v>241.221508306085</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>230.880526200774</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>58.7757718748676</v>
       </c>
       <c r="AO86" t="n">
-        <v>241.2215083060849</v>
+        <v>226927.938964765</v>
       </c>
       <c r="AP86" t="n">
-        <v>230.8805262007737</v>
+        <v>645.801026909353</v>
       </c>
       <c r="AQ86" t="n">
-        <v>285.097829836091</v>
+        <v>461.968407875544</v>
       </c>
       <c r="AR86" t="n">
-        <v>273.7435687509122</v>
+        <v>1259</v>
       </c>
       <c r="AS86" t="n">
-        <v>58.77577187486757</v>
+        <v>591.23751692616</v>
       </c>
     </row>
     <row r="87">
@@ -21092,43 +20582,37 @@
       </c>
       <c r="AJ87" t="inlineStr">
         <is>
-          <t>{"A": 12.51436104247685, "mu_m": 0.028690637776525602, "lambda": 67.00323069479727}</t>
+          <t>{"A": 265956.78614841367, "mu_m": 763.9641683450346, "lambda": 475.8115311406874}</t>
         </is>
       </c>
       <c r="AK87" t="inlineStr">
         <is>
-          <t>{"A": 12.502225061596713, "mu_m": 0.022481977478947774, "lambda": 5.667549097118389e-13}</t>
-        </is>
-      </c>
-      <c r="AL87" t="inlineStr">
-        <is>
           <t>{"A": 11.913577583959745, "mu_m": 0.027525761742893534, "lambda": 79.15170398987534}</t>
         </is>
       </c>
-      <c r="AM87" t="inlineStr">
-        <is>
-          <t>{"A": 11.913577583959745, "mu_m": 0.027525761742893534, "lambda": 79.15170398987534}</t>
-        </is>
-      </c>
-      <c r="AN87" t="inlineStr">
-        <is>
-          <t>{"A": 11.905239162509954, "mu_m": 0.0211906109829601, "lambda": 4.982281120166892}</t>
-        </is>
+      <c r="AL87" t="n">
+        <v>238.375644997475</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>227.465893908608</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>50.0893271877645</v>
       </c>
       <c r="AO87" t="n">
-        <v>238.3756449974754</v>
+        <v>265956.786148414</v>
       </c>
       <c r="AP87" t="n">
-        <v>227.4658939086076</v>
+        <v>763.964168345035</v>
       </c>
       <c r="AQ87" t="n">
-        <v>285.8906318063093</v>
+        <v>475.811531140687</v>
       </c>
       <c r="AR87" t="n">
-        <v>278.0499418546229</v>
+        <v>1287</v>
       </c>
       <c r="AS87" t="n">
-        <v>50.0893271877645</v>
+        <v>603.8804091300577</v>
       </c>
     </row>
     <row r="88">
@@ -21330,43 +20814,37 @@
       </c>
       <c r="AJ88" t="inlineStr">
         <is>
-          <t>{"A": 12.676821316003643, "mu_m": 0.03215005081212846, "lambda": 96.22262890282363}</t>
+          <t>{"A": 316727.1937423543, "mu_m": 894.7575612644624, "lambda": 462.40566846047705}</t>
         </is>
       </c>
       <c r="AK88" t="inlineStr">
         <is>
-          <t>{"A": 12.669837863560566, "mu_m": 0.024515226284822545, "lambda": 24.434162847351303}</t>
-        </is>
-      </c>
-      <c r="AL88" t="inlineStr">
-        <is>
           <t>{"A": 12.07611513688861, "mu_m": 0.030854117074828543, "lambda": 106.97753372148915}</t>
         </is>
       </c>
-      <c r="AM88" t="inlineStr">
-        <is>
-          <t>{"A": 12.07611513688861, "mu_m": 0.030854117074828543, "lambda": 106.97753372148915}</t>
-        </is>
-      </c>
-      <c r="AN88" t="inlineStr">
-        <is>
-          <t>{"A": 12.068802009536704, "mu_m": 0.023674161899618348, "lambda": 38.565278890127665}</t>
-        </is>
+      <c r="AL88" t="n">
+        <v>250.963325870599</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>241.278136553914</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>58.4606305441348</v>
       </c>
       <c r="AO88" t="n">
-        <v>250.9633258705995</v>
+        <v>316727.193742354</v>
       </c>
       <c r="AP88" t="n">
-        <v>241.2781365539142</v>
+        <v>894.757561264462</v>
       </c>
       <c r="AQ88" t="n">
-        <v>293.4592443177119</v>
+        <v>462.405668460477</v>
       </c>
       <c r="AR88" t="n">
-        <v>282.8416871418447</v>
+        <v>1308</v>
       </c>
       <c r="AS88" t="n">
-        <v>58.46063054413482</v>
+        <v>592.6280080996918</v>
       </c>
     </row>
     <row r="89">
@@ -21568,43 +21046,37 @@
       </c>
       <c r="AJ89" t="inlineStr">
         <is>
-          <t>{"A": 12.4265157860227, "mu_m": 0.02863991764905787, "lambda": 66.28318719336842}</t>
+          <t>{"A": 244614.94186819828, "mu_m": 671.9477262821498, "lambda": 468.970335217473}</t>
         </is>
       </c>
       <c r="AK89" t="inlineStr">
         <is>
-          <t>{"A": 12.41412623144397, "mu_m": 0.022466249719943533, "lambda": 1.7978538281967048e-14}</t>
-        </is>
-      </c>
-      <c r="AL89" t="inlineStr">
-        <is>
           <t>{"A": 11.825751089036252, "mu_m": 0.027463698825790337, "lambda": 78.37490391698658}</t>
         </is>
       </c>
-      <c r="AM89" t="inlineStr">
-        <is>
-          <t>{"A": 11.825751089036252, "mu_m": 0.027463698825790337, "lambda": 78.37490391698658}</t>
-        </is>
-      </c>
-      <c r="AN89" t="inlineStr">
-        <is>
-          <t>{"A": 11.817708456464931, "mu_m": 0.021090766853299334, "lambda": 3.3571373072575765}</t>
-        </is>
+      <c r="AL89" t="n">
+        <v>236.782215680173</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>225.901651851228</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>58.5074099560546</v>
       </c>
       <c r="AO89" t="n">
-        <v>236.7822156801732</v>
+        <v>244614.941868198</v>
       </c>
       <c r="AP89" t="n">
-        <v>225.9016518512275</v>
+        <v>671.94772628215</v>
       </c>
       <c r="AQ89" t="n">
-        <v>283.5202185898196</v>
+        <v>468.970335217473</v>
       </c>
       <c r="AR89" t="n">
-        <v>276.2839011004097</v>
+        <v>1300</v>
       </c>
       <c r="AS89" t="n">
-        <v>58.50740995605464</v>
+        <v>602.8926696445283</v>
       </c>
     </row>
     <row r="90">
@@ -21806,43 +21278,37 @@
       </c>
       <c r="AJ90" t="inlineStr">
         <is>
-          <t>{"A": 12.405205834396085, "mu_m": 0.029522422788373238, "lambda": 58.03974119048943}</t>
+          <t>{"A": 240008.61345668696, "mu_m": 679.7771001061733, "lambda": 449.72045297132837}</t>
         </is>
       </c>
       <c r="AK90" t="inlineStr">
         <is>
-          <t>{"A": 12.391032110384872, "mu_m": 0.023492244214822867, "lambda": 1.042728175293532e-12}</t>
-        </is>
-      </c>
-      <c r="AL90" t="inlineStr">
-        <is>
           <t>{"A": 11.804562133021086, "mu_m": 0.028284688938083596, "lambda": 69.43440816043446}</t>
         </is>
       </c>
-      <c r="AM90" t="inlineStr">
-        <is>
-          <t>{"A": 11.804562133021086, "mu_m": 0.028284688938083596, "lambda": 69.43440816043446}</t>
-        </is>
-      </c>
-      <c r="AN90" t="inlineStr">
-        <is>
-          <t>{"A": 11.79521032165749, "mu_m": 0.021903928869353707, "lambda": 6.149061168095218e-17}</t>
-        </is>
+      <c r="AL90" t="n">
+        <v>222.968206261436</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>212.62123413529</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>45.1059070749323</v>
       </c>
       <c r="AO90" t="n">
-        <v>222.9682062614363</v>
+        <v>240008.613456687</v>
       </c>
       <c r="AP90" t="n">
-        <v>212.6212341352903</v>
+        <v>679.777100106173</v>
       </c>
       <c r="AQ90" t="n">
-        <v>269.248735969017</v>
+        <v>449.720452971328</v>
       </c>
       <c r="AR90" t="n">
-        <v>263.7260194700038</v>
+        <v>1257</v>
       </c>
       <c r="AS90" t="n">
-        <v>45.10590707493234</v>
+        <v>579.6074917977141</v>
       </c>
     </row>
     <row r="91">
@@ -22044,43 +21510,37 @@
       </c>
       <c r="AJ91" t="inlineStr">
         <is>
-          <t>{"A": 12.38314292370251, "mu_m": 0.03308680339313678, "lambda": 106.08083558789802}</t>
+          <t>{"A": 233546.66044717265, "mu_m": 908.3211917616312, "lambda": 475.08105773328646}</t>
         </is>
       </c>
       <c r="AK91" t="inlineStr">
         <is>
-          <t>{"A": 12.377396606427176, "mu_m": 0.025212613724383486, "lambda": 37.87691571493007}</t>
-        </is>
-      </c>
-      <c r="AL91" t="inlineStr">
-        <is>
           <t>{"A": 11.782517409902795, "mu_m": 0.0317196710333078, "lambda": 116.53705196969099}</t>
         </is>
       </c>
-      <c r="AM91" t="inlineStr">
-        <is>
-          <t>{"A": 11.782517409902795, "mu_m": 0.0317196710333078, "lambda": 116.53705196969099}</t>
-        </is>
-      </c>
-      <c r="AN91" t="inlineStr">
-        <is>
-          <t>{"A": 11.776489162304472, "mu_m": 0.024326341213847368, "lambda": 51.64315688319729}</t>
-        </is>
+      <c r="AL91" t="n">
+        <v>253.188718873684</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>243.764238985602</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>51.1233087406661</v>
       </c>
       <c r="AO91" t="n">
-        <v>253.1887188736845</v>
+        <v>233546.660447173</v>
       </c>
       <c r="AP91" t="n">
-        <v>243.7642389856022</v>
+        <v>908.321191761631</v>
       </c>
       <c r="AQ91" t="n">
-        <v>293.6953639697463</v>
+        <v>475.081057733287</v>
       </c>
       <c r="AR91" t="n">
-        <v>283.3373178321611</v>
+        <v>1091</v>
       </c>
       <c r="AS91" t="n">
-        <v>51.12330874066612</v>
+        <v>569.6698614648525</v>
       </c>
     </row>
     <row r="92">
@@ -22278,43 +21738,37 @@
       </c>
       <c r="AJ92" t="inlineStr">
         <is>
-          <t>{"A": 12.07728338519269, "mu_m": 0.03314181765466598, "lambda": 112.38406514506474}</t>
+          <t>{"A": 173023.32209172053, "mu_m": 663.3707519080784, "lambda": 473.5354887686528}</t>
         </is>
       </c>
       <c r="AK92" t="inlineStr">
         <is>
-          <t>{"A": 12.071910069487291, "mu_m": 0.02519927900245527, "lambda": 45.05038211839122}</t>
-        </is>
-      </c>
-      <c r="AL92" t="inlineStr">
-        <is>
           <t>{"A": 11.476667002452142, "mu_m": 0.03173422622592168, "lambda": 122.78867118151858}</t>
         </is>
       </c>
-      <c r="AM92" t="inlineStr">
-        <is>
-          <t>{"A": 11.476667002452142, "mu_m": 0.03173422622592168, "lambda": 122.78867118151858}</t>
-        </is>
-      </c>
-      <c r="AN92" t="inlineStr">
-        <is>
-          <t>{"A": 11.471031468299058, "mu_m": 0.02428258877822516, "lambda": 58.68614182235086}</t>
-        </is>
+      <c r="AL92" t="n">
+        <v>255.832086619331</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>246.443829425625</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>30.1909707378857</v>
       </c>
       <c r="AO92" t="n">
-        <v>255.8320866193312</v>
+        <v>173023.322091721</v>
       </c>
       <c r="AP92" t="n">
-        <v>246.443829425625</v>
+        <v>663.370751908078</v>
       </c>
       <c r="AQ92" t="n">
-        <v>294.8848349078557</v>
+        <v>473.535488768653</v>
       </c>
       <c r="AR92" t="n">
-        <v>284.5792604706464</v>
+        <v>1068</v>
       </c>
       <c r="AS92" t="n">
-        <v>30.19097073788573</v>
+        <v>569.4874475453174</v>
       </c>
     </row>
     <row r="93">
@@ -22516,43 +21970,37 @@
       </c>
       <c r="AJ93" t="inlineStr">
         <is>
-          <t>{"A": 12.232812127731432, "mu_m": 0.030284760311903126, "lambda": 85.41634882861729}</t>
+          <t>{"A": 200362.24462485363, "mu_m": 723.5492984280194, "lambda": 481.20936580850827}</t>
         </is>
       </c>
       <c r="AK93" t="inlineStr">
         <is>
-          <t>{"A": 12.226281602341665, "mu_m": 0.023115906680241938, "lambda": 12.402412403683199}</t>
-        </is>
-      </c>
-      <c r="AL93" t="inlineStr">
-        <is>
           <t>{"A": 11.632116929980066, "mu_m": 0.029023370429292494, "lambda": 96.90030011906333}</t>
         </is>
       </c>
-      <c r="AM93" t="inlineStr">
-        <is>
-          <t>{"A": 11.632116929980066, "mu_m": 0.029023370429292494, "lambda": 96.90030011906333}</t>
-        </is>
-      </c>
-      <c r="AN93" t="inlineStr">
-        <is>
-          <t>{"A": 11.625264062348903, "mu_m": 0.02229921091543497, "lambda": 27.519579767213326}</t>
-        </is>
+      <c r="AL93" t="n">
+        <v>244.340677047962</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>234.012541869522</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>41.8134982042473</v>
       </c>
       <c r="AO93" t="n">
-        <v>244.3406770479621</v>
+        <v>200362.244624854</v>
       </c>
       <c r="AP93" t="n">
-        <v>234.0125418695218</v>
+        <v>723.549298428019</v>
       </c>
       <c r="AQ93" t="n">
-        <v>288.1849482960651</v>
+        <v>481.209365808508</v>
       </c>
       <c r="AR93" t="n">
-        <v>276.8584376737614</v>
+        <v>1121</v>
       </c>
       <c r="AS93" t="n">
-        <v>41.81349820424733</v>
+        <v>583.0810015693157</v>
       </c>
     </row>
     <row r="94">
@@ -22750,43 +22198,37 @@
       </c>
       <c r="AJ94" t="inlineStr">
         <is>
-          <t>{"A": 11.701837585293367, "mu_m": 0.02855160181800179, "lambda": 2.551562676511697e-19}</t>
+          <t>{"A": 121771.28289188322, "mu_m": 256.25204306673777, "lambda": 338.4509570151139}</t>
         </is>
       </c>
       <c r="AK94" t="inlineStr">
         <is>
-          <t>{"A": 11.675562804521652, "mu_m": 0.0258418603768645, "lambda": 2.966418103785835e-18}</t>
-        </is>
-      </c>
-      <c r="AL94" t="inlineStr">
-        <is>
           <t>{"A": 11.104444794644634, "mu_m": 0.026515676758983395, "lambda": 5.101640477797077e-14}</t>
         </is>
       </c>
-      <c r="AM94" t="inlineStr">
-        <is>
-          <t>{"A": 11.104444794644634, "mu_m": 0.026515676758983395, "lambda": 5.101640477797077e-14}</t>
-        </is>
-      </c>
-      <c r="AN94" t="inlineStr">
-        <is>
-          <t>{"A": 11.078218135344875, "mu_m": 0.02404695810223802, "lambda": 6.6170751812855915e-18}</t>
-        </is>
+      <c r="AL94" t="n">
+        <v>154.063461502599</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>150.774919704942</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>0.00439152198518648</v>
       </c>
       <c r="AO94" t="n">
-        <v>154.0634615025991</v>
+        <v>121771.282891883</v>
       </c>
       <c r="AP94" t="n">
-        <v>150.7749197049423</v>
+        <v>256.252043066738</v>
       </c>
       <c r="AQ94" t="n">
-        <v>230.3455199664909</v>
+        <v>338.450957015114</v>
       </c>
       <c r="AR94" t="n">
-        <v>225.904068713537</v>
+        <v>1253</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.004391521985186478</v>
+        <v>513.2677154100065</v>
       </c>
     </row>
     <row r="95">
@@ -22984,43 +22426,37 @@
       </c>
       <c r="AJ95" t="inlineStr">
         <is>
-          <t>{"A": 12.037173473244996, "mu_m": 0.029171359491862194, "lambda": 66.8875730881264}</t>
+          <t>{"A": 166431.04657382146, "mu_m": 465.78144052263815, "lambda": 442.8750620005404}</t>
         </is>
       </c>
       <c r="AK95" t="inlineStr">
         <is>
-          <t>{"A": 12.027005986937965, "mu_m": 0.02268738192502053, "lambda": 1.0039234981968396e-12}</t>
-        </is>
-      </c>
-      <c r="AL95" t="inlineStr">
-        <is>
           <t>{"A": 11.436514564083515, "mu_m": 0.027915985760274323, "lambda": 78.50172356126006}</t>
         </is>
       </c>
-      <c r="AM95" t="inlineStr">
-        <is>
-          <t>{"A": 11.436514564083515, "mu_m": 0.027915985760274323, "lambda": 78.50172356126006}</t>
-        </is>
-      </c>
-      <c r="AN95" t="inlineStr">
-        <is>
-          <t>{"A": 11.430032910982511, "mu_m": 0.02126791507214912, "lambda": 3.3174737282502416}</t>
-        </is>
+      <c r="AL95" t="n">
+        <v>229.21316978829</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>218.688131161411</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>60.656670818321</v>
       </c>
       <c r="AO95" t="n">
-        <v>229.2131697882896</v>
+        <v>166431.046573822</v>
       </c>
       <c r="AP95" t="n">
-        <v>218.6881311614106</v>
+        <v>465.781440522638</v>
       </c>
       <c r="AQ95" t="n">
-        <v>272.0328807676181</v>
+        <v>442.87506200054</v>
       </c>
       <c r="AR95" t="n">
-        <v>265.0593626599586</v>
+        <v>1210</v>
       </c>
       <c r="AS95" t="n">
-        <v>60.65667081832104</v>
+        <v>574.3241818676941</v>
       </c>
     </row>
     <row r="96">
@@ -23218,43 +22654,37 @@
       </c>
       <c r="AJ96" t="inlineStr">
         <is>
-          <t>{"A": 11.962308216286852, "mu_m": 0.028687064446572114, "lambda": 63.95036440723559}</t>
+          <t>{"A": 154658.39774560588, "mu_m": 417.1310772072919, "lambda": 440.39197522966646}</t>
         </is>
       </c>
       <c r="AK96" t="inlineStr">
         <is>
-          <t>{"A": 11.950730290561154, "mu_m": 0.022499272871392213, "lambda": 5.116653755456897e-16}</t>
-        </is>
-      </c>
-      <c r="AL96" t="inlineStr">
-        <is>
           <t>{"A": 11.361637031221811, "mu_m": 0.027445002496969, "lambda": 75.76212493460113}</t>
         </is>
       </c>
-      <c r="AM96" t="inlineStr">
-        <is>
-          <t>{"A": 11.361637031221811, "mu_m": 0.027445002496969, "lambda": 75.76212493460113}</t>
-        </is>
-      </c>
-      <c r="AN96" t="inlineStr">
-        <is>
-          <t>{"A": 11.354952776804012, "mu_m": 0.020921092876340825, "lambda": 3.559679857427961e-09}</t>
-        </is>
+      <c r="AL96" t="n">
+        <v>228.056251426309</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>217.353556634316</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>54.2384886759475</v>
       </c>
       <c r="AO96" t="n">
-        <v>228.0562514263094</v>
+        <v>154658.397745606</v>
       </c>
       <c r="AP96" t="n">
-        <v>217.3535566343165</v>
+        <v>417.131077207292</v>
       </c>
       <c r="AQ96" t="n">
-        <v>271.375707857834</v>
+        <v>440.391975229667</v>
       </c>
       <c r="AR96" t="n">
-        <v>265.580366949469</v>
+        <v>1221</v>
       </c>
       <c r="AS96" t="n">
-        <v>54.23848867594747</v>
+        <v>576.7894964022506</v>
       </c>
     </row>
     <row r="97">
@@ -23456,43 +22886,37 @@
       </c>
       <c r="AJ97" t="inlineStr">
         <is>
-          <t>{"A": 12.183913079925711, "mu_m": 0.029550152583167878, "lambda": 72.01382306212439}</t>
+          <t>{"A": 193272.03808424075, "mu_m": 513.9641485315665, "lambda": 443.2945298601325}</t>
         </is>
       </c>
       <c r="AK97" t="inlineStr">
         <is>
-          <t>{"A": 12.175341918531062, "mu_m": 0.02271073088549157, "lambda": 5.4704265431771015e-12}</t>
-        </is>
-      </c>
-      <c r="AL97" t="inlineStr">
-        <is>
           <t>{"A": 11.583214037890237, "mu_m": 0.028301024858029284, "lambda": 83.57321930755249}</t>
         </is>
       </c>
-      <c r="AM97" t="inlineStr">
-        <is>
-          <t>{"A": 11.583214037890237, "mu_m": 0.028301024858029284, "lambda": 83.57321930755249}</t>
-        </is>
-      </c>
-      <c r="AN97" t="inlineStr">
-        <is>
-          <t>{"A": 11.576172428591997, "mu_m": 0.021626227953594864, "lambda": 9.847741921452215}</t>
-        </is>
+      <c r="AL97" t="n">
+        <v>234.141134377925</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>223.695311762038</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>76.2587661271632</v>
       </c>
       <c r="AO97" t="n">
-        <v>234.1411343779254</v>
+        <v>193272.038084241</v>
       </c>
       <c r="AP97" t="n">
-        <v>223.6953117620379</v>
+        <v>513.964148531567</v>
       </c>
       <c r="AQ97" t="n">
-        <v>277.4897101239497</v>
+        <v>443.294529860133</v>
       </c>
       <c r="AR97" t="n">
-        <v>268.0526219063552</v>
+        <v>1265</v>
       </c>
       <c r="AS97" t="n">
-        <v>76.25876612716324</v>
+        <v>581.6326018202814</v>
       </c>
     </row>
     <row r="98">
@@ -23694,43 +23118,37 @@
       </c>
       <c r="AJ98" t="inlineStr">
         <is>
-          <t>{"A": 13.237207512470807, "mu_m": 0.028603845119522752, "lambda": 11.320997602824493}</t>
+          <t>{"A": 562747.4761968559, "mu_m": 1138.0726420253277, "lambda": 432.12063927213876}</t>
         </is>
       </c>
       <c r="AK98" t="inlineStr">
         <is>
-          <t>{"A": 13.197392129511881, "mu_m": 0.025633288628930686, "lambda": 7.622224525204849e-13}</t>
-        </is>
-      </c>
-      <c r="AL98" t="inlineStr">
-        <is>
           <t>{"A": 12.636535087960043, "mu_m": 0.027464633784202254, "lambda": 22.78046432852435}</t>
         </is>
       </c>
-      <c r="AM98" t="inlineStr">
-        <is>
-          <t>{"A": 12.636535087960043, "mu_m": 0.027464633784202254, "lambda": 22.78046432852435}</t>
-        </is>
-      </c>
-      <c r="AN98" t="inlineStr">
-        <is>
-          <t>{"A": 12.602341867116147, "mu_m": 0.023984137463153875, "lambda": 3.358838636844069e-15}</t>
-        </is>
+      <c r="AL98" t="n">
+        <v>192.042559830268</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>181.56721736838</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>49.5053974379115</v>
       </c>
       <c r="AO98" t="n">
-        <v>192.0425598302682</v>
+        <v>562747.476196856</v>
       </c>
       <c r="AP98" t="n">
-        <v>181.5672173683799</v>
+        <v>1138.07264202533</v>
       </c>
       <c r="AQ98" t="n">
-        <v>262.7224324092695</v>
+        <v>432.120639272139</v>
       </c>
       <c r="AR98" t="n">
-        <v>257.4268233888813</v>
+        <v>1657</v>
       </c>
       <c r="AS98" t="n">
-        <v>49.50539743791146</v>
+        <v>614.0275048088745</v>
       </c>
     </row>
     <row r="99">
@@ -23932,43 +23350,37 @@
       </c>
       <c r="AJ99" t="inlineStr">
         <is>
-          <t>{"A": 13.023980151780261, "mu_m": 0.027626857413800218, "lambda": 1.5182619299049249e-15}</t>
+          <t>{"A": 453809.1208955137, "mu_m": 931.6535235517983, "lambda": 432.08394610291487}</t>
         </is>
       </c>
       <c r="AK99" t="inlineStr">
         <is>
-          <t>{"A": 12.980059687279272, "mu_m": 0.025414198870940232, "lambda": 1.4647583519818498e-15}</t>
-        </is>
-      </c>
-      <c r="AL99" t="inlineStr">
-        <is>
           <t>{"A": 12.42546858945882, "mu_m": 0.026218887689546628, "lambda": 7.235459671755496}</t>
         </is>
       </c>
-      <c r="AM99" t="inlineStr">
-        <is>
-          <t>{"A": 12.42546858945882, "mu_m": 0.026218887689546628, "lambda": 7.235459671755496}</t>
-        </is>
-      </c>
-      <c r="AN99" t="inlineStr">
-        <is>
-          <t>{"A": 12.385056178536253, "mu_m": 0.023751419502948082, "lambda": 3.3740723401524186e-15}</t>
-        </is>
+      <c r="AL99" t="n">
+        <v>181.578265328072</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>173.427417686369</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>37.0898188949846</v>
       </c>
       <c r="AO99" t="n">
-        <v>181.5782653280721</v>
+        <v>453809.120895514</v>
       </c>
       <c r="AP99" t="n">
-        <v>173.4274176863686</v>
+        <v>931.653523551798</v>
       </c>
       <c r="AQ99" t="n">
-        <v>260.7224418102462</v>
+        <v>432.083946102915</v>
       </c>
       <c r="AR99" t="n">
-        <v>255.3702312867566</v>
+        <v>1603</v>
       </c>
       <c r="AS99" t="n">
-        <v>37.08981889498458</v>
+        <v>611.2782941874723</v>
       </c>
     </row>
     <row r="100">
@@ -24170,43 +23582,37 @@
       </c>
       <c r="AJ100" t="inlineStr">
         <is>
-          <t>{"A": 12.718028053866139, "mu_m": 0.026906596419892466, "lambda": 1.8284496568239656e-19}</t>
+          <t>{"A": 337923.60485025035, "mu_m": 625.640239186227, "lambda": 415.413272203796}</t>
         </is>
       </c>
       <c r="AK100" t="inlineStr">
         <is>
-          <t>{"A": 12.674118172572516, "mu_m": 0.024772492313147845, "lambda": 1.9970375165037253e-16}</t>
-        </is>
-      </c>
-      <c r="AL100" t="inlineStr">
-        <is>
           <t>{"A": 12.123049503293533, "mu_m": 0.025061075777520668, "lambda": 2.970095386948215e-23}</t>
         </is>
       </c>
-      <c r="AM100" t="inlineStr">
-        <is>
-          <t>{"A": 12.123049503293533, "mu_m": 0.025061075777520668, "lambda": 2.970095386948215e-23}</t>
-        </is>
-      </c>
-      <c r="AN100" t="inlineStr">
-        <is>
-          <t>{"A": 12.079292609510407, "mu_m": 0.02310894740602615, "lambda": 4.419494757079073e-16}</t>
-        </is>
+      <c r="AL100" t="n">
+        <v>177.958069963051</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>173.886766659196</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>38.8430061837032</v>
       </c>
       <c r="AO100" t="n">
-        <v>177.9580699630514</v>
+        <v>337923.60485025</v>
       </c>
       <c r="AP100" t="n">
-        <v>173.8867666591961</v>
+        <v>625.6402391862269</v>
       </c>
       <c r="AQ100" t="n">
-        <v>261.3553182946029</v>
+        <v>415.413272203796</v>
       </c>
       <c r="AR100" t="n">
-        <v>255.810315981929</v>
+        <v>1634</v>
       </c>
       <c r="AS100" t="n">
-        <v>38.84300618370322</v>
+        <v>614.1139617129083</v>
       </c>
     </row>
     <row r="101">
@@ -24408,43 +23814,37 @@
       </c>
       <c r="AJ101" t="inlineStr">
         <is>
-          <t>{"A": 12.914875740407295, "mu_m": 0.02727383568888519, "lambda": 9.168456984840688e-26}</t>
+          <t>{"A": 410418.973763842, "mu_m": 767.8185691195737, "lambda": 419.0472936994359}</t>
         </is>
       </c>
       <c r="AK101" t="inlineStr">
         <is>
-          <t>{"A": 12.870384951180924, "mu_m": 0.025108622804892483, "lambda": 5.227330353492366e-16}</t>
-        </is>
-      </c>
-      <c r="AL101" t="inlineStr">
-        <is>
           <t>{"A": 12.319357851767396, "mu_m": 0.025496256695844852, "lambda": 1.0932023288826214}</t>
         </is>
       </c>
-      <c r="AM101" t="inlineStr">
-        <is>
-          <t>{"A": 12.319357851767396, "mu_m": 0.025496256695844852, "lambda": 1.0932023288826214}</t>
-        </is>
-      </c>
-      <c r="AN101" t="inlineStr">
-        <is>
-          <t>{"A": 12.275520513475511, "mu_m": 0.023448731922460133, "lambda": 1.204663803194278e-15}</t>
-        </is>
+      <c r="AL101" t="n">
+        <v>178.846295112805</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>174.200553393957</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>40.4081982580253</v>
       </c>
       <c r="AO101" t="n">
-        <v>178.8462951128049</v>
+        <v>410418.973763842</v>
       </c>
       <c r="AP101" t="n">
-        <v>174.2005533939569</v>
+        <v>767.818569119574</v>
       </c>
       <c r="AQ101" t="n">
-        <v>261.7523317266791</v>
+        <v>419.047293699436</v>
       </c>
       <c r="AR101" t="n">
-        <v>256.2941235604745</v>
+        <v>1666</v>
       </c>
       <c r="AS101" t="n">
-        <v>40.40819825802534</v>
+        <v>615.6884128215315</v>
       </c>
     </row>
     <row r="102">
@@ -24646,43 +24046,37 @@
       </c>
       <c r="AJ102" t="inlineStr">
         <is>
-          <t>{"A": 12.703301854650913, "mu_m": 0.02614407784278969, "lambda": 3.039123609065765e-20}</t>
+          <t>{"A": 333920.968329426, "mu_m": 615.8973594091663, "lambda": 437.1958501588131}</t>
         </is>
       </c>
       <c r="AK102" t="inlineStr">
         <is>
-          <t>{"A": 12.656132916281752, "mu_m": 0.024128342547163915, "lambda": 3.3273883455994665e-11}</t>
-        </is>
-      </c>
-      <c r="AL102" t="inlineStr">
-        <is>
           <t>{"A": 12.109044295721265, "mu_m": 0.02433220308446304, "lambda": 1.2023315823189707e-20}</t>
         </is>
       </c>
-      <c r="AM102" t="inlineStr">
-        <is>
-          <t>{"A": 12.109044295721265, "mu_m": 0.02433220308446304, "lambda": 1.2023315823189707e-20}</t>
-        </is>
-      </c>
-      <c r="AN102" t="inlineStr">
-        <is>
-          <t>{"A": 12.06209914008592, "mu_m": 0.022488298108088695, "lambda": 7.553260249630272e-16}</t>
-        </is>
+      <c r="AL102" t="n">
+        <v>183.077070052676</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>178.751134976825</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>36.6921634379605</v>
       </c>
       <c r="AO102" t="n">
-        <v>183.0770700526761</v>
+        <v>333920.968329426</v>
       </c>
       <c r="AP102" t="n">
-        <v>178.7511349768252</v>
+        <v>615.897359409166</v>
       </c>
       <c r="AQ102" t="n">
-        <v>268.1861268938659</v>
+        <v>437.195850158813</v>
       </c>
       <c r="AR102" t="n">
-        <v>262.2669354835353</v>
+        <v>1657</v>
       </c>
       <c r="AS102" t="n">
-        <v>36.69216343796052</v>
+        <v>636.6489852433665</v>
       </c>
     </row>
     <row r="103">
@@ -24884,43 +24278,37 @@
       </c>
       <c r="AJ103" t="inlineStr">
         <is>
-          <t>{"A": 12.760879801979874, "mu_m": 0.03389711196797376, "lambda": 84.60644551203387}</t>
+          <t>{"A": 344059.8386355691, "mu_m": 1076.1639356140695, "lambda": 442.5058606596284}</t>
         </is>
       </c>
       <c r="AK103" t="inlineStr">
         <is>
-          <t>{"A": 12.75519897454077, "mu_m": 0.02563850038189734, "lambda": 12.45537609431641}</t>
-        </is>
-      </c>
-      <c r="AL103" t="inlineStr">
-        <is>
           <t>{"A": 12.160279866748347, "mu_m": 0.03251875065960241, "lambda": 94.57086269508312}</t>
         </is>
       </c>
-      <c r="AM103" t="inlineStr">
-        <is>
-          <t>{"A": 12.160279866748347, "mu_m": 0.03251875065960241, "lambda": 94.57086269508312}</t>
-        </is>
-      </c>
-      <c r="AN103" t="inlineStr">
-        <is>
-          <t>{"A": 12.154331220989901, "mu_m": 0.024737227801803815, "lambda": 25.47753521822811}</t>
-        </is>
+      <c r="AL103" t="n">
+        <v>232.138169898712</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>223.098047240336</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>55.0769731541233</v>
       </c>
       <c r="AO103" t="n">
-        <v>232.1381698987117</v>
+        <v>344059.838635569</v>
       </c>
       <c r="AP103" t="n">
-        <v>223.0980472403365</v>
+        <v>1076.16393561407</v>
       </c>
       <c r="AQ103" t="n">
-        <v>271.1463570921088</v>
+        <v>442.505860659628</v>
       </c>
       <c r="AR103" t="n">
-        <v>261.2062543544754</v>
+        <v>1228</v>
       </c>
       <c r="AS103" t="n">
-        <v>55.07697315412332</v>
+        <v>560.1204145189953</v>
       </c>
     </row>
     <row r="104">
@@ -25122,43 +24510,37 @@
       </c>
       <c r="AJ104" t="inlineStr">
         <is>
-          <t>{"A": 12.420225845153851, "mu_m": 0.02780973201185651, "lambda": 1.3467534348128982e-23}</t>
+          <t>{"A": 243956.0747484161, "mu_m": 686.1773879084973, "lambda": 432.9954112267288}</t>
         </is>
       </c>
       <c r="AK104" t="inlineStr">
         <is>
-          <t>{"A": 12.385365823870968, "mu_m": 0.025411992568400085, "lambda": 4.623835061077985e-16}</t>
-        </is>
-      </c>
-      <c r="AL104" t="inlineStr">
-        <is>
           <t>{"A": 11.822814044622987, "mu_m": 0.026095236002880193, "lambda": 3.3460059226217713}</t>
         </is>
       </c>
-      <c r="AM104" t="inlineStr">
-        <is>
-          <t>{"A": 11.822814044622987, "mu_m": 0.026095236002880193, "lambda": 3.3460059226217713}</t>
-        </is>
-      </c>
-      <c r="AN104" t="inlineStr">
-        <is>
-          <t>{"A": 11.789523651780392, "mu_m": 0.023693500023199216, "lambda": 9.853191822635679e-18}</t>
-        </is>
+      <c r="AL104" t="n">
+        <v>170.018965819583</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>164.30024356906</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>49.3931856589759</v>
       </c>
       <c r="AO104" t="n">
-        <v>170.0189658195828</v>
+        <v>243956.074748416</v>
       </c>
       <c r="AP104" t="n">
-        <v>164.3002435690598</v>
+        <v>686.1773879084971</v>
       </c>
       <c r="AQ104" t="n">
-        <v>248.7923616231628</v>
+        <v>432.995411226729</v>
       </c>
       <c r="AR104" t="n">
-        <v>243.6913553814001</v>
+        <v>1248</v>
       </c>
       <c r="AS104" t="n">
-        <v>49.39318565897585</v>
+        <v>563.787282294322</v>
       </c>
     </row>
     <row r="105">
@@ -25360,43 +24742,37 @@
       </c>
       <c r="AJ105" t="inlineStr">
         <is>
-          <t>{"A": 12.421562418612924, "mu_m": 0.029086656270015897, "lambda": 32.458717852912606}</t>
+          <t>{"A": 245122.19531219103, "mu_m": 664.6620454798933, "lambda": 435.2039593910934}</t>
         </is>
       </c>
       <c r="AK105" t="inlineStr">
         <is>
-          <t>{"A": 12.397559709023708, "mu_m": 0.0246187547842981, "lambda": 1.1059008325761065e-17}</t>
-        </is>
-      </c>
-      <c r="AL105" t="inlineStr">
-        <is>
           <t>{"A": 11.820995438563552, "mu_m": 0.027847365433843852, "lambda": 43.698258137483954}</t>
         </is>
       </c>
-      <c r="AM105" t="inlineStr">
-        <is>
-          <t>{"A": 11.820995438563552, "mu_m": 0.027847365433843852, "lambda": 43.698258137483954}</t>
-        </is>
-      </c>
-      <c r="AN105" t="inlineStr">
-        <is>
-          <t>{"A": 11.8017714945341, "mu_m": 0.022952015410459357, "lambda": 1.0250777838420517e-18}</t>
-        </is>
+      <c r="AL105" t="n">
+        <v>199.860291000521</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>189.562972072265</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>49.5637922379683</v>
       </c>
       <c r="AO105" t="n">
-        <v>199.8602910005211</v>
+        <v>245122.195312191</v>
       </c>
       <c r="AP105" t="n">
-        <v>189.5629720722655</v>
+        <v>664.662045479893</v>
       </c>
       <c r="AQ105" t="n">
-        <v>257.0966271039529</v>
+        <v>435.203959391093</v>
       </c>
       <c r="AR105" t="n">
-        <v>251.7909581058686</v>
+        <v>1276</v>
       </c>
       <c r="AS105" t="n">
-        <v>49.56379223796829</v>
+        <v>570.8750374124932</v>
       </c>
     </row>
     <row r="106">
@@ -25598,43 +24974,37 @@
       </c>
       <c r="AJ106" t="inlineStr">
         <is>
-          <t>{"A": 12.418966265791113, "mu_m": 0.028005551252004546, "lambda": 6.943528233064067}</t>
+          <t>{"A": 243327.54443016235, "mu_m": 687.1119639012292, "lambda": 434.08722721689395}</t>
         </is>
       </c>
       <c r="AK106" t="inlineStr">
         <is>
-          <t>{"A": 12.386275199756772, "mu_m": 0.025187070568174343, "lambda": 2.010262168752998e-16}</t>
-        </is>
-      </c>
-      <c r="AL106" t="inlineStr">
-        <is>
           <t>{"A": 11.818446371565988, "mu_m": 0.026799219016252426, "lambda": 18.39807885456704}</t>
         </is>
       </c>
-      <c r="AM106" t="inlineStr">
-        <is>
-          <t>{"A": 11.818446371565988, "mu_m": 0.026799219016252426, "lambda": 18.39807885456704}</t>
-        </is>
-      </c>
-      <c r="AN106" t="inlineStr">
-        <is>
-          <t>{"A": 11.790409566163314, "mu_m": 0.02348393661706508, "lambda": 2.1454099415518964e-15}</t>
-        </is>
+      <c r="AL106" t="n">
+        <v>180.632785920085</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>170.07841276633</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>46.1642075185122</v>
       </c>
       <c r="AO106" t="n">
-        <v>180.6327859200845</v>
+        <v>243327.544430162</v>
       </c>
       <c r="AP106" t="n">
-        <v>170.0784127663302</v>
+        <v>687.111963901229</v>
       </c>
       <c r="AQ106" t="n">
-        <v>251.0313700471235</v>
+        <v>434.087227216894</v>
       </c>
       <c r="AR106" t="n">
-        <v>245.8855857458809</v>
+        <v>1246</v>
       </c>
       <c r="AS106" t="n">
-        <v>46.16420751851221</v>
+        <v>564.3646867423331</v>
       </c>
     </row>
     <row r="107">
@@ -25836,43 +25206,37 @@
       </c>
       <c r="AJ107" t="inlineStr">
         <is>
-          <t>{"A": 12.174262850747459, "mu_m": 0.027316519920297544, "lambda": 6.120445929978586}</t>
+          <t>{"A": 191251.59647592562, "mu_m": 491.8982453912795, "lambda": 418.9722750428494}</t>
         </is>
       </c>
       <c r="AK107" t="inlineStr">
         <is>
-          <t>{"A": 12.141292095407593, "mu_m": 0.0246326333961833, "lambda": 2.202739487232452e-16}</t>
-        </is>
-      </c>
-      <c r="AL107" t="inlineStr">
-        <is>
           <t>{"A": 11.573707033055468, "mu_m": 0.02612020122059284, "lambda": 17.92802339369498}</t>
         </is>
       </c>
-      <c r="AM107" t="inlineStr">
-        <is>
-          <t>{"A": 11.573707033055468, "mu_m": 0.02612020122059284, "lambda": 17.92802339369498}</t>
-        </is>
-      </c>
-      <c r="AN107" t="inlineStr">
-        <is>
-          <t>{"A": 11.545461838540202, "mu_m": 0.022932690281657925, "lambda": 2.8281245586183912e-15}</t>
-        </is>
+      <c r="AL107" t="n">
+        <v>180.933233026066</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>170.074750038803</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>50.7450317785208</v>
       </c>
       <c r="AO107" t="n">
-        <v>180.9332330260656</v>
+        <v>191251.596475926</v>
       </c>
       <c r="AP107" t="n">
-        <v>170.0747500388031</v>
+        <v>491.89824539128</v>
       </c>
       <c r="AQ107" t="n">
-        <v>251.7249763708386</v>
+        <v>418.972275042849</v>
       </c>
       <c r="AR107" t="n">
-        <v>246.4473022459877</v>
+        <v>1262</v>
       </c>
       <c r="AS107" t="n">
-        <v>50.74503177852077</v>
+        <v>562.0049674622823</v>
       </c>
     </row>
     <row r="108">
@@ -26070,43 +25434,37 @@
       </c>
       <c r="AJ108" t="inlineStr">
         <is>
-          <t>{"A": 11.964606017123408, "mu_m": 0.030000544620182357, "lambda": 47.68433757946185}</t>
+          <t>{"A": 155616.93713917377, "mu_m": 430.0509740902094, "lambda": 409.6909911675103}</t>
         </is>
       </c>
       <c r="AK108" t="inlineStr">
         <is>
-          <t>{"A": 11.949278321155214, "mu_m": 0.0243000710767409, "lambda": 6.352167578156196e-19}</t>
-        </is>
-      </c>
-      <c r="AL108" t="inlineStr">
-        <is>
           <t>{"A": 11.364057156839063, "mu_m": 0.028674187854710435, "lambda": 58.59473866544432}</t>
         </is>
       </c>
-      <c r="AM108" t="inlineStr">
-        <is>
-          <t>{"A": 11.364057156839063, "mu_m": 0.028674187854710435, "lambda": 58.59473866544432}</t>
-        </is>
-      </c>
-      <c r="AN108" t="inlineStr">
-        <is>
-          <t>{"A": 11.352871864122367, "mu_m": 0.022610968960764345, "lambda": 2.654921011632566e-16}</t>
-        </is>
+      <c r="AL108" t="n">
+        <v>204.391474652564</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>194.399426626705</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>47.5198511355482</v>
       </c>
       <c r="AO108" t="n">
-        <v>204.3914746525638</v>
+        <v>155616.937139174</v>
       </c>
       <c r="AP108" t="n">
-        <v>194.3994266267046</v>
+        <v>430.050974090209</v>
       </c>
       <c r="AQ108" t="n">
-        <v>251.0478848523127</v>
+        <v>409.69099116751</v>
       </c>
       <c r="AR108" t="n">
-        <v>245.8692051438608</v>
+        <v>1176</v>
       </c>
       <c r="AS108" t="n">
-        <v>47.5198511355482</v>
+        <v>542.8107265493027</v>
       </c>
     </row>
     <row r="109">
@@ -26304,43 +25662,37 @@
       </c>
       <c r="AJ109" t="inlineStr">
         <is>
-          <t>{"A": 12.052168785345588, "mu_m": 0.029721947836659546, "lambda": 39.7795281617918}</t>
+          <t>{"A": 169142.5380096557, "mu_m": 488.2844439595526, "lambda": 413.94829947622475}</t>
         </is>
       </c>
       <c r="AK109" t="inlineStr">
         <is>
-          <t>{"A": 12.034146823417146, "mu_m": 0.024569027589459235, "lambda": 2.070989467987456e-16}</t>
-        </is>
-      </c>
-      <c r="AL109" t="inlineStr">
-        <is>
           <t>{"A": 11.451624037679538, "mu_m": 0.028416701118661417, "lambda": 50.77952472281077}</t>
         </is>
       </c>
-      <c r="AM109" t="inlineStr">
-        <is>
-          <t>{"A": 11.451624037679538, "mu_m": 0.028416701118661417, "lambda": 50.77952472281077}</t>
-        </is>
-      </c>
-      <c r="AN109" t="inlineStr">
-        <is>
-          <t>{"A": 11.437743951319336, "mu_m": 0.0228734359763612, "lambda": 4.11522529941985e-15}</t>
-        </is>
+      <c r="AL109" t="n">
+        <v>199.030971429988</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>188.953638217533</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>51.5703328994484</v>
       </c>
       <c r="AO109" t="n">
-        <v>199.0309714299876</v>
+        <v>169142.538009656</v>
       </c>
       <c r="AP109" t="n">
-        <v>188.9536382175325</v>
+        <v>488.284443959553</v>
       </c>
       <c r="AQ109" t="n">
-        <v>250.0224269571873</v>
+        <v>413.948299476225</v>
       </c>
       <c r="AR109" t="n">
-        <v>244.9048253863355</v>
+        <v>1164</v>
       </c>
       <c r="AS109" t="n">
-        <v>51.5703328994484</v>
+        <v>541.3823456168922</v>
       </c>
     </row>
     <row r="110">
@@ -26542,43 +25894,37 @@
       </c>
       <c r="AJ110" t="inlineStr">
         <is>
-          <t>{"A": 12.812334240978767, "mu_m": 0.04128367780417121, "lambda": 129.01875236074076}</t>
+          <t>{"A": 359212.76607449347, "mu_m": 1967.532350115792, "lambda": 451.2408712839115}</t>
         </is>
       </c>
       <c r="AK110" t="inlineStr">
         <is>
-          <t>{"A": 12.808090617700682, "mu_m": 0.03137367668235523, "lambda": 71.58994454241751}</t>
-        </is>
-      </c>
-      <c r="AL110" t="inlineStr">
-        <is>
           <t>{"A": 12.21182874166169, "mu_m": 0.03962809861134726, "lambda": 137.3483415465121}</t>
         </is>
       </c>
-      <c r="AM110" t="inlineStr">
-        <is>
-          <t>{"A": 12.21182874166169, "mu_m": 0.03962809861134726, "lambda": 137.3483415465121}</t>
-        </is>
-      </c>
-      <c r="AN110" t="inlineStr">
-        <is>
-          <t>{"A": 12.207379780942984, "mu_m": 0.030298280066346786, "lambda": 82.54277673206244}</t>
-        </is>
+      <c r="AL110" t="n">
+        <v>250.714384596518</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>243.189645347333</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>43.8971740329778</v>
       </c>
       <c r="AO110" t="n">
-        <v>250.7143845965177</v>
+        <v>359212.766074494</v>
       </c>
       <c r="AP110" t="n">
-        <v>243.1896453473335</v>
+        <v>1967.53235011579</v>
       </c>
       <c r="AQ110" t="n">
-        <v>283.9961225030339</v>
+        <v>451.240871283911</v>
       </c>
       <c r="AR110" t="n">
-        <v>275.7115517639269</v>
+        <v>941</v>
       </c>
       <c r="AS110" t="n">
-        <v>43.89717403297783</v>
+        <v>518.4046928278648</v>
       </c>
     </row>
     <row r="111">
@@ -26776,43 +26122,37 @@
       </c>
       <c r="AJ111" t="inlineStr">
         <is>
-          <t>{"A": 12.07691188807863, "mu_m": 0.03652559919864695, "lambda": 85.28228027903448}</t>
+          <t>{"A": 173071.6241916392, "mu_m": 751.0605525136741, "lambda": 413.2814349876467}</t>
         </is>
       </c>
       <c r="AK111" t="inlineStr">
         <is>
-          <t>{"A": 12.073910350152087, "mu_m": 0.027166338817759535, "lambda": 15.063889155183809}</t>
-        </is>
-      </c>
-      <c r="AL111" t="inlineStr">
-        <is>
           <t>{"A": 11.476497067195329, "mu_m": 0.03490955974635873, "lambda": 94.10284670855835}</t>
         </is>
       </c>
-      <c r="AM111" t="inlineStr">
-        <is>
-          <t>{"A": 11.476497067195329, "mu_m": 0.03490955974635873, "lambda": 94.10284670855835}</t>
-        </is>
-      </c>
-      <c r="AN111" t="inlineStr">
-        <is>
-          <t>{"A": 11.473339964383085, "mu_m": 0.026097513560641657, "lambda": 26.44737214881265}</t>
-        </is>
+      <c r="AL111" t="n">
+        <v>215.042994861698</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>206.918822702347</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>53.9025188790448</v>
       </c>
       <c r="AO111" t="n">
-        <v>215.0429948616982</v>
+        <v>173071.624191639</v>
       </c>
       <c r="AP111" t="n">
-        <v>206.9188227023466</v>
+        <v>751.060552513674</v>
       </c>
       <c r="AQ111" t="n">
-        <v>246.264097940007</v>
+        <v>413.281434987647</v>
       </c>
       <c r="AR111" t="n">
-        <v>237.2857798403388</v>
+        <v>949</v>
       </c>
       <c r="AS111" t="n">
-        <v>53.9025188790448</v>
+        <v>498.0542168587796</v>
       </c>
     </row>
     <row r="112">
@@ -27010,43 +26350,37 @@
       </c>
       <c r="AJ112" t="inlineStr">
         <is>
-          <t>{"A": 12.097126808583425, "mu_m": 0.03802452494790278, "lambda": 104.90496945514236}</t>
+          <t>{"A": 176946.45620609296, "mu_m": 752.4708225297458, "lambda": 415.4329893487588}</t>
         </is>
       </c>
       <c r="AK112" t="inlineStr">
         <is>
-          <t>{"A": 12.093777253302667, "mu_m": 0.028458433607511553, "lambda": 39.89979741838156}</t>
-        </is>
-      </c>
-      <c r="AL112" t="inlineStr">
-        <is>
           <t>{"A": 11.496682158542562, "mu_m": 0.03636316417604746, "lambda": 113.54343997849027}</t>
         </is>
       </c>
-      <c r="AM112" t="inlineStr">
-        <is>
-          <t>{"A": 11.496682158542562, "mu_m": 0.03636316417604746, "lambda": 113.54343997849027}</t>
-        </is>
-      </c>
-      <c r="AN112" t="inlineStr">
-        <is>
-          <t>{"A": 11.493160858118058, "mu_m": 0.027364104131026377, "lambda": 51.10876371517148}</t>
-        </is>
+      <c r="AL112" t="n">
+        <v>229.853257994719</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>221.942177841547</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>54.3824587400766</v>
       </c>
       <c r="AO112" t="n">
-        <v>229.853257994719</v>
+        <v>176946.456206093</v>
       </c>
       <c r="AP112" t="n">
-        <v>221.9421778415471</v>
+        <v>752.470822529746</v>
       </c>
       <c r="AQ112" t="n">
-        <v>261.1130964549872</v>
+        <v>415.432989348759</v>
       </c>
       <c r="AR112" t="n">
-        <v>252.3812259484208</v>
+        <v>962</v>
       </c>
       <c r="AS112" t="n">
-        <v>54.38245874007659</v>
+        <v>501.9412784110785</v>
       </c>
     </row>
     <row r="113">
@@ -27248,43 +26582,37 @@
       </c>
       <c r="AJ113" t="inlineStr">
         <is>
-          <t>{"A": 12.196222436529238, "mu_m": 0.031053272560485356, "lambda": 1.1416031787613408e-09}</t>
+          <t>{"A": 194483.06758719473, "mu_m": 760.6933602328905, "lambda": 403.20043832649833}</t>
         </is>
       </c>
       <c r="AK113" t="inlineStr">
         <is>
-          <t>{"A": 12.173128369616064, "mu_m": 0.02797270908296597, "lambda": 3.5479755572318174e-19}</t>
-        </is>
-      </c>
-      <c r="AL113" t="inlineStr">
-        <is>
           <t>{"A": 11.596233662809123, "mu_m": 0.029549312215782872, "lambda": 8.397763725324245}</t>
         </is>
       </c>
-      <c r="AM113" t="inlineStr">
-        <is>
-          <t>{"A": 11.596233662809123, "mu_m": 0.029549312215782872, "lambda": 8.397763725324245}</t>
-        </is>
-      </c>
-      <c r="AN113" t="inlineStr">
-        <is>
-          <t>{"A": 11.575549252702238, "mu_m": 0.02611408323246709, "lambda": 2.335819234968135e-17}</t>
-        </is>
+      <c r="AL113" t="n">
+        <v>152.767146282023</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>144.485238573461</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>38.3782810770424</v>
       </c>
       <c r="AO113" t="n">
-        <v>152.767146282023</v>
+        <v>194483.067587195</v>
       </c>
       <c r="AP113" t="n">
-        <v>144.4852385734609</v>
+        <v>760.693360232891</v>
       </c>
       <c r="AQ113" t="n">
-        <v>221.6342260545184</v>
+        <v>403.200438326498</v>
       </c>
       <c r="AR113" t="n">
-        <v>217.5893713674825</v>
+        <v>999</v>
       </c>
       <c r="AS113" t="n">
-        <v>38.37828107704235</v>
+        <v>497.2545289253443</v>
       </c>
     </row>
     <row r="114">
@@ -27486,43 +26814,37 @@
       </c>
       <c r="AJ114" t="inlineStr">
         <is>
-          <t>{"A": 12.690751763742282, "mu_m": 0.03979578007995531, "lambda": 100.77671885704585}</t>
+          <t>{"A": 319228.5062981925, "mu_m": 1519.070834553306, "lambda": 425.8666411919001}</t>
         </is>
       </c>
       <c r="AK114" t="inlineStr">
         <is>
-          <t>{"A": 12.68742624289547, "mu_m": 0.02976896795015515, "lambda": 35.43428657219459}</t>
-        </is>
-      </c>
-      <c r="AL114" t="inlineStr">
-        <is>
           <t>{"A": 12.090321645815754, "mu_m": 0.03813703411607853, "lambda": 109.01110779198274}</t>
         </is>
       </c>
-      <c r="AM114" t="inlineStr">
-        <is>
-          <t>{"A": 12.090321645815754, "mu_m": 0.03813703411607853, "lambda": 109.01110779198274}</t>
-        </is>
-      </c>
-      <c r="AN114" t="inlineStr">
-        <is>
-          <t>{"A": 12.086830446063829, "mu_m": 0.028676690021930965, "lambda": 46.122932301374895}</t>
-        </is>
+      <c r="AL114" t="n">
+        <v>225.637397007549</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>218.092340199585</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>16.7652925741269</v>
       </c>
       <c r="AO114" t="n">
-        <v>225.637397007549</v>
+        <v>319228.506298192</v>
       </c>
       <c r="AP114" t="n">
-        <v>218.0923401995852</v>
+        <v>1519.07083455331</v>
       </c>
       <c r="AQ114" t="n">
-        <v>256.8660556677785</v>
+        <v>425.8666411919</v>
       </c>
       <c r="AR114" t="n">
-        <v>248.5324743249438</v>
+        <v>969</v>
       </c>
       <c r="AS114" t="n">
-        <v>16.7652925741269</v>
+        <v>503.1754814590533</v>
       </c>
     </row>
     <row r="115">
@@ -27724,43 +27046,37 @@
       </c>
       <c r="AJ115" t="inlineStr">
         <is>
-          <t>{"A": 12.374964947556892, "mu_m": 0.03964090321772692, "lambda": 105.80191957278697}</t>
+          <t>{"A": 233340.93976180797, "mu_m": 1102.371035592821, "lambda": 421.78717735035326}</t>
         </is>
       </c>
       <c r="AK115" t="inlineStr">
         <is>
-          <t>{"A": 12.37194640037144, "mu_m": 0.029576863470916183, "lambda": 40.876392980835924}</t>
-        </is>
-      </c>
-      <c r="AL115" t="inlineStr">
-        <is>
           <t>{"A": 11.774549370005245, "mu_m": 0.03793927882724451, "lambda": 114.01584589157211}</t>
         </is>
       </c>
-      <c r="AM115" t="inlineStr">
-        <is>
-          <t>{"A": 11.774549370005245, "mu_m": 0.03793927882724451, "lambda": 114.01584589157211}</t>
-        </is>
-      </c>
-      <c r="AN115" t="inlineStr">
-        <is>
-          <t>{"A": 11.771380245719733, "mu_m": 0.028453302205553508, "lambda": 51.503739203164955}</t>
-        </is>
+      <c r="AL115" t="n">
+        <v>228.188143736425</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>220.645296486247</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>49.2120196659774</v>
       </c>
       <c r="AO115" t="n">
-        <v>228.1881437364252</v>
+        <v>233340.939761808</v>
       </c>
       <c r="AP115" t="n">
-        <v>220.6452964862474</v>
+        <v>1102.37103559282</v>
       </c>
       <c r="AQ115" t="n">
-        <v>258.3581169601024</v>
+        <v>421.787177350353</v>
       </c>
       <c r="AR115" t="n">
-        <v>250.0254532342524</v>
+        <v>944</v>
       </c>
       <c r="AS115" t="n">
-        <v>49.2120196659774</v>
+        <v>499.6569070061493</v>
       </c>
     </row>
     <row r="116">
@@ -27962,43 +27278,37 @@
       </c>
       <c r="AJ116" t="inlineStr">
         <is>
-          <t>{"A": 12.420387278126226, "mu_m": 0.02976397238470922, "lambda": 42.71152450970786}</t>
+          <t>{"A": 245127.0049775456, "mu_m": 676.3042036910522, "lambda": 436.69186763554944}</t>
         </is>
       </c>
       <c r="AK116" t="inlineStr">
         <is>
-          <t>{"A": 12.400615966763313, "mu_m": 0.024538742509237092, "lambda": 6.852116040205515e-18}</t>
-        </is>
-      </c>
-      <c r="AL116" t="inlineStr">
-        <is>
           <t>{"A": 11.819821431967965, "mu_m": 0.02849781427077863, "lambda": 53.729965692538954}</t>
         </is>
       </c>
-      <c r="AM116" t="inlineStr">
-        <is>
-          <t>{"A": 11.819821431967965, "mu_m": 0.02849781427077863, "lambda": 53.729965692538954}</t>
-        </is>
-      </c>
-      <c r="AN116" t="inlineStr">
-        <is>
-          <t>{"A": 11.804757937731344, "mu_m": 0.022879164013144066, "lambda": 4.785888689665527e-19}</t>
-        </is>
+      <c r="AL116" t="n">
+        <v>206.312520334187</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>196.226151924069</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>49.7281751479985</v>
       </c>
       <c r="AO116" t="n">
-        <v>206.3125203341868</v>
+        <v>245127.004977546</v>
       </c>
       <c r="AP116" t="n">
-        <v>196.2261519240689</v>
+        <v>676.304203691052</v>
       </c>
       <c r="AQ116" t="n">
-        <v>257.9805348427398</v>
+        <v>436.691867635549</v>
       </c>
       <c r="AR116" t="n">
-        <v>252.6742346739113</v>
+        <v>1265</v>
       </c>
       <c r="AS116" t="n">
-        <v>49.7281751479985</v>
+        <v>570.030068278116</v>
       </c>
     </row>
     <row r="117">
@@ -28196,43 +27506,37 @@
       </c>
       <c r="AJ117" t="inlineStr">
         <is>
-          <t>{"A": 11.800460985223362, "mu_m": 0.02724458401061474, "lambda": 17.07141375200868}</t>
+          <t>{"A": 132100.5119530438, "mu_m": 324.7921172725613, "lambda": 400.48667324525525}</t>
         </is>
       </c>
       <c r="AK117" t="inlineStr">
         <is>
-          <t>{"A": 11.77297766381871, "mu_m": 0.023912156630255078, "lambda": 1.192199746624113e-19}</t>
-        </is>
-      </c>
-      <c r="AL117" t="inlineStr">
-        <is>
           <t>{"A": 11.199888987046155, "mu_m": 0.026018424480525146, "lambda": 28.996806568017927}</t>
         </is>
       </c>
-      <c r="AM117" t="inlineStr">
-        <is>
-          <t>{"A": 11.199888987046155, "mu_m": 0.026018424480525146, "lambda": 28.996806568017927}</t>
-        </is>
-      </c>
-      <c r="AN117" t="inlineStr">
-        <is>
-          <t>{"A": 11.17697273109453, "mu_m": 0.022215268055615297, "lambda": 2.0746653314142717e-18}</t>
-        </is>
+      <c r="AL117" t="n">
+        <v>187.354162326462</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>176.411229368868</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>44.4014515220611</v>
       </c>
       <c r="AO117" t="n">
-        <v>187.354162326462</v>
+        <v>132100.511953044</v>
       </c>
       <c r="AP117" t="n">
-        <v>176.4112293688677</v>
+        <v>324.792117272561</v>
       </c>
       <c r="AQ117" t="n">
-        <v>251.5606091970913</v>
+        <v>400.486673245255</v>
       </c>
       <c r="AR117" t="n">
-        <v>246.1713898470128</v>
+        <v>1219</v>
       </c>
       <c r="AS117" t="n">
-        <v>44.40145152206107</v>
+        <v>550.1118024628009</v>
       </c>
     </row>
     <row r="118">
@@ -28488,43 +27792,37 @@
       </c>
       <c r="AJ118" t="inlineStr">
         <is>
-          <t>{"A": 12.301745066942255, "mu_m": 0.03271892440000545, "lambda": 85.75542178266505}</t>
+          <t>{"A": 219446.0994753449, "mu_m": 618.9765827608583, "lambda": 428.87675992004876}</t>
         </is>
       </c>
       <c r="AK118" t="inlineStr">
         <is>
-          <t>{"A": 12.300186074529494, "mu_m": 0.024059981461048974, "lambda": 2.11276577242542e-09}</t>
-        </is>
-      </c>
-      <c r="AL118" t="inlineStr">
-        <is>
           <t>{"A": 12.039649066375976, "mu_m": 0.032084849530899476, "lambda": 89.80780420372498}</t>
         </is>
       </c>
-      <c r="AM118" t="inlineStr">
-        <is>
-          <t>{"A": 12.039649066375976, "mu_m": 0.032084849530899476, "lambda": 89.80780420372498}</t>
-        </is>
-      </c>
-      <c r="AN118" t="inlineStr">
-        <is>
-          <t>{"A": 12.038161497249495, "mu_m": 0.023590926257581926, "lambda": 4.247168214074926}</t>
-        </is>
+      <c r="AL118" t="n">
+        <v>227.852377739068</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>224.071677089013</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>59.3489570142784</v>
       </c>
       <c r="AO118" t="n">
-        <v>227.8523777390681</v>
+        <v>219446.099475345</v>
       </c>
       <c r="AP118" t="n">
-        <v>224.0716770890134</v>
+        <v>618.976582760858</v>
       </c>
       <c r="AQ118" t="n">
-        <v>259.3910605269198</v>
+        <v>428.876759920049</v>
       </c>
       <c r="AR118" t="n">
-        <v>255.6150364152212</v>
+        <v>1228</v>
       </c>
       <c r="AS118" t="n">
-        <v>59.34895701427835</v>
+        <v>559.3012552735875</v>
       </c>
     </row>
     <row r="119">
@@ -28780,43 +28078,37 @@
       </c>
       <c r="AJ119" t="inlineStr">
         <is>
-          <t>{"A": 12.368200079408288, "mu_m": 0.034905111331496305, "lambda": 105.81402203828405}</t>
+          <t>{"A": 234481.88747020205, "mu_m": 710.9484637674962, "lambda": 430.8929740023679}</t>
         </is>
       </c>
       <c r="AK119" t="inlineStr">
         <is>
-          <t>{"A": 12.366762785418155, "mu_m": 0.0256788574216882, "lambda": 25.30309520238811}</t>
-        </is>
-      </c>
-      <c r="AL119" t="inlineStr">
-        <is>
           <t>{"A": 12.106104459828918, "mu_m": 0.03423477710762586, "lambda": 109.64138580285758}</t>
         </is>
       </c>
-      <c r="AM119" t="inlineStr">
-        <is>
-          <t>{"A": 12.106104459828918, "mu_m": 0.03423477710762586, "lambda": 109.64138580285758}</t>
-        </is>
-      </c>
-      <c r="AN119" t="inlineStr">
-        <is>
-          <t>{"A": 12.104635238943699, "mu_m": 0.025232236599970218, "lambda": 30.171188665213943}</t>
-        </is>
+      <c r="AL119" t="n">
+        <v>239.730941503599</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>236.167610952457</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>61.5664187684404</v>
       </c>
       <c r="AO119" t="n">
-        <v>239.7309415035992</v>
+        <v>234481.887470202</v>
       </c>
       <c r="AP119" t="n">
-        <v>236.167610952457</v>
+        <v>710.948463767496</v>
       </c>
       <c r="AQ119" t="n">
-        <v>270.0356808790747</v>
+        <v>430.892974002368</v>
       </c>
       <c r="AR119" t="n">
-        <v>266.0996887255342</v>
+        <v>1191</v>
       </c>
       <c r="AS119" t="n">
-        <v>61.56641876844036</v>
+        <v>552.2253491653211</v>
       </c>
     </row>
     <row r="120">
@@ -29072,43 +28364,37 @@
       </c>
       <c r="AJ120" t="inlineStr">
         <is>
-          <t>{"A": 12.461541129594039, "mu_m": 0.03366107213595648, "lambda": 111.7853709003948}</t>
+          <t>{"A": 257022.4335392877, "mu_m": 774.4650150357251, "lambda": 455.1119599387285}</t>
         </is>
       </c>
       <c r="AK120" t="inlineStr">
         <is>
-          <t>{"A": 12.459679957878935, "mu_m": 0.025004165257250084, "lambda": 32.45047434088211}</t>
-        </is>
-      </c>
-      <c r="AL120" t="inlineStr">
-        <is>
           <t>{"A": 12.199432825569074, "mu_m": 0.03302921078280093, "lambda": 115.87411525670122}</t>
         </is>
       </c>
-      <c r="AM120" t="inlineStr">
-        <is>
-          <t>{"A": 12.199432825569074, "mu_m": 0.03302921078280093, "lambda": 115.87411525670122}</t>
-        </is>
-      </c>
-      <c r="AN120" t="inlineStr">
-        <is>
-          <t>{"A": 12.197530584490416, "mu_m": 0.024585711269935306, "lambda": 37.71189980459546}</t>
-        </is>
+      <c r="AL120" t="n">
+        <v>251.751431853556</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>247.976659412356</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>60.5351022227267</v>
       </c>
       <c r="AO120" t="n">
-        <v>251.7514318535563</v>
+        <v>257022.433539288</v>
       </c>
       <c r="AP120" t="n">
-        <v>247.9766594123564</v>
+        <v>774.4650150357249</v>
       </c>
       <c r="AQ120" t="n">
-        <v>285.7732727412856</v>
+        <v>455.111959938728</v>
       </c>
       <c r="AR120" t="n">
-        <v>281.6025621968482</v>
+        <v>1230</v>
       </c>
       <c r="AS120" t="n">
-        <v>60.53510222272674</v>
+        <v>577.2004563630576</v>
       </c>
     </row>
     <row r="121">
@@ -29364,43 +28650,37 @@
       </c>
       <c r="AJ121" t="inlineStr">
         <is>
-          <t>{"A": 12.231952186235704, "mu_m": 0.03475473874176883, "lambda": 123.48698867219777}</t>
+          <t>{"A": 204350.937063144, "mu_m": 647.8061715518962, "lambda": 447.2466853496631}</t>
         </is>
       </c>
       <c r="AK121" t="inlineStr">
         <is>
-          <t>{"A": 12.23024402785063, "mu_m": 0.025807933326802666, "lambda": 47.91643578834325}</t>
-        </is>
-      </c>
-      <c r="AL121" t="inlineStr">
-        <is>
           <t>{"A": 11.969847325714914, "mu_m": 0.0340897245758917, "lambda": 127.44397653668074}</t>
         </is>
       </c>
-      <c r="AM121" t="inlineStr">
-        <is>
-          <t>{"A": 11.969847325714914, "mu_m": 0.0340897245758917, "lambda": 127.44397653668074}</t>
-        </is>
-      </c>
-      <c r="AN121" t="inlineStr">
-        <is>
-          <t>{"A": 11.968100628786525, "mu_m": 0.025367501382711335, "lambda": 53.007800781864084}</t>
-        </is>
+      <c r="AL121" t="n">
+        <v>256.616646597078</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>252.962389656874</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>60.2088115642183</v>
       </c>
       <c r="AO121" t="n">
-        <v>256.6166465970783</v>
+        <v>204350.937063144</v>
       </c>
       <c r="AP121" t="n">
-        <v>252.9623896568743</v>
+        <v>647.806171551896</v>
       </c>
       <c r="AQ121" t="n">
-        <v>288.9021533282115</v>
+        <v>447.246685349663</v>
       </c>
       <c r="AR121" t="n">
-        <v>284.8638091595575</v>
+        <v>1163</v>
       </c>
       <c r="AS121" t="n">
-        <v>60.20881156421829</v>
+        <v>563.2945277923427</v>
       </c>
     </row>
     <row r="122">
@@ -29656,43 +28936,37 @@
       </c>
       <c r="AJ122" t="inlineStr">
         <is>
-          <t>{"A": 12.035599626111008, "mu_m": 0.03092541730489881, "lambda": 133.65739112119354}</t>
+          <t>{"A": 167248.00589000393, "mu_m": 527.0809522048141, "lambda": 494.9933022308349}</t>
         </is>
       </c>
       <c r="AK122" t="inlineStr">
         <is>
-          <t>{"A": 12.03283291909655, "mu_m": 0.023474462821106483, "lambda": 60.85782128314732}</t>
-        </is>
-      </c>
-      <c r="AL122" t="inlineStr">
-        <is>
           <t>{"A": 11.773457955124849, "mu_m": 0.03034655757377698, "lambda": 138.40716651222527}</t>
         </is>
       </c>
-      <c r="AM122" t="inlineStr">
-        <is>
-          <t>{"A": 11.773457955124849, "mu_m": 0.03034655757377698, "lambda": 138.40716651222527}</t>
-        </is>
-      </c>
-      <c r="AN122" t="inlineStr">
-        <is>
-          <t>{"A": 11.770627837900896, "mu_m": 0.023097982366763376, "lambda": 67.09666347671049}</t>
-        </is>
+      <c r="AL122" t="n">
+        <v>281.132189693421</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>276.829255900382</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>32.9245720007374</v>
       </c>
       <c r="AO122" t="n">
-        <v>281.1321896934207</v>
+        <v>167248.005890004</v>
       </c>
       <c r="AP122" t="n">
-        <v>276.8292559003817</v>
+        <v>527.080952204814</v>
       </c>
       <c r="AQ122" t="n">
-        <v>321.8944127129843</v>
+        <v>494.993302230835</v>
       </c>
       <c r="AR122" t="n">
-        <v>317.1540571287984</v>
+        <v>1191</v>
       </c>
       <c r="AS122" t="n">
-        <v>32.92457200073743</v>
+        <v>611.7250920754137</v>
       </c>
     </row>
     <row r="123">
@@ -29948,43 +29222,37 @@
       </c>
       <c r="AJ123" t="inlineStr">
         <is>
-          <t>{"A": 12.475809526047057, "mu_m": 0.02728143883725515, "lambda": 76.81368276164606}</t>
+          <t>{"A": 259882.0619693677, "mu_m": 655.1718599793359, "lambda": 502.0013837948666}</t>
         </is>
       </c>
       <c r="AK123" t="inlineStr">
         <is>
-          <t>{"A": 12.470544599954847, "mu_m": 0.02109464250632881, "lambda": 1.506509194567922e-14}</t>
-        </is>
-      </c>
-      <c r="AL123" t="inlineStr">
-        <is>
           <t>{"A": 12.213664415973442, "mu_m": 0.026781249968946458, "lambda": 82.0605884510896}</t>
         </is>
       </c>
-      <c r="AM123" t="inlineStr">
-        <is>
-          <t>{"A": 12.213664415973442, "mu_m": 0.026781249968946458, "lambda": 82.0605884510896}</t>
-        </is>
-      </c>
-      <c r="AN123" t="inlineStr">
-        <is>
-          <t>{"A": 12.209452431473778, "mu_m": 0.020478695065276758, "lambda": 1.357269117573361e-14}</t>
-        </is>
+      <c r="AL123" t="n">
+        <v>249.833042881475</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>245.045052961082</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>50.0924390665033</v>
       </c>
       <c r="AO123" t="n">
-        <v>249.8330428814754</v>
+        <v>259882.061969368</v>
       </c>
       <c r="AP123" t="n">
-        <v>245.0450529610823</v>
+        <v>655.171859979336</v>
       </c>
       <c r="AQ123" t="n">
-        <v>298.1013290289152</v>
+        <v>502.001383794867</v>
       </c>
       <c r="AR123" t="n">
-        <v>295.5855875778278</v>
+        <v>1404</v>
       </c>
       <c r="AS123" t="n">
-        <v>50.09243906650328</v>
+        <v>647.92533683337</v>
       </c>
     </row>
     <row r="124">
@@ -30240,43 +29508,37 @@
       </c>
       <c r="AJ124" t="inlineStr">
         <is>
-          <t>{"A": 12.67579136303751, "mu_m": 0.030590289948204764, "lambda": 79.54066829716932}</t>
+          <t>{"A": 318741.58375999995, "mu_m": 810.416243259147, "lambda": 459.7334142340528}</t>
         </is>
       </c>
       <c r="AK124" t="inlineStr">
         <is>
-          <t>{"A": 12.672222085070906, "mu_m": 0.023169029676738805, "lambda": 1.369571238479953e-15}</t>
-        </is>
-      </c>
-      <c r="AL124" t="inlineStr">
-        <is>
           <t>{"A": 12.41367516400404, "mu_m": 0.030025119616236877, "lambda": 84.02655406667292}</t>
         </is>
       </c>
-      <c r="AM124" t="inlineStr">
-        <is>
-          <t>{"A": 12.41367516400404, "mu_m": 0.030025119616236877, "lambda": 84.02655406667292}</t>
-        </is>
-      </c>
-      <c r="AN124" t="inlineStr">
-        <is>
-          <t>{"A": 12.410879103124035, "mu_m": 0.02251719328860167, "lambda": 2.5642020113592815e-13}</t>
-        </is>
+      <c r="AL124" t="n">
+        <v>236.12372938477</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>231.979989759492</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>48.2453691966755</v>
       </c>
       <c r="AO124" t="n">
-        <v>236.1237293847701</v>
+        <v>318741.58376</v>
       </c>
       <c r="AP124" t="n">
-        <v>231.9799897594917</v>
+        <v>810.416243259147</v>
       </c>
       <c r="AQ124" t="n">
-        <v>275.5867248651834</v>
+        <v>459.733414234053</v>
       </c>
       <c r="AR124" t="n">
-        <v>273.4733016849976</v>
+        <v>1385</v>
       </c>
       <c r="AS124" t="n">
-        <v>48.24536919667551</v>
+        <v>604.4226115287246</v>
       </c>
     </row>
     <row r="125">
@@ -30532,43 +29794,37 @@
       </c>
       <c r="AJ125" t="inlineStr">
         <is>
-          <t>{"A": 12.807781312024625, "mu_m": 0.03198187127380174, "lambda": 105.27245924846525}</t>
+          <t>{"A": 363294.31633145973, "mu_m": 979.9594354478498, "lambda": 474.8119634482531}</t>
         </is>
       </c>
       <c r="AK125" t="inlineStr">
         <is>
-          <t>{"A": 12.805257768365351, "mu_m": 0.023954338611722248, "lambda": 23.641384813136966}</t>
-        </is>
-      </c>
-      <c r="AL125" t="inlineStr">
-        <is>
           <t>{"A": 12.545654620988868, "mu_m": 0.03140581062380788, "lambda": 109.68137975703871}</t>
         </is>
       </c>
-      <c r="AM125" t="inlineStr">
-        <is>
-          <t>{"A": 12.545654620988868, "mu_m": 0.03140581062380788, "lambda": 109.68137975703871}</t>
-        </is>
-      </c>
-      <c r="AN125" t="inlineStr">
-        <is>
-          <t>{"A": 12.543077132863681, "mu_m": 0.023575016315119178, "lambda": 29.35998820185586}</t>
-        </is>
+      <c r="AL125" t="n">
+        <v>256.637892562366</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>252.59715427259</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>55.600121663443</v>
       </c>
       <c r="AO125" t="n">
-        <v>256.6378925623661</v>
+        <v>363294.31633146</v>
       </c>
       <c r="AP125" t="n">
-        <v>252.5971542725901</v>
+        <v>979.95943544785</v>
       </c>
       <c r="AQ125" t="n">
-        <v>295.3847698012545</v>
+        <v>474.811963448253</v>
       </c>
       <c r="AR125" t="n">
-        <v>290.9261129771405</v>
+        <v>1373</v>
       </c>
       <c r="AS125" t="n">
-        <v>55.60012166344296</v>
+        <v>611.1936392996622</v>
       </c>
     </row>
     <row r="126">
@@ -30824,43 +30080,37 @@
       </c>
       <c r="AJ126" t="inlineStr">
         <is>
-          <t>{"A": 12.753465414023465, "mu_m": 0.032476770035698176, "lambda": 93.82031816182105}</t>
+          <t>{"A": 344523.4882951629, "mu_m": 923.8451553166276, "lambda": 454.34084763249774}</t>
         </is>
       </c>
       <c r="AK126" t="inlineStr">
         <is>
-          <t>{"A": 12.75140863782355, "mu_m": 0.024101254782615652, "lambda": 9.093331647567863}</t>
-        </is>
-      </c>
-      <c r="AL126" t="inlineStr">
-        <is>
           <t>{"A": 12.49135310600143, "mu_m": 0.03188018942482851, "lambda": 98.04266295715435}</t>
         </is>
       </c>
-      <c r="AM126" t="inlineStr">
-        <is>
-          <t>{"A": 12.49135310600143, "mu_m": 0.03188018942482851, "lambda": 98.04266295715435}</t>
-        </is>
-      </c>
-      <c r="AN126" t="inlineStr">
-        <is>
-          <t>{"A": 12.489252110709128, "mu_m": 0.023705816679987897, "lambda": 14.51770274245974}</t>
-        </is>
+      <c r="AL126" t="n">
+        <v>242.185846640125</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>238.284737633128</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>52.9371613770507</v>
       </c>
       <c r="AO126" t="n">
-        <v>242.1858466401254</v>
+        <v>344523.488295163</v>
       </c>
       <c r="AP126" t="n">
-        <v>238.2847376331279</v>
+        <v>923.8451553166281</v>
       </c>
       <c r="AQ126" t="n">
-        <v>277.9393827314974</v>
+        <v>454.340847632498</v>
       </c>
       <c r="AR126" t="n">
-        <v>273.6316047133586</v>
+        <v>1350</v>
       </c>
       <c r="AS126" t="n">
-        <v>52.93716137705069</v>
+        <v>591.5317043632692</v>
       </c>
     </row>
     <row r="127">
@@ -31111,43 +30361,37 @@
       </c>
       <c r="AJ127" t="inlineStr">
         <is>
-          <t>{"A": 11.659470886411043, "mu_m": 0.015740769090347183, "lambda": 33.06008005389284}</t>
+          <t>{"A": 111844.73177284384, "mu_m": 222.88034877687974, "lambda": 717.5132543938981}</t>
         </is>
       </c>
       <c r="AK127" t="inlineStr">
         <is>
-          <t>{"A": 11.632169709757484, "mu_m": 0.013869041568227526, "lambda": 8.186313716647037e-13}</t>
-        </is>
-      </c>
-      <c r="AL127" t="inlineStr">
-        <is>
           <t>{"A": 11.396981606170742, "mu_m": 0.015469116969834542, "lambda": 43.828289556986064}</t>
         </is>
       </c>
-      <c r="AM127" t="inlineStr">
-        <is>
-          <t>{"A": 11.396981606170742, "mu_m": 0.015469116969834542, "lambda": 43.828289556986064}</t>
-        </is>
-      </c>
-      <c r="AN127" t="inlineStr">
-        <is>
-          <t>{"A": 11.37313054628485, "mu_m": 0.01339261985503432, "lambda": 3.965811264036703e-18}</t>
-        </is>
+      <c r="AL127" t="n">
+        <v>314.866076167255</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>305.5550013267</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>39.4725889194499</v>
       </c>
       <c r="AO127" t="n">
-        <v>314.8660761672547</v>
+        <v>111844.731772844</v>
       </c>
       <c r="AP127" t="n">
-        <v>305.5550013267002</v>
+        <v>222.88034877688</v>
       </c>
       <c r="AQ127" t="n">
-        <v>424.6043966524466</v>
+        <v>717.513254393898</v>
       </c>
       <c r="AR127" t="n">
-        <v>419.357374211263</v>
+        <v>1657</v>
       </c>
       <c r="AS127" t="n">
-        <v>39.47258891944995</v>
+        <v>902.1207249419333</v>
       </c>
     </row>
     <row r="128">
@@ -31403,43 +30647,37 @@
       </c>
       <c r="AJ128" t="inlineStr">
         <is>
-          <t>{"A": 12.062314822733514, "mu_m": 0.018164895658832923, "lambda": 1.0313921367373992e-09}</t>
+          <t>{"A": 169465.26749010113, "mu_m": 363.6740853415795, "lambda": 637.5034894924544}</t>
         </is>
       </c>
       <c r="AK128" t="inlineStr">
         <is>
-          <t>{"A": 12.03145175633184, "mu_m": 0.01681338930416721, "lambda": 9.378931919176287e-16}</t>
-        </is>
-      </c>
-      <c r="AL128" t="inlineStr">
-        <is>
           <t>{"A": 11.800911550668134, "mu_m": 0.017733688594203777, "lambda": 5.247625557388958}</t>
         </is>
       </c>
-      <c r="AM128" t="inlineStr">
-        <is>
-          <t>{"A": 11.800911550668134, "mu_m": 0.017733688594203777, "lambda": 5.247625557388958}</t>
-        </is>
-      </c>
-      <c r="AN128" t="inlineStr">
-        <is>
-          <t>{"A": 11.77169003261483, "mu_m": 0.016268830978576378, "lambda": 1.2454693912319348e-14}</t>
-        </is>
+      <c r="AL128" t="n">
+        <v>250.053590402873</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>244.288638899071</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>48.3001555504497</v>
       </c>
       <c r="AO128" t="n">
-        <v>250.0535904028731</v>
+        <v>169465.267490101</v>
       </c>
       <c r="AP128" t="n">
-        <v>244.2886388990714</v>
+        <v>363.674085341579</v>
       </c>
       <c r="AQ128" t="n">
-        <v>361.7865981924696</v>
+        <v>637.503489492454</v>
       </c>
       <c r="AR128" t="n">
-        <v>357.7937659883316</v>
+        <v>1595</v>
       </c>
       <c r="AS128" t="n">
-        <v>48.30015555044973</v>
+        <v>808.9283735164895</v>
       </c>
     </row>
     <row r="129">
@@ -31695,43 +30933,37 @@
       </c>
       <c r="AJ129" t="inlineStr">
         <is>
-          <t>{"A": 12.234040084326374, "mu_m": 0.019358431840539425, "lambda": 13.90569806577171}</t>
+          <t>{"A": 202258.61562774895, "mu_m": 403.28044135411744, "lambda": 604.8390349207189}</t>
         </is>
       </c>
       <c r="AK129" t="inlineStr">
         <is>
-          <t>{"A": 12.207463492390055, "mu_m": 0.01745598247284148, "lambda": 1.533510137612058e-18}</t>
-        </is>
-      </c>
-      <c r="AL129" t="inlineStr">
-        <is>
           <t>{"A": 11.971797140663531, "mu_m": 0.019009555332196813, "lambda": 21.735745608489637}</t>
         </is>
       </c>
-      <c r="AM129" t="inlineStr">
-        <is>
-          <t>{"A": 11.971797140663531, "mu_m": 0.019009555332196813, "lambda": 21.735745608489637}</t>
-        </is>
-      </c>
-      <c r="AN129" t="inlineStr">
-        <is>
-          <t>{"A": 11.947457438959594, "mu_m": 0.016904119689458996, "lambda": 4.994465427038957e-13}</t>
-        </is>
+      <c r="AL129" t="n">
+        <v>253.418074046006</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>246.396215198775</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>48.9426849717117</v>
       </c>
       <c r="AO129" t="n">
-        <v>253.4180740460064</v>
+        <v>202258.615627749</v>
       </c>
       <c r="AP129" t="n">
-        <v>246.3962151987752</v>
+        <v>403.280441354117</v>
       </c>
       <c r="AQ129" t="n">
-        <v>353.388927032082</v>
+        <v>604.839034920719</v>
       </c>
       <c r="AR129" t="n">
-        <v>349.6641770631581</v>
+        <v>1655</v>
       </c>
       <c r="AS129" t="n">
-        <v>48.94268497171169</v>
+        <v>789.3428661489484</v>
       </c>
     </row>
     <row r="130">
@@ -31987,43 +31219,37 @@
       </c>
       <c r="AJ130" t="inlineStr">
         <is>
-          <t>{"A": 12.267676624398339, "mu_m": 0.0203817293424328, "lambda": 40.20303313582025}</t>
+          <t>{"A": 209325.97195452653, "mu_m": 448.1671432451065, "lambda": 609.4939343383234}</t>
         </is>
       </c>
       <c r="AK130" t="inlineStr">
         <is>
-          <t>{"A": 12.248392264883723, "mu_m": 0.01747571151717361, "lambda": 1.044572300476259e-15}</t>
-        </is>
-      </c>
-      <c r="AL130" t="inlineStr">
-        <is>
           <t>{"A": 12.005432768410978, "mu_m": 0.02001804968187041, "lambda": 47.71827378626585}</t>
         </is>
       </c>
-      <c r="AM130" t="inlineStr">
-        <is>
-          <t>{"A": 12.005432768410978, "mu_m": 0.02001804968187041, "lambda": 47.71827378626585}</t>
-        </is>
-      </c>
-      <c r="AN130" t="inlineStr">
-        <is>
-          <t>{"A": 11.988255127721006, "mu_m": 0.016927809916187034, "lambda": 3.9483000119242714e-14}</t>
-        </is>
+      <c r="AL130" t="n">
+        <v>268.346754984624</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>261.628111706555</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>56.20618411422</v>
       </c>
       <c r="AO130" t="n">
-        <v>268.3467549846244</v>
+        <v>209325.971954526</v>
       </c>
       <c r="AP130" t="n">
-        <v>261.6281117065547</v>
+        <v>448.167143245107</v>
       </c>
       <c r="AQ130" t="n">
-        <v>354.0994135413043</v>
+        <v>609.493934338323</v>
       </c>
       <c r="AR130" t="n">
-        <v>350.4404456678936</v>
+        <v>1606</v>
       </c>
       <c r="AS130" t="n">
-        <v>56.20618411422002</v>
+        <v>781.3198317651326</v>
       </c>
     </row>
     <row r="131">
@@ -32262,43 +31488,37 @@
       </c>
       <c r="AJ131" t="inlineStr">
         <is>
-          <t>{"A": 13.015614252650293, "mu_m": 0.01722139494728094, "lambda": 1.5864966806742448e-17}</t>
+          <t>{"A": 456187.6213529287, "mu_m": 529.3122994286366, "lambda": 677.3204256014202}</t>
         </is>
       </c>
       <c r="AK131" t="inlineStr">
         <is>
-          <t>{"A": 12.968888866599183, "mu_m": 0.016094851772086062, "lambda": 1.1843645927199918e-16}</t>
-        </is>
-      </c>
-      <c r="AL131" t="inlineStr">
-        <is>
           <t>{"A": 12.756961073048954, "mu_m": 0.01667576253937002, "lambda": 8.541750702323275e-20}</t>
         </is>
       </c>
-      <c r="AM131" t="inlineStr">
-        <is>
-          <t>{"A": 12.756961073048954, "mu_m": 0.01667576253937002, "lambda": 8.541750702323275e-20}</t>
-        </is>
-      </c>
-      <c r="AN131" t="inlineStr">
-        <is>
-          <t>{"A": 12.710412231690583, "mu_m": 0.015590438295540864, "lambda": 1.3615831406689246e-16}</t>
-        </is>
+      <c r="AL131" t="n">
+        <v>281.427832731443</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>278.036530282586</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>53.9829340321266</v>
       </c>
       <c r="AO131" t="n">
-        <v>281.4278327314432</v>
+        <v>456187.621352929</v>
       </c>
       <c r="AP131" t="n">
-        <v>278.036530282586</v>
+        <v>529.3122994286369</v>
       </c>
       <c r="AQ131" t="n">
-        <v>407.6348589675629</v>
+        <v>677.32042560142</v>
       </c>
       <c r="AR131" t="n">
-        <v>402.8893540073367</v>
+        <v>2568</v>
       </c>
       <c r="AS131" t="n">
-        <v>53.98293403212659</v>
+        <v>994.3771941552577</v>
       </c>
     </row>
     <row r="132">
@@ -32537,43 +31757,37 @@
       </c>
       <c r="AJ132" t="inlineStr">
         <is>
-          <t>{"A": 12.715642549286647, "mu_m": 0.016731084801664048, "lambda": 4.779442374248916e-10}</t>
+          <t>{"A": 333023.2625262266, "mu_m": 399.64725026622995, "lambda": 657.9901136126689}</t>
         </is>
       </c>
       <c r="AK132" t="inlineStr">
         <is>
-          <t>{"A": 12.670222803882668, "mu_m": 0.015637439168181638, "lambda": 7.849951887887664e-16}</t>
-        </is>
-      </c>
-      <c r="AL132" t="inlineStr">
-        <is>
           <t>{"A": 12.453946689458625, "mu_m": 0.01639850138418398, "lambda": 7.587516694379841}</t>
         </is>
       </c>
-      <c r="AM132" t="inlineStr">
-        <is>
-          <t>{"A": 12.453946689458625, "mu_m": 0.01639850138418398, "lambda": 7.587516694379841}</t>
-        </is>
-      </c>
-      <c r="AN132" t="inlineStr">
-        <is>
-          <t>{"A": 12.411440113931723, "mu_m": 0.015140393639214126, "lambda": 2.9742157985724682e-15}</t>
-        </is>
+      <c r="AL132" t="n">
+        <v>286.975909643249</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>279.588773270107</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>44.0465369367117</v>
       </c>
       <c r="AO132" t="n">
-        <v>286.9759096432493</v>
+        <v>333023.262526227</v>
       </c>
       <c r="AP132" t="n">
-        <v>279.588773270107</v>
+        <v>399.64725026623</v>
       </c>
       <c r="AQ132" t="n">
-        <v>409.8783826130411</v>
+        <v>657.990113612669</v>
       </c>
       <c r="AR132" t="n">
-        <v>405.1246072842755</v>
+        <v>2399</v>
       </c>
       <c r="AS132" t="n">
-        <v>44.04653693671171</v>
+        <v>964.5414826853344</v>
       </c>
     </row>
     <row r="133">
@@ -32812,43 +32026,37 @@
       </c>
       <c r="AJ133" t="inlineStr">
         <is>
-          <t>{"A": 12.710870805336361, "mu_m": 0.016912542179813857, "lambda": 3.1908347826137335}</t>
+          <t>{"A": 331593.57366677705, "mu_m": 411.58564802498057, "lambda": 665.4951760151246}</t>
         </is>
       </c>
       <c r="AK133" t="inlineStr">
         <is>
-          <t>{"A": 12.666499211157802, "mu_m": 0.015727549324641238, "lambda": 1.1838118164638146e-12}</t>
-        </is>
-      </c>
-      <c r="AL133" t="inlineStr">
-        <is>
           <t>{"A": 12.448436520548938, "mu_m": 0.01663107007328345, "lambda": 12.622008936850103}</t>
         </is>
       </c>
-      <c r="AM133" t="inlineStr">
-        <is>
-          <t>{"A": 12.448436520548938, "mu_m": 0.01663107007328345, "lambda": 12.622008936850103}</t>
-        </is>
-      </c>
-      <c r="AN133" t="inlineStr">
-        <is>
-          <t>{"A": 12.407699483357314, "mu_m": 0.015227718761175252, "lambda": 3.526863596443949e-15}</t>
-        </is>
+      <c r="AL133" t="n">
+        <v>287.981552878305</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>279.676060891951</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>46.7661214606551</v>
       </c>
       <c r="AO133" t="n">
-        <v>287.9815528783054</v>
+        <v>331593.573666777</v>
       </c>
       <c r="AP133" t="n">
-        <v>279.6760608919512</v>
+        <v>411.585648024981</v>
       </c>
       <c r="AQ133" t="n">
-        <v>407.4050643420114</v>
+        <v>665.495176015125</v>
       </c>
       <c r="AR133" t="n">
-        <v>402.6850893836499</v>
+        <v>2358</v>
       </c>
       <c r="AS133" t="n">
-        <v>46.76612146065514</v>
+        <v>961.8768869954154</v>
       </c>
     </row>
     <row r="134">
@@ -33104,43 +32312,37 @@
       </c>
       <c r="AJ134" t="inlineStr">
         <is>
-          <t>{"A": 12.8717076905538, "mu_m": 0.01746340535806702, "lambda": 16.164897820919258}</t>
+          <t>{"A": 383806.25596293557, "mu_m": 580.9447410437004, "lambda": 699.3846764140826}</t>
         </is>
       </c>
       <c r="AK134" t="inlineStr">
         <is>
-          <t>{"A": 12.833279939286841, "mu_m": 0.015861104097776378, "lambda": 1.6966988540734933e-14}</t>
-        </is>
-      </c>
-      <c r="AL134" t="inlineStr">
-        <is>
           <t>{"A": 12.609298150413965, "mu_m": 0.017177323337245302, "lambda": 25.3527910853348}</t>
         </is>
       </c>
-      <c r="AM134" t="inlineStr">
-        <is>
-          <t>{"A": 12.609298150413965, "mu_m": 0.017177323337245302, "lambda": 25.3527910853348}</t>
-        </is>
-      </c>
-      <c r="AN134" t="inlineStr">
-        <is>
-          <t>{"A": 12.574387074058508, "mu_m": 0.01536492182997639, "lambda": 2.09253136181407e-19}</t>
-        </is>
+      <c r="AL134" t="n">
+        <v>295.400776214681</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>287.316860169185</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>49.1556682606791</v>
       </c>
       <c r="AO134" t="n">
-        <v>295.400776214681</v>
+        <v>383806.255962936</v>
       </c>
       <c r="AP134" t="n">
-        <v>287.3168601691849</v>
+        <v>580.944741043701</v>
       </c>
       <c r="AQ134" t="n">
-        <v>409.1913780363773</v>
+        <v>699.3846764140829</v>
       </c>
       <c r="AR134" t="n">
-        <v>404.5519107678633</v>
+        <v>2172</v>
       </c>
       <c r="AS134" t="n">
-        <v>49.15566826067905</v>
+        <v>942.4274668662083</v>
       </c>
     </row>
     <row r="135">
@@ -33396,43 +32598,37 @@
       </c>
       <c r="AJ135" t="inlineStr">
         <is>
-          <t>{"A": 13.21959544715525, "mu_m": 0.017936825043843405, "lambda": 2.744294943173247e-13}</t>
+          <t>{"A": 546178.5401292959, "mu_m": 810.427090244224, "lambda": 693.5471099266898}</t>
         </is>
       </c>
       <c r="AK135" t="inlineStr">
         <is>
-          <t>{"A": 13.176432341535165, "mu_m": 0.016714200589138997, "lambda": 1.766495483304969e-17}</t>
-        </is>
-      </c>
-      <c r="AL135" t="inlineStr">
-        <is>
           <t>{"A": 12.96053706800209, "mu_m": 0.017383374722748403, "lambda": 7.898516756630988e-18}</t>
         </is>
       </c>
-      <c r="AM135" t="inlineStr">
-        <is>
-          <t>{"A": 12.96053706800209, "mu_m": 0.017383374722748403, "lambda": 7.898516756630988e-18}</t>
-        </is>
-      </c>
-      <c r="AN135" t="inlineStr">
-        <is>
-          <t>{"A": 12.91759108282964, "mu_m": 0.016203988026636838, "lambda": 2.008063324161485e-17}</t>
-        </is>
+      <c r="AL135" t="n">
+        <v>274.280179188621</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>271.130335147092</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>51.6871768105297</v>
       </c>
       <c r="AO135" t="n">
-        <v>274.2801791886208</v>
+        <v>546178.540129296</v>
       </c>
       <c r="AP135" t="n">
-        <v>271.1303351470924</v>
+        <v>810.427090244224</v>
       </c>
       <c r="AQ135" t="n">
-        <v>398.5929593873782</v>
+        <v>693.54710992669</v>
       </c>
       <c r="AR135" t="n">
-        <v>394.1687869325112</v>
+        <v>2278</v>
       </c>
       <c r="AS135" t="n">
-        <v>51.68717681052969</v>
+        <v>941.4754659026107</v>
       </c>
     </row>
     <row r="136">
@@ -33688,43 +32884,37 @@
       </c>
       <c r="AJ136" t="inlineStr">
         <is>
-          <t>{"A": 13.233554316663144, "mu_m": 0.018211165668066836, "lambda": 7.398088296139632e-12}</t>
+          <t>{"A": 548658.952808288, "mu_m": 912.7524067620202, "lambda": 694.0285909434828}</t>
         </is>
       </c>
       <c r="AK136" t="inlineStr">
         <is>
-          <t>{"A": 13.192354903618755, "mu_m": 0.01694758733470914, "lambda": 4.311958754972826e-15}</t>
-        </is>
-      </c>
-      <c r="AL136" t="inlineStr">
-        <is>
           <t>{"A": 12.974257483436098, "mu_m": 0.017653719146846828, "lambda": 3.817852117238499e-21}</t>
         </is>
       </c>
-      <c r="AM136" t="inlineStr">
-        <is>
-          <t>{"A": 12.974257483436098, "mu_m": 0.017653719146846828, "lambda": 3.817852117238499e-21}</t>
-        </is>
-      </c>
-      <c r="AN136" t="inlineStr">
-        <is>
-          <t>{"A": 12.933270040172637, "mu_m": 0.01643472495719575, "lambda": 2.0200285075548184e-19}</t>
-        </is>
+      <c r="AL136" t="n">
+        <v>270.365839227333</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>267.327894076694</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>54.4905410337178</v>
       </c>
       <c r="AO136" t="n">
-        <v>270.3658392273327</v>
+        <v>548658.952808288</v>
       </c>
       <c r="AP136" t="n">
-        <v>267.3278940766942</v>
+        <v>912.75240676202</v>
       </c>
       <c r="AQ136" t="n">
-        <v>393.4738814874403</v>
+        <v>694.028590943483</v>
       </c>
       <c r="AR136" t="n">
-        <v>389.2104121688294</v>
+        <v>2134</v>
       </c>
       <c r="AS136" t="n">
-        <v>54.49054103371778</v>
+        <v>915.1623260698009</v>
       </c>
     </row>
     <row r="137">
@@ -33980,43 +33170,37 @@
       </c>
       <c r="AJ137" t="inlineStr">
         <is>
-          <t>{"A": 12.394341286996678, "mu_m": 0.034519485526678564, "lambda": 132.57278006146936}</t>
+          <t>{"A": 240080.92784247495, "mu_m": 763.8936517381791, "lambda": 464.7489794576923}</t>
         </is>
       </c>
       <c r="AK137" t="inlineStr">
         <is>
-          <t>{"A": 12.392242368388539, "mu_m": 0.02585856976607441, "lambda": 59.521417068798215}</t>
-        </is>
-      </c>
-      <c r="AL137" t="inlineStr">
-        <is>
           <t>{"A": 12.132224696863231, "mu_m": 0.03387698282797403, "lambda": 136.66179145989568}</t>
         </is>
       </c>
-      <c r="AM137" t="inlineStr">
-        <is>
-          <t>{"A": 12.132224696863231, "mu_m": 0.03387698282797403, "lambda": 136.66179145989568}</t>
-        </is>
-      </c>
-      <c r="AN137" t="inlineStr">
-        <is>
-          <t>{"A": 12.130079000687502, "mu_m": 0.02543579982908483, "lambda": 64.83141878468511}</t>
-        </is>
+      <c r="AL137" t="n">
+        <v>268.408944514002</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>264.661172364551</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>66.0620785441495</v>
       </c>
       <c r="AO137" t="n">
-        <v>268.4089445140017</v>
+        <v>240080.927842475</v>
       </c>
       <c r="AP137" t="n">
-        <v>264.6611723645512</v>
+        <v>763.893651738179</v>
       </c>
       <c r="AQ137" t="n">
-        <v>303.276427044603</v>
+        <v>464.748979457692</v>
       </c>
       <c r="AR137" t="n">
-        <v>299.1371901083178</v>
+        <v>1197</v>
       </c>
       <c r="AS137" t="n">
-        <v>66.0620785441495</v>
+        <v>580.3682641181209</v>
       </c>
     </row>
     <row r="138">
@@ -34275,43 +33459,37 @@
       </c>
       <c r="AJ138" t="inlineStr">
         <is>
-          <t>{"A": 12.216438115943518, "mu_m": 0.03611901668696425, "lambda": 49.97531750351477}</t>
+          <t>{"A": 201840.99832907048, "mu_m": 590.2352025951392, "lambda": 348.6116385315856}</t>
         </is>
       </c>
       <c r="AK138" t="inlineStr">
         <is>
-          <t>{"A": 12.211604986252793, "mu_m": 0.02845845488886854, "lambda": 1.5427246649381027e-16}</t>
-        </is>
-      </c>
-      <c r="AL138" t="inlineStr">
-        <is>
           <t>{"A": 11.616117578315537, "mu_m": 0.03453196695450591, "lambda": 58.80503077231664}</t>
         </is>
       </c>
-      <c r="AM138" t="inlineStr">
-        <is>
-          <t>{"A": 11.616117578315537, "mu_m": 0.03453196695450591, "lambda": 58.80503077231664}</t>
-        </is>
-      </c>
-      <c r="AN138" t="inlineStr">
-        <is>
-          <t>{"A": 11.612758002567144, "mu_m": 0.02655269651128756, "lambda": 8.780317061458476e-17}</t>
-        </is>
+      <c r="AL138" t="n">
+        <v>182.555028822598</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>174.402193964435</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>33.750282497667</v>
       </c>
       <c r="AO138" t="n">
-        <v>182.555028822598</v>
+        <v>201840.99832907</v>
       </c>
       <c r="AP138" t="n">
-        <v>174.4021939644348</v>
+        <v>590.235202595139</v>
       </c>
       <c r="AQ138" t="n">
-        <v>218.6737983020021</v>
+        <v>348.611638531586</v>
       </c>
       <c r="AR138" t="n">
-        <v>214.5514405813601</v>
+        <v>1113</v>
       </c>
       <c r="AS138" t="n">
-        <v>33.75028249766699</v>
+        <v>474.4142903292235</v>
       </c>
     </row>
     <row r="139">
@@ -34570,43 +33748,37 @@
       </c>
       <c r="AJ139" t="inlineStr">
         <is>
-          <t>{"A": 12.122051628963789, "mu_m": 0.03230758521940274, "lambda": 2.320416125019003e-11}</t>
+          <t>{"A": 183748.8648627946, "mu_m": 479.30040287698506, "lambda": 330.3282899118015}</t>
         </is>
       </c>
       <c r="AK139" t="inlineStr">
         <is>
-          <t>{"A": 12.109726757084664, "mu_m": 0.02926546837300834, "lambda": 2.2677668608413304e-17}</t>
-        </is>
-      </c>
-      <c r="AL139" t="inlineStr">
-        <is>
           <t>{"A": 11.521945682108866, "mu_m": 0.030738885677446027, "lambda": 8.180963686771467}</t>
         </is>
       </c>
-      <c r="AM139" t="inlineStr">
-        <is>
-          <t>{"A": 11.521945682108866, "mu_m": 0.030738885677446027, "lambda": 8.180963686771467}</t>
-        </is>
-      </c>
-      <c r="AN139" t="inlineStr">
-        <is>
-          <t>{"A": 11.510912273925378, "mu_m": 0.02729177826511053, "lambda": 5.4326901650117946e-17}</t>
-        </is>
+      <c r="AL139" t="n">
+        <v>146.074281721132</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>138.031163543512</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>31.5428399597435</v>
       </c>
       <c r="AO139" t="n">
-        <v>146.0742817211322</v>
+        <v>183748.864862795</v>
       </c>
       <c r="AP139" t="n">
-        <v>138.0311635435117</v>
+        <v>479.300402876985</v>
       </c>
       <c r="AQ139" t="n">
-        <v>210.8860800880972</v>
+        <v>330.328289911801</v>
       </c>
       <c r="AR139" t="n">
-        <v>206.8944635147803</v>
+        <v>1158</v>
       </c>
       <c r="AS139" t="n">
-        <v>31.54283995974345</v>
+        <v>471.3618240291531</v>
       </c>
     </row>
     <row r="140">
@@ -34865,43 +34037,37 @@
       </c>
       <c r="AJ140" t="inlineStr">
         <is>
-          <t>{"A": 12.28806164796047, "mu_m": 0.03581197723981138, "lambda": 42.56239491376288}</t>
+          <t>{"A": 216400.8299321916, "mu_m": 675.9572915121126, "lambda": 355.4799796467713}</t>
         </is>
       </c>
       <c r="AK140" t="inlineStr">
         <is>
-          <t>{"A": 12.28218677946615, "mu_m": 0.028820628794491418, "lambda": 9.219444914786339e-21}</t>
-        </is>
-      </c>
-      <c r="AL140" t="inlineStr">
-        <is>
           <t>{"A": 11.687746964452115, "mu_m": 0.03424481223526302, "lambda": 51.43938328644074}</t>
         </is>
       </c>
-      <c r="AM140" t="inlineStr">
-        <is>
-          <t>{"A": 11.687746964452115, "mu_m": 0.03424481223526302, "lambda": 51.43938328644074}</t>
-        </is>
-      </c>
-      <c r="AN140" t="inlineStr">
-        <is>
-          <t>{"A": 11.683326892750172, "mu_m": 0.02690351144264108, "lambda": 8.204153414298523e-29}</t>
-        </is>
+      <c r="AL140" t="n">
+        <v>176.996556510137</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>168.791818714093</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>45.6836532304197</v>
       </c>
       <c r="AO140" t="n">
-        <v>176.9965565101368</v>
+        <v>216400.829932192</v>
       </c>
       <c r="AP140" t="n">
-        <v>168.7918187140931</v>
+        <v>675.957291512113</v>
       </c>
       <c r="AQ140" t="n">
-        <v>217.1338659204264</v>
+        <v>355.479979646771</v>
       </c>
       <c r="AR140" t="n">
-        <v>213.0797850915328</v>
+        <v>1087</v>
       </c>
       <c r="AS140" t="n">
-        <v>45.68365323041967</v>
+        <v>473.2528291805119</v>
       </c>
     </row>
     <row r="141">
@@ -35160,43 +34326,37 @@
       </c>
       <c r="AJ141" t="inlineStr">
         <is>
-          <t>{"A": 12.385126644431233, "mu_m": 0.033674657839017214, "lambda": 16.33836232885763}</t>
+          <t>{"A": 238200.69802711243, "mu_m": 729.9866757141245, "lambda": 359.8801675240654}</t>
         </is>
       </c>
       <c r="AK141" t="inlineStr">
         <is>
-          <t>{"A": 12.374886047156444, "mu_m": 0.029218976013009518, "lambda": 3.980569158833083e-15}</t>
-        </is>
-      </c>
-      <c r="AL141" t="inlineStr">
-        <is>
           <t>{"A": 11.784822560056428, "mu_m": 0.03219937268783502, "lambda": 25.6186114052561}</t>
         </is>
       </c>
-      <c r="AM141" t="inlineStr">
-        <is>
-          <t>{"A": 11.784822560056428, "mu_m": 0.03219937268783502, "lambda": 25.6186114052561}</t>
-        </is>
-      </c>
-      <c r="AN141" t="inlineStr">
-        <is>
-          <t>{"A": 11.776127358355145, "mu_m": 0.02728336672706294, "lambda": 3.295423040323483e-18}</t>
-        </is>
+      <c r="AL141" t="n">
+        <v>160.260797752448</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>151.639914331914</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>49.1279455396266</v>
       </c>
       <c r="AO141" t="n">
-        <v>160.260797752448</v>
+        <v>238200.698027112</v>
       </c>
       <c r="AP141" t="n">
-        <v>151.6399143319136</v>
+        <v>729.986675714125</v>
       </c>
       <c r="AQ141" t="n">
-        <v>215.8114773033886</v>
+        <v>359.880167524065</v>
       </c>
       <c r="AR141" t="n">
-        <v>211.7611178715952</v>
+        <v>1115</v>
       </c>
       <c r="AS141" t="n">
-        <v>49.12794553962663</v>
+        <v>479.9222759517789</v>
       </c>
     </row>
     <row r="142">
@@ -35455,43 +34615,37 @@
       </c>
       <c r="AJ142" t="inlineStr">
         <is>
-          <t>{"A": 12.166732400207461, "mu_m": 0.03329113485279815, "lambda": 50.000671655850994}</t>
+          <t>{"A": 191300.90414668585, "mu_m": 588.0618176231227, "lambda": 384.58119035144614}</t>
         </is>
       </c>
       <c r="AK142" t="inlineStr">
         <is>
-          <t>{"A": 12.16103198764356, "mu_m": 0.0265025290967438, "lambda": 2.0781605961182858e-19}</t>
-        </is>
-      </c>
-      <c r="AL142" t="inlineStr">
-        <is>
           <t>{"A": 11.566366822268984, "mu_m": 0.031855962801683506, "lambda": 59.987157170069445}</t>
         </is>
       </c>
-      <c r="AM142" t="inlineStr">
-        <is>
-          <t>{"A": 11.566366822268984, "mu_m": 0.031855962801683506, "lambda": 59.987157170069445}</t>
-        </is>
-      </c>
-      <c r="AN142" t="inlineStr">
-        <is>
-          <t>{"A": 11.562546300619985, "mu_m": 0.02468961074359119, "lambda": 8.889514595838279e-18}</t>
-        </is>
+      <c r="AL142" t="n">
+        <v>193.558023932111</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>184.447596822615</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>40.0537441341029</v>
       </c>
       <c r="AO142" t="n">
-        <v>193.5580239321112</v>
+        <v>191300.904146686</v>
       </c>
       <c r="AP142" t="n">
-        <v>184.447596822615</v>
+        <v>588.061817623123</v>
       </c>
       <c r="AQ142" t="n">
-        <v>234.1581327607876</v>
+        <v>384.581190351446</v>
       </c>
       <c r="AR142" t="n">
-        <v>229.43153733086</v>
+        <v>1111</v>
       </c>
       <c r="AS142" t="n">
-        <v>40.05374413410293</v>
+        <v>504.2551219076976</v>
       </c>
     </row>
     <row r="143">
@@ -35750,43 +34904,37 @@
       </c>
       <c r="AJ143" t="inlineStr">
         <is>
-          <t>{"A": 12.176009852735438, "mu_m": 0.03294616704382951, "lambda": 40.32229817221061}</t>
+          <t>{"A": 193057.71299307156, "mu_m": 595.5286489708415, "lambda": 381.41685330448064}</t>
         </is>
       </c>
       <c r="AK143" t="inlineStr">
         <is>
-          <t>{"A": 12.168717513580214, "mu_m": 0.026925331152127703, "lambda": 3.534096855390133e-27}</t>
-        </is>
-      </c>
-      <c r="AL143" t="inlineStr">
-        <is>
           <t>{"A": 11.575661143915227, "mu_m": 0.031514187150453, "lambda": 50.26264898177044}</t>
         </is>
       </c>
-      <c r="AM143" t="inlineStr">
-        <is>
-          <t>{"A": 11.575661143915227, "mu_m": 0.031514187150453, "lambda": 50.26264898177044}</t>
-        </is>
-      </c>
-      <c r="AN143" t="inlineStr">
-        <is>
-          <t>{"A": 11.570207762088081, "mu_m": 0.02508802651223212, "lambda": 9.776404967874221e-20}</t>
-        </is>
+      <c r="AL143" t="n">
+        <v>185.390606827648</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>176.280562888203</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>48.1537347992258</v>
       </c>
       <c r="AO143" t="n">
-        <v>185.3906068276481</v>
+        <v>193057.712993072</v>
       </c>
       <c r="AP143" t="n">
-        <v>176.2805628882033</v>
+        <v>595.528648970841</v>
       </c>
       <c r="AQ143" t="n">
-        <v>230.5922260654264</v>
+        <v>381.416853304481</v>
       </c>
       <c r="AR143" t="n">
-        <v>225.9715478488853</v>
+        <v>1107</v>
       </c>
       <c r="AS143" t="n">
-        <v>48.15373479922579</v>
+        <v>500.6755383273832</v>
       </c>
     </row>
     <row r="144">
@@ -36045,43 +35193,37 @@
       </c>
       <c r="AJ144" t="inlineStr">
         <is>
-          <t>{"A": 12.883179644495087, "mu_m": 0.0420308894569205, "lambda": 68.39287108478538}</t>
+          <t>{"A": 392758.42460937315, "mu_m": 1334.5969782915033, "lambda": 350.56659017892036}</t>
         </is>
       </c>
       <c r="AK144" t="inlineStr">
         <is>
-          <t>{"A": 12.88171909027806, "mu_m": 0.031106696154052565, "lambda": 1.2053870121730985}</t>
-        </is>
-      </c>
-      <c r="AL144" t="inlineStr">
-        <is>
           <t>{"A": 12.282878494552268, "mu_m": 0.04027377846498571, "lambda": 75.92477385382381}</t>
         </is>
       </c>
-      <c r="AM144" t="inlineStr">
-        <is>
-          <t>{"A": 12.282878494552268, "mu_m": 0.04027377846498571, "lambda": 75.92477385382381}</t>
-        </is>
-      </c>
-      <c r="AN144" t="inlineStr">
-        <is>
-          <t>{"A": 12.28134486460426, "mu_m": 0.029940868029696265, "lambda": 10.865736511186665}</t>
-        </is>
+      <c r="AL144" t="n">
+        <v>188.122304077643</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>181.154151880088</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>55.2429151618399</v>
       </c>
       <c r="AO144" t="n">
-        <v>188.1223040776426</v>
+        <v>392758.424609373</v>
       </c>
       <c r="AP144" t="n">
-        <v>181.1541518800884</v>
+        <v>1334.5969782915</v>
       </c>
       <c r="AQ144" t="n">
-        <v>215.9590700181386</v>
+        <v>350.56659017892</v>
       </c>
       <c r="AR144" t="n">
-        <v>208.2623985714003</v>
+        <v>1097</v>
       </c>
       <c r="AS144" t="n">
-        <v>55.24291516183993</v>
+        <v>458.8297978070685</v>
       </c>
     </row>
     <row r="145">
@@ -36340,43 +35482,37 @@
       </c>
       <c r="AJ145" t="inlineStr">
         <is>
-          <t>{"A": 12.689844904434525, "mu_m": 0.042037098216057174, "lambda": 69.72383029952192}</t>
+          <t>{"A": 323567.15719088656, "mu_m": 1156.5804649976499, "lambda": 350.362729556583}</t>
         </is>
       </c>
       <c r="AK145" t="inlineStr">
         <is>
-          <t>{"A": 12.68850883051166, "mu_m": 0.03106119942534633, "lambda": 2.946922411370278}</t>
-        </is>
-      </c>
-      <c r="AL145" t="inlineStr">
-        <is>
           <t>{"A": 12.089550479115706, "mu_m": 0.04024866654119241, "lambda": 77.22544678946053}</t>
         </is>
       </c>
-      <c r="AM145" t="inlineStr">
-        <is>
-          <t>{"A": 12.089550479115706, "mu_m": 0.04024866654119241, "lambda": 77.22544678946053}</t>
-        </is>
-      </c>
-      <c r="AN145" t="inlineStr">
-        <is>
-          <t>{"A": 12.088146207782815, "mu_m": 0.029873451091405774, "lambda": 12.552141222237253}</t>
-        </is>
+      <c r="AL145" t="n">
+        <v>187.725929326422</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>180.776525421386</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>52.9693619655421</v>
       </c>
       <c r="AO145" t="n">
-        <v>187.7259293264223</v>
+        <v>323567.157190887</v>
       </c>
       <c r="AP145" t="n">
-        <v>180.7765254213859</v>
+        <v>1156.58046499765</v>
       </c>
       <c r="AQ145" t="n">
-        <v>214.8747013241136</v>
+        <v>350.362729556583</v>
       </c>
       <c r="AR145" t="n">
-        <v>207.1970651176702</v>
+        <v>1045</v>
       </c>
       <c r="AS145" t="n">
-        <v>52.96936196554214</v>
+        <v>453.2813837887878</v>
       </c>
     </row>
     <row r="146">
@@ -36635,43 +35771,37 @@
       </c>
       <c r="AJ146" t="inlineStr">
         <is>
-          <t>{"A": 12.424390235267557, "mu_m": 0.037784855808899176, "lambda": 65.39369906402267}</t>
+          <t>{"A": 247998.16139685584, "mu_m": 793.9903268287594, "lambda": 361.9873414785719}</t>
         </is>
       </c>
       <c r="AK146" t="inlineStr">
         <is>
-          <t>{"A": 12.422162488313447, "mu_m": 0.028430909794218175, "lambda": 3.674479633842246e-15}</t>
-        </is>
-      </c>
-      <c r="AL146" t="inlineStr">
-        <is>
           <t>{"A": 11.824056209209362, "mu_m": 0.03617259730475729, "lambda": 74.02467563819353}</t>
         </is>
       </c>
-      <c r="AM146" t="inlineStr">
-        <is>
-          <t>{"A": 11.824056209209362, "mu_m": 0.03617259730475729, "lambda": 74.02467563819353}</t>
-        </is>
-      </c>
-      <c r="AN146" t="inlineStr">
-        <is>
-          <t>{"A": 11.82210250585595, "mu_m": 0.02717231286586407, "lambda": 8.57221214320282}</t>
-        </is>
+      <c r="AL146" t="n">
+        <v>194.27667617816</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>186.359563265353</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>54.4778240451008</v>
       </c>
       <c r="AO146" t="n">
-        <v>194.27667617816</v>
+        <v>247998.161396856</v>
       </c>
       <c r="AP146" t="n">
-        <v>186.3595632653532</v>
+        <v>793.990326828759</v>
       </c>
       <c r="AQ146" t="n">
-        <v>226.111708398374</v>
+        <v>361.987341478572</v>
       </c>
       <c r="AR146" t="n">
-        <v>218.4622753584844</v>
+        <v>1095</v>
       </c>
       <c r="AS146" t="n">
-        <v>54.4778240451008</v>
+        <v>476.8922993142825</v>
       </c>
     </row>
     <row r="147">
@@ -36930,43 +36060,37 @@
       </c>
       <c r="AJ147" t="inlineStr">
         <is>
-          <t>{"A": 12.713101679167599, "mu_m": 0.02053010986110922, "lambda": 1.3467534348128982e-23}</t>
+          <t>{"A": 326269.73407573736, "mu_m": 670.0756675510053, "lambda": 584.3655930709018}</t>
         </is>
       </c>
       <c r="AK147" t="inlineStr">
         <is>
-          <t>{"A": 12.680534079236946, "mu_m": 0.01914017192240358, "lambda": 1.0127937556502029e-14}</t>
-        </is>
-      </c>
-      <c r="AL147" t="inlineStr">
-        <is>
           <t>{"A": 12.116270506656837, "mu_m": 0.019295220076930034, "lambda": 7.171660776167921}</t>
         </is>
       </c>
-      <c r="AM147" t="inlineStr">
-        <is>
-          <t>{"A": 12.116270506656837, "mu_m": 0.019295220076930034, "lambda": 7.171660776167921}</t>
-        </is>
-      </c>
-      <c r="AN147" t="inlineStr">
-        <is>
-          <t>{"A": 12.086582837974643, "mu_m": 0.017741057295659755, "lambda": 4.0051064780330783e-13}</t>
-        </is>
+      <c r="AL147" t="n">
+        <v>238.178449260548</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>227.806318277306</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>54.2262972298764</v>
       </c>
       <c r="AO147" t="n">
-        <v>238.1784492605483</v>
+        <v>326269.734075737</v>
       </c>
       <c r="AP147" t="n">
-        <v>227.8063182773058</v>
+        <v>670.075667551005</v>
       </c>
       <c r="AQ147" t="n">
-        <v>340.6387408751441</v>
+        <v>584.365593070902</v>
       </c>
       <c r="AR147" t="n">
-        <v>331.2544456404379</v>
+        <v>1695</v>
       </c>
       <c r="AS147" t="n">
-        <v>54.22629722987637</v>
+        <v>763.49152355218</v>
       </c>
     </row>
     <row r="148">
@@ -37218,43 +36342,37 @@
       </c>
       <c r="AJ148" t="inlineStr">
         <is>
-          <t>{"A": 11.88467924288435, "mu_m": 0.019880793806850792, "lambda": 54.34920682972116}</t>
+          <t>{"A": 143936.44076338207, "mu_m": 275.48304419882686, "lambda": 601.4403057675}</t>
         </is>
       </c>
       <c r="AK148" t="inlineStr">
         <is>
-          <t>{"A": 11.86853684245102, "mu_m": 0.016612188730512734, "lambda": 1.7939087935530404e-13}</t>
-        </is>
-      </c>
-      <c r="AL148" t="inlineStr">
-        <is>
           <t>{"A": 11.283907006786436, "mu_m": 0.019074912019953517, "lambda": 73.3626687581206}</t>
         </is>
       </c>
-      <c r="AM148" t="inlineStr">
-        <is>
-          <t>{"A": 11.283907006786436, "mu_m": 0.019074912019953517, "lambda": 73.3626687581206}</t>
-        </is>
-      </c>
-      <c r="AN148" t="inlineStr">
-        <is>
-          <t>{"A": 11.27448109125887, "mu_m": 0.01532763652164714, "lambda": 4.205990115771426e-15}</t>
-        </is>
+      <c r="AL148" t="n">
+        <v>290.984506255709</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>274.266439554479</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>34.9850561193638</v>
       </c>
       <c r="AO148" t="n">
-        <v>290.9845062557088</v>
+        <v>143936.440763382</v>
       </c>
       <c r="AP148" t="n">
-        <v>274.2664395544792</v>
+        <v>275.483044198827</v>
       </c>
       <c r="AQ148" t="n">
-        <v>367.7827653120551</v>
+        <v>601.4403057675</v>
       </c>
       <c r="AR148" t="n">
-        <v>357.2237540454642</v>
+        <v>1621</v>
       </c>
       <c r="AS148" t="n">
-        <v>34.98505611936377</v>
+        <v>793.6527068836369</v>
       </c>
     </row>
     <row r="149">
@@ -37506,43 +36624,37 @@
       </c>
       <c r="AJ149" t="inlineStr">
         <is>
-          <t>{"A": 11.511856141646962, "mu_m": 0.018678230319446997, "lambda": 1.055936351452525e-17}</t>
+          <t>{"A": 100238.01983667552, "mu_m": 196.5286901052149, "lambda": 597.4660651574835}</t>
         </is>
       </c>
       <c r="AK149" t="inlineStr">
         <is>
-          <t>{"A": 11.481728120240899, "mu_m": 0.017388456974359992, "lambda": 4.199361057617093e-16}</t>
-        </is>
-      </c>
-      <c r="AL149" t="inlineStr">
-        <is>
           <t>{"A": 10.918159134370404, "mu_m": 0.017152393277182983, "lambda": 3.1054914733699424e-15}</t>
         </is>
       </c>
-      <c r="AM149" t="inlineStr">
-        <is>
-          <t>{"A": 10.918159134370404, "mu_m": 0.017152393277182983, "lambda": 3.1054914733699424e-15}</t>
-        </is>
-      </c>
-      <c r="AN149" t="inlineStr">
-        <is>
-          <t>{"A": 10.889013193437144, "mu_m": 0.015969860456400264, "lambda": 3.326289017039817e-14}</t>
-        </is>
+      <c r="AL149" t="n">
+        <v>234.169437236267</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>226.733214646456</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>21.8259312293761</v>
       </c>
       <c r="AO149" t="n">
-        <v>234.1694372362666</v>
+        <v>100238.019836676</v>
       </c>
       <c r="AP149" t="n">
-        <v>226.7332146464561</v>
+        <v>196.528690105215</v>
       </c>
       <c r="AQ149" t="n">
-        <v>340.9238679062202</v>
+        <v>597.466065157484</v>
       </c>
       <c r="AR149" t="n">
-        <v>330.1537375389659</v>
+        <v>1529</v>
       </c>
       <c r="AS149" t="n">
-        <v>21.82593122937607</v>
+        <v>785.1002813215788</v>
       </c>
     </row>
     <row r="150">
@@ -37794,43 +36906,37 @@
       </c>
       <c r="AJ150" t="inlineStr">
         <is>
-          <t>{"A": 11.550318810940055, "mu_m": 0.0186162835282235, "lambda": 8.094479281714221e-22}</t>
+          <t>{"A": 105322.35394208, "mu_m": 221.62642999261115, "lambda": 645.477411144833}</t>
         </is>
       </c>
       <c r="AK150" t="inlineStr">
         <is>
-          <t>{"A": 11.518877286465235, "mu_m": 0.01735990092244323, "lambda": 4.391005391519527e-16}</t>
-        </is>
-      </c>
-      <c r="AL150" t="inlineStr">
-        <is>
           <t>{"A": 10.95834765550563, "mu_m": 0.017053697453439935, "lambda": 1.567493898611634e-13}</t>
         </is>
       </c>
-      <c r="AM150" t="inlineStr">
-        <is>
-          <t>{"A": 10.95834765550563, "mu_m": 0.017053697453439935, "lambda": 1.567493898611634e-13}</t>
-        </is>
-      </c>
-      <c r="AN150" t="inlineStr">
-        <is>
-          <t>{"A": 10.928376207911688, "mu_m": 0.01589180333127204, "lambda": 2.7053133585090844e-14}</t>
-        </is>
+      <c r="AL150" t="n">
+        <v>236.391599104898</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>228.247750045205</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>23.2302263771272</v>
       </c>
       <c r="AO150" t="n">
-        <v>236.3915991048984</v>
+        <v>105322.35394208</v>
       </c>
       <c r="AP150" t="n">
-        <v>228.2477500452051</v>
+        <v>221.626429992611</v>
       </c>
       <c r="AQ150" t="n">
-        <v>343.8368818221758</v>
+        <v>645.477411144833</v>
       </c>
       <c r="AR150" t="n">
-        <v>331.7667922739524</v>
+        <v>1534</v>
       </c>
       <c r="AS150" t="n">
-        <v>23.23022637712721</v>
+        <v>820.3028086047165</v>
       </c>
     </row>
     <row r="151">
@@ -38082,43 +37188,37 @@
       </c>
       <c r="AJ151" t="inlineStr">
         <is>
-          <t>{"A": 11.823762846857168, "mu_m": 0.020387271471871006, "lambda": 126.94681574758553}</t>
+          <t>{"A": 134666.78348662882, "mu_m": 280.2536124896361, "lambda": 657.3374179427569}</t>
         </is>
       </c>
       <c r="AK151" t="inlineStr">
         <is>
-          <t>{"A": 11.819379569762026, "mu_m": 0.015444013806117771, "lambda": 16.796370308829093}</t>
-        </is>
-      </c>
-      <c r="AL151" t="inlineStr">
-        <is>
           <t>{"A": 11.22322946766306, "mu_m": 0.01949513927043251, "lambda": 143.6248361028152}</t>
         </is>
       </c>
-      <c r="AM151" t="inlineStr">
-        <is>
-          <t>{"A": 11.22322946766306, "mu_m": 0.01949513927043251, "lambda": 143.6248361028152}</t>
-        </is>
-      </c>
-      <c r="AN151" t="inlineStr">
-        <is>
-          <t>{"A": 11.218609741486032, "mu_m": 0.014863259595459035, "lambda": 38.682575238063635}</t>
-        </is>
+      <c r="AL151" t="n">
+        <v>355.410724237748</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>340.301470618735</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>20.2268536017871</v>
       </c>
       <c r="AO151" t="n">
-        <v>355.4107242377478</v>
+        <v>134666.783486629</v>
       </c>
       <c r="AP151" t="n">
-        <v>340.3014706187354</v>
+        <v>280.253612489636</v>
       </c>
       <c r="AQ151" t="n">
-        <v>416.0765670954587</v>
+        <v>657.337417942757</v>
       </c>
       <c r="AR151" t="n">
-        <v>399.4488244616499</v>
+        <v>1598</v>
       </c>
       <c r="AS151" t="n">
-        <v>20.22685360178711</v>
+        <v>834.1099512682597</v>
       </c>
     </row>
     <row r="152">
@@ -38370,43 +37470,37 @@
       </c>
       <c r="AJ152" t="inlineStr">
         <is>
-          <t>{"A": 11.96287367887142, "mu_m": 0.01848501386516, "lambda": 4.52750197629559e-16}</t>
+          <t>{"A": 154541.97305842655, "mu_m": 319.3355837184038, "lambda": 617.244813140804}</t>
         </is>
       </c>
       <c r="AK152" t="inlineStr">
         <is>
-          <t>{"A": 11.930729365235331, "mu_m": 0.0172347029134824, "lambda": 1.287467574374644e-16}</t>
-        </is>
-      </c>
-      <c r="AL152" t="inlineStr">
-        <is>
           <t>{"A": 11.36955533362884, "mu_m": 0.017016252245887376, "lambda": 2.2865340082497068e-21}</t>
         </is>
       </c>
-      <c r="AM152" t="inlineStr">
-        <is>
-          <t>{"A": 11.36955533362884, "mu_m": 0.017016252245887376, "lambda": 2.2865340082497068e-21}</t>
-        </is>
-      </c>
-      <c r="AN152" t="inlineStr">
-        <is>
-          <t>{"A": 11.33795243705544, "mu_m": 0.015874702044227983, "lambda": 8.526665258014696e-16}</t>
-        </is>
+      <c r="AL152" t="n">
+        <v>245.801813587599</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>238.079090223592</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>36.2805652036336</v>
       </c>
       <c r="AO152" t="n">
-        <v>245.8018135875989</v>
+        <v>154541.973058427</v>
       </c>
       <c r="AP152" t="n">
-        <v>238.0790902235919</v>
+        <v>319.335583718404</v>
       </c>
       <c r="AQ152" t="n">
-        <v>357.1075666638387</v>
+        <v>617.244813140804</v>
       </c>
       <c r="AR152" t="n">
-        <v>346.1251819984125</v>
+        <v>1588</v>
       </c>
       <c r="AS152" t="n">
-        <v>36.28056520363361</v>
+        <v>795.2795126386216</v>
       </c>
     </row>
     <row r="153">
@@ -38665,43 +37759,37 @@
       </c>
       <c r="AJ153" t="inlineStr">
         <is>
-          <t>{"A": 12.314553616448311, "mu_m": 0.020293571569314283, "lambda": 1.6047568581324754e-18}</t>
+          <t>{"A": 217319.11548796494, "mu_m": 540.8720107237472, "lambda": 580.2410888929829}</t>
         </is>
       </c>
       <c r="AK153" t="inlineStr">
         <is>
-          <t>{"A": 12.28541660947015, "mu_m": 0.018877273273212692, "lambda": 1.3129639476688305e-12}</t>
-        </is>
-      </c>
-      <c r="AL153" t="inlineStr">
-        <is>
           <t>{"A": 11.714949648202106, "mu_m": 0.019354580378965012, "lambda": 15.053161746806751}</t>
         </is>
       </c>
-      <c r="AM153" t="inlineStr">
-        <is>
-          <t>{"A": 11.714949648202106, "mu_m": 0.019354580378965012, "lambda": 15.053161746806751}</t>
-        </is>
-      </c>
-      <c r="AN153" t="inlineStr">
-        <is>
-          <t>{"A": 11.690922737856695, "mu_m": 0.017465557628051426, "lambda": 4.5868126311495885e-17}</t>
-        </is>
+      <c r="AL153" t="n">
+        <v>237.723405459041</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>223.236756882409</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>39.1111440463064</v>
       </c>
       <c r="AO153" t="n">
-        <v>237.7234054590415</v>
+        <v>217319.115487965</v>
       </c>
       <c r="AP153" t="n">
-        <v>223.2367568824085</v>
+        <v>540.8720107237471</v>
       </c>
       <c r="AQ153" t="n">
-        <v>334.6850695187627</v>
+        <v>580.241088892983</v>
       </c>
       <c r="AR153" t="n">
-        <v>325.4023086825655</v>
+        <v>1465</v>
       </c>
       <c r="AS153" t="n">
-        <v>39.11114404630639</v>
+        <v>728.0528321085478</v>
       </c>
     </row>
     <row r="154">
@@ -38953,43 +38041,37 @@
       </c>
       <c r="AJ154" t="inlineStr">
         <is>
-          <t>{"A": 12.0829855632792, "mu_m": 0.020600111692665207, "lambda": 34.59510435646698}</t>
+          <t>{"A": 172920.68534722168, "mu_m": 418.5992121975363, "lambda": 585.4953777903278}</t>
         </is>
       </c>
       <c r="AK154" t="inlineStr">
         <is>
-          <t>{"A": 12.063796649023887, "mu_m": 0.017838466466803236, "lambda": 2.6206425595326595e-14}</t>
-        </is>
-      </c>
-      <c r="AL154" t="inlineStr">
-        <is>
           <t>{"A": 11.48212375604733, "mu_m": 0.019798241599414346, "lambda": 53.337518486307374}</t>
         </is>
       </c>
-      <c r="AM154" t="inlineStr">
-        <is>
-          <t>{"A": 11.48212375604733, "mu_m": 0.019798241599414346, "lambda": 53.337518486307374}</t>
-        </is>
-      </c>
-      <c r="AN154" t="inlineStr">
-        <is>
-          <t>{"A": 11.468729698382203, "mu_m": 0.016501964552614275, "lambda": 1.9572493978615386e-15}</t>
-        </is>
+      <c r="AL154" t="n">
+        <v>266.691681765181</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>250.374612886241</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>36.4853356617845</v>
       </c>
       <c r="AO154" t="n">
-        <v>266.6916817651809</v>
+        <v>172920.685347222</v>
       </c>
       <c r="AP154" t="n">
-        <v>250.3746128862414</v>
+        <v>418.599212197536</v>
       </c>
       <c r="AQ154" t="n">
-        <v>347.4958894080676</v>
+        <v>585.495377790328</v>
       </c>
       <c r="AR154" t="n">
-        <v>338.1399592693181</v>
+        <v>1456</v>
       </c>
       <c r="AS154" t="n">
-        <v>36.48533566178448</v>
+        <v>737.4640467196416</v>
       </c>
     </row>
     <row r="155">
@@ -39241,43 +38323,37 @@
       </c>
       <c r="AJ155" t="inlineStr">
         <is>
-          <t>{"A": 12.012107972333757, "mu_m": 0.027560524110985498, "lambda": 190.28173728036515}</t>
+          <t>{"A": 165744.35261359718, "mu_m": 397.44831130668456, "lambda": 604.0757631688908}</t>
         </is>
       </c>
       <c r="AK155" t="inlineStr">
         <is>
-          <t>{"A": 12.002428095442399, "mu_m": 0.022631349547949375, "lambda": 145.68147294662543}</t>
-        </is>
-      </c>
-      <c r="AL155" t="inlineStr">
-        <is>
           <t>{"A": 11.410814022678837, "mu_m": 0.026612778765494248, "lambda": 206.03395376868886}</t>
         </is>
       </c>
-      <c r="AM155" t="inlineStr">
-        <is>
-          <t>{"A": 11.410814022678837, "mu_m": 0.026612778765494248, "lambda": 206.03395376868886}</t>
-        </is>
-      </c>
-      <c r="AN155" t="inlineStr">
-        <is>
-          <t>{"A": 11.401047539454165, "mu_m": 0.022041433266383696, "lambda": 165.74418778107315}</t>
-        </is>
+      <c r="AL155" t="n">
+        <v>363.770352622955</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>350.620036739328</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>33.4208938950568</v>
       </c>
       <c r="AO155" t="n">
-        <v>363.7703526229551</v>
+        <v>165744.352613597</v>
       </c>
       <c r="AP155" t="n">
-        <v>350.6200367393284</v>
+        <v>397.448311306685</v>
       </c>
       <c r="AQ155" t="n">
-        <v>424.3718233269515</v>
+        <v>604.0757631688909</v>
       </c>
       <c r="AR155" t="n">
-        <v>410.8540838422478</v>
+        <v>1475</v>
       </c>
       <c r="AS155" t="n">
-        <v>33.42089389505684</v>
+        <v>757.4892714974317</v>
       </c>
     </row>
     <row r="156">
@@ -39529,43 +38605,37 @@
       </c>
       <c r="AJ156" t="inlineStr">
         <is>
-          <t>{"A": 11.942335499326346, "mu_m": 0.023539242520485212, "lambda": 4.867939791286749e-12}</t>
+          <t>{"A": 152942.1469337436, "mu_m": 348.14131126033755, "lambda": 471.7037051036499}</t>
         </is>
       </c>
       <c r="AK156" t="inlineStr">
         <is>
-          <t>{"A": 11.919706736144635, "mu_m": 0.02178608079135719, "lambda": 2.0389103903037546e-15}</t>
-        </is>
-      </c>
-      <c r="AL156" t="inlineStr">
-        <is>
           <t>{"A": 11.345796182505362, "mu_m": 0.021759804784167672, "lambda": 9.401349895581688e-15}</t>
         </is>
       </c>
-      <c r="AM156" t="inlineStr">
-        <is>
-          <t>{"A": 11.345796182505362, "mu_m": 0.021759804784167672, "lambda": 9.401349895581688e-15}</t>
-        </is>
-      </c>
-      <c r="AN156" t="inlineStr">
-        <is>
-          <t>{"A": 11.32368644420471, "mu_m": 0.020155650484658474, "lambda": 8.724842607267913e-21}</t>
-        </is>
+      <c r="AL156" t="n">
+        <v>191.81629617845</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>186.638958579522</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>29.0713215392449</v>
       </c>
       <c r="AO156" t="n">
-        <v>191.8162961784498</v>
+        <v>152942.146933744</v>
       </c>
       <c r="AP156" t="n">
-        <v>186.6389585795222</v>
+        <v>348.141311260337</v>
       </c>
       <c r="AQ156" t="n">
-        <v>280.9060033270512</v>
+        <v>471.70370510365</v>
       </c>
       <c r="AR156" t="n">
-        <v>273.56243764765</v>
+        <v>1368</v>
       </c>
       <c r="AS156" t="n">
-        <v>29.07132153924488</v>
+        <v>633.3170205181842</v>
       </c>
     </row>
     <row r="157">
@@ -39817,43 +38887,37 @@
       </c>
       <c r="AJ157" t="inlineStr">
         <is>
-          <t>{"A": 12.091331098177783, "mu_m": 0.024264035137341468, "lambda": 9.002088431256388e-16}</t>
+          <t>{"A": 177118.23558866762, "mu_m": 428.262230334698, "lambda": 469.68241234944446}</t>
         </is>
       </c>
       <c r="AK157" t="inlineStr">
         <is>
-          <t>{"A": 12.069362358311128, "mu_m": 0.022429927468042583, "lambda": 3.13476512662129e-18}</t>
-        </is>
-      </c>
-      <c r="AL157" t="inlineStr">
-        <is>
           <t>{"A": 11.49451132943941, "mu_m": 0.022463283873113072, "lambda": 1.9593840759849843e-23}</t>
         </is>
       </c>
-      <c r="AM157" t="inlineStr">
-        <is>
-          <t>{"A": 11.49451132943941, "mu_m": 0.022463283873113072, "lambda": 1.9593840759849843e-23}</t>
-        </is>
-      </c>
-      <c r="AN157" t="inlineStr">
-        <is>
-          <t>{"A": 11.473025148083924, "mu_m": 0.02078361257469435, "lambda": 2.871952557938391e-17}</t>
-        </is>
+      <c r="AL157" t="n">
+        <v>188.244712050953</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>183.322852206515</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>37.9812304268706</v>
       </c>
       <c r="AO157" t="n">
-        <v>188.2447120509528</v>
+        <v>177118.235588668</v>
       </c>
       <c r="AP157" t="n">
-        <v>183.3228522065145</v>
+        <v>428.262230334698</v>
       </c>
       <c r="AQ157" t="n">
-        <v>276.0113312074826</v>
+        <v>469.682412349445</v>
       </c>
       <c r="AR157" t="n">
-        <v>269.0459515642027</v>
+        <v>1345</v>
       </c>
       <c r="AS157" t="n">
-        <v>37.98123042687062</v>
+        <v>621.8278805097081</v>
       </c>
     </row>
     <row r="158">
@@ -40112,43 +39176,37 @@
       </c>
       <c r="AJ158" t="inlineStr">
         <is>
-          <t>{"A": 12.176538757348547, "mu_m": 0.023335679207595137, "lambda": 1.3432708005638074e-12}</t>
+          <t>{"A": 192575.2171117899, "mu_m": 440.1248135244777, "lambda": 487.13164899469837}</t>
         </is>
       </c>
       <c r="AK158" t="inlineStr">
         <is>
-          <t>{"A": 12.152314402922045, "mu_m": 0.021632457708092034, "lambda": 3.3119271174771667e-16}</t>
-        </is>
-      </c>
-      <c r="AL158" t="inlineStr">
-        <is>
           <t>{"A": 11.58012172217483, "mu_m": 0.021600197137788407, "lambda": 1.045888484018858e-12}</t>
         </is>
       </c>
-      <c r="AM158" t="inlineStr">
-        <is>
-          <t>{"A": 11.58012172217483, "mu_m": 0.021600197137788407, "lambda": 1.045888484018858e-12}</t>
-        </is>
-      </c>
-      <c r="AN158" t="inlineStr">
-        <is>
-          <t>{"A": 11.556397995540463, "mu_m": 0.02004017118651889, "lambda": 1.5237601597318955e-18}</t>
-        </is>
+      <c r="AL158" t="n">
+        <v>197.22452904831</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>191.959198341991</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>38.8607542475672</v>
       </c>
       <c r="AO158" t="n">
-        <v>197.2245290483104</v>
+        <v>192575.21711179</v>
       </c>
       <c r="AP158" t="n">
-        <v>191.9591983419907</v>
+        <v>440.124813524478</v>
       </c>
       <c r="AQ158" t="n">
-        <v>288.3308203303798</v>
+        <v>487.131648994698</v>
       </c>
       <c r="AR158" t="n">
-        <v>280.8815014665726</v>
+        <v>1417</v>
       </c>
       <c r="AS158" t="n">
-        <v>38.86075424756718</v>
+        <v>648.0961324266561</v>
       </c>
     </row>
     <row r="159">
@@ -40407,43 +39465,37 @@
       </c>
       <c r="AJ159" t="inlineStr">
         <is>
-          <t>{"A": 12.276364053855868, "mu_m": 0.03369308881214548, "lambda": 28.279790336574425}</t>
+          <t>{"A": 213726.85806856316, "mu_m": 643.5867986878104, "lambda": 363.14197132687406}</t>
         </is>
       </c>
       <c r="AK159" t="inlineStr">
         <is>
-          <t>{"A": 12.267685858090303, "mu_m": 0.028344825822534555, "lambda": 3.915529574435701e-17}</t>
-        </is>
-      </c>
-      <c r="AL159" t="inlineStr">
-        <is>
           <t>{"A": 11.676043843280132, "mu_m": 0.03221751670839699, "lambda": 37.721009277562615}</t>
         </is>
       </c>
-      <c r="AM159" t="inlineStr">
-        <is>
-          <t>{"A": 11.676043843280132, "mu_m": 0.03221751670839699, "lambda": 37.721009277562615}</t>
-        </is>
-      </c>
-      <c r="AN159" t="inlineStr">
-        <is>
-          <t>{"A": 11.668990269020727, "mu_m": 0.026443794564375737, "lambda": 3.241307466316222e-20}</t>
-        </is>
+      <c r="AL159" t="n">
+        <v>171.045266483259</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>162.319799934083</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>46.8188696764129</v>
       </c>
       <c r="AO159" t="n">
-        <v>171.0452664832594</v>
+        <v>213726.858068563</v>
       </c>
       <c r="AP159" t="n">
-        <v>162.3197999340827</v>
+        <v>643.58679868781</v>
       </c>
       <c r="AQ159" t="n">
-        <v>220.6375911863426</v>
+        <v>363.141971326874</v>
       </c>
       <c r="AR159" t="n">
-        <v>216.4007980662437</v>
+        <v>1116</v>
       </c>
       <c r="AS159" t="n">
-        <v>46.81886967641291</v>
+        <v>485.3099792317887</v>
       </c>
     </row>
     <row r="160">
@@ -40702,43 +39754,37 @@
       </c>
       <c r="AJ160" t="inlineStr">
         <is>
-          <t>{"A": 12.17453607819279, "mu_m": 0.019783271352652638, "lambda": 2.0568403873321576e-12}</t>
+          <t>{"A": 192085.07636799436, "mu_m": 376.0980763847375, "lambda": 571.990958620886}</t>
         </is>
       </c>
       <c r="AK160" t="inlineStr">
         <is>
-          <t>{"A": 12.145096378314244, "mu_m": 0.01839513359454941, "lambda": 1.1240386406851015e-15}</t>
-        </is>
-      </c>
-      <c r="AL160" t="inlineStr">
-        <is>
           <t>{"A": 11.580724578011282, "mu_m": 0.018246897487358072, "lambda": 1.07386525516002e-16}</t>
         </is>
       </c>
-      <c r="AM160" t="inlineStr">
-        <is>
-          <t>{"A": 11.580724578011282, "mu_m": 0.018246897487358072, "lambda": 1.07386525516002e-16}</t>
-        </is>
-      </c>
-      <c r="AN160" t="inlineStr">
-        <is>
-          <t>{"A": 11.551865728606556, "mu_m": 0.01697641819047444, "lambda": 2.3761028235923365e-15}</t>
-        </is>
+      <c r="AL160" t="n">
+        <v>233.481362465637</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>226.391351012159</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>66.2622431378158</v>
       </c>
       <c r="AO160" t="n">
-        <v>233.4813624656374</v>
+        <v>192085.076367994</v>
       </c>
       <c r="AP160" t="n">
-        <v>226.3913510121587</v>
+        <v>376.098076384738</v>
       </c>
       <c r="AQ160" t="n">
-        <v>340.2327157294102</v>
+        <v>571.990958620886</v>
       </c>
       <c r="AR160" t="n">
-        <v>330.1171017837269</v>
+        <v>1628</v>
       </c>
       <c r="AS160" t="n">
-        <v>66.26224313781576</v>
+        <v>759.8785203731136</v>
       </c>
     </row>
     <row r="161">
@@ -40976,43 +40022,37 @@
       </c>
       <c r="AJ161" t="inlineStr">
         <is>
-          <t>{"A": 10.638036076076055, "mu_m": 0.017805862400346085, "lambda": 2.4970057863380924e-14}</t>
+          <t>{"A": 43715.04005850895, "mu_m": 82.84527037788544, "lambda": 650.2864662051674}</t>
         </is>
       </c>
       <c r="AK161" t="inlineStr">
         <is>
-          <t>{"A": 10.607339336389147, "mu_m": 0.01663976338747217, "lambda": 1.8387830214242288e-14}</t>
-        </is>
-      </c>
-      <c r="AL161" t="inlineStr">
-        <is>
           <t>{"A": 10.047924448297673, "mu_m": 0.01613781293221981, "lambda": 1.741918161588512e-13}</t>
         </is>
       </c>
-      <c r="AM161" t="inlineStr">
-        <is>
-          <t>{"A": 10.047924448297673, "mu_m": 0.01613781293221981, "lambda": 1.741918161588512e-13}</t>
-        </is>
-      </c>
-      <c r="AN161" t="inlineStr">
-        <is>
-          <t>{"A": 10.019683973810574, "mu_m": 0.01504389428980543, "lambda": 1.0015883007908483e-13}</t>
-        </is>
+      <c r="AL161" t="n">
+        <v>229.053642305678</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>219.787993349451</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>0.00054</v>
       </c>
       <c r="AO161" t="n">
-        <v>229.0536423056782</v>
+        <v>43715.040058509</v>
       </c>
       <c r="AP161" t="n">
-        <v>219.7879933494509</v>
+        <v>82.8452703778854</v>
       </c>
       <c r="AQ161" t="n">
-        <v>333.0149687571411</v>
+        <v>650.286466205167</v>
       </c>
       <c r="AR161" t="n">
-        <v>318.7346805777074</v>
+        <v>1440</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.0005400000000000001</v>
+        <v>844.4057494684923</v>
       </c>
     </row>
   </sheetData>

--- a/Notebooks/data_processed.xlsx
+++ b/Notebooks/data_processed.xlsx
@@ -145,7 +145,7 @@
     <t xml:space="preserve">l_gomp_um</t>
   </si>
   <si>
-    <t xml:space="preserve">gomp_growth_stops_10</t>
+    <t xml:space="preserve">ts_10</t>
   </si>
   <si>
     <t xml:space="preserve">tm_um</t>
@@ -15771,23 +15771,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -15798,11 +15781,11 @@
   </sheetPr>
   <dimension ref="A1:AT161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP2" activeCellId="0" sqref="AP2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="16.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="16.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
